--- a/data/tbl_dfa256/xlsx/DFA256FY18-19.xlsx
+++ b/data/tbl_dfa256/xlsx/DFA256FY18-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cdss\admd\Central Office\RSB\DS2\CalFresh\DFA256\Data Table Releases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B80B1F8-E894-4EA7-89D9-0B2BA00EBBC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A59FF04-3A24-4BA0-AAA1-83FE16F68D5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" xr2:uid="{799E3BBC-1C15-46E4-AB82-2144E706E8DD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" xr2:uid="{80C2D7F9-96AA-4A58-891E-9041E0C90583}"/>
   </bookViews>
   <sheets>
     <sheet name="Release Summary" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="TitleRegion1.a2.d32.2" localSheetId="0">[1]!DataDictionary[[#Headers],[Cell]]</definedName>
     <definedName name="TitleRegion1.a2.d32.2">DataDictionary[[#Headers],[Cell]]</definedName>
     <definedName name="TitleRegion1.a4.c16.1">ReleaseSummary[[#Headers],[REPORT MONTH]]</definedName>
-    <definedName name="TitleRegion1.A6.AK596.4">Data!$A$6</definedName>
+    <definedName name="TitleRegion1.A6.AK655.4">Data!$A$6</definedName>
     <definedName name="Z_53B10681_B06D_11D2_92B8_00104BCA8B71_.wvu.Cols" localSheetId="3" hidden="1">'[2]ACL VALIDATIONS 07-15'!#REF!</definedName>
     <definedName name="Z_53B10681_B06D_11D2_92B8_00104BCA8B71_.wvu.Cols" localSheetId="1" hidden="1">'[3]ACL VALIDATIONS 07-15'!#REF!</definedName>
     <definedName name="Z_53B10681_B06D_11D2_92B8_00104BCA8B71_.wvu.Cols" hidden="1">'[2]ACL VALIDATIONS 07-15'!#REF!</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="278">
   <si>
     <t>Food Stamp Program</t>
   </si>
@@ -2540,14 +2540,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{DB4ED117-2B52-45DE-A102-7403ECAA6723}"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{666196F0-12EC-473E-A43A-C906A1B0774A}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 11 7" xfId="7" xr:uid="{FE0BB459-C1D5-4A48-AB23-00FF22FFDF57}"/>
-    <cellStyle name="Normal 13 3" xfId="6" xr:uid="{54B1887F-1863-4F88-B8DF-E31FFEF7230B}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{68CABD78-70A4-4C3A-A874-2BB8F27B384C}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{D60DB3E6-C74C-421B-BF55-ADAB090C686A}"/>
-    <cellStyle name="Normal 79" xfId="4" xr:uid="{7BBE3524-E7AC-43B8-8398-8992C26DA953}"/>
-    <cellStyle name="Normal 81" xfId="5" xr:uid="{AD0D7962-B883-48F1-B393-599B7F9AF46E}"/>
+    <cellStyle name="Normal 11 7" xfId="7" xr:uid="{F094B725-57C9-4F48-A780-B62F99142C96}"/>
+    <cellStyle name="Normal 13 3" xfId="6" xr:uid="{105D1E96-DD14-4C54-8F0C-1B3B65929CFA}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{AC582573-E8AA-49C1-825F-1A5125C319B8}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{7D61F05F-2D39-46EE-A634-EBD60F249336}"/>
+    <cellStyle name="Normal 79" xfId="4" xr:uid="{2CEAEA73-1405-44B2-BE1F-BA67F6A68289}"/>
+    <cellStyle name="Normal 81" xfId="5" xr:uid="{AAD074EE-C896-417A-BD19-D8184EED242F}"/>
   </cellStyles>
   <dxfs count="63">
     <dxf>
@@ -4548,8 +4548,6 @@
       <sheetName val="Apr County"/>
       <sheetName val="Apr Edits"/>
       <sheetName val="Apr Intake"/>
-      <sheetName val="COMPARISONS COUNTY"/>
-      <sheetName val="COMPARISON CELLS"/>
       <sheetName val="May County"/>
       <sheetName val="May Edits"/>
       <sheetName val="May Intake"/>
@@ -4568,6 +4566,8 @@
       <sheetName val="Apr FNS388A Household Formula"/>
       <sheetName val="May FNS388A Household Formula"/>
       <sheetName val="Jun FNS388A Household Formula"/>
+      <sheetName val="COMPARISONS COUNTY"/>
+      <sheetName val="COMPARISON CELLS"/>
       <sheetName val="FNS388A INSTRUCTIONS"/>
       <sheetName val="FNS388A Household Formula"/>
       <sheetName val="FNS 388A"/>
@@ -4737,8 +4737,8 @@
           </cell>
         </row>
         <row r="13">
-          <cell r="B13" t="str">
-            <v>N/A</v>
+          <cell r="B13">
+            <v>43586</v>
           </cell>
         </row>
         <row r="14">
@@ -5069,83 +5069,83 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{88BC7C23-F1EB-4089-A0BF-324785746295}" name="ReleaseSummary" displayName="ReleaseSummary" ref="A4:C16" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" headerRowBorderDxfId="50" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{88BC7B27-4838-4B50-8927-6BC82DD861CE}" name="ReleaseSummary" displayName="ReleaseSummary" ref="A4:C16" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" headerRowBorderDxfId="50" tableBorderDxfId="51">
   <autoFilter ref="A4:C16" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E339B48C-14E2-4C63-A0AB-464F64553E3C}" name="REPORT MONTH" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{CE66E0BA-68E4-4E33-8806-83A37BAD3EF3}" name="RELEASE DATE" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{2E5096AA-E4CF-41EA-834F-94187F18EE94}" name="COMMENTS  a/" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{52BB6206-3659-4B20-BEA9-147CE38BA9E9}" name="REPORT MONTH" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{9BD64AF8-6B12-4531-8CBB-4FF994C650A4}" name="RELEASE DATE" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{7AEF9828-F575-4E8E-B632-DA17E9E9B664}" name="COMMENTS  a/" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AAD8346A-AB87-4E49-9194-C5C49FDB1731}" name="DataDictionary" displayName="DataDictionary" ref="A2:D32" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" headerRowBorderDxfId="59" tableBorderDxfId="60" totalsRowBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57DAFFD5-ED25-4F93-A94D-0A42CBEE49B3}" name="DataDictionary" displayName="DataDictionary" ref="A2:D32" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" headerRowBorderDxfId="59" tableBorderDxfId="60" totalsRowBorderDxfId="58">
   <autoFilter ref="A2:D32" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState ref="A3:D32">
     <sortCondition ref="A2:A32"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BCEFED0E-B67C-4802-843F-5D097928BA9A}" name="Cell" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{8FC5B4A8-0258-40AC-A90B-8482F29CB16B}" name="Part" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{2A7BC863-317C-4D81-B50D-B01079A63E39}" name="Item " dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{EDEE0D6C-4C9E-465B-975E-E3130BB5483C}" name="Column" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{4E8BBC34-C002-4D4F-A820-9BDCA081786F}" name="Cell" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{EC446425-4F59-466F-96AF-02DF68F4D47E}" name="Part" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{9F408DAD-3B20-49C5-A185-C2DDD98DD189}" name="Item " dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{6B18C734-8671-495B-AA00-A4E748DA3354}" name="Column" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0ACE6ED1-09D4-4D4B-9407-DA48A67E9A07}" name="DataTable" displayName="DataTable" ref="A6:AK596" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="39" headerRowCellStyle="Normal 81" dataCellStyle="Normal 81">
-  <autoFilter ref="A6:AK596" xr:uid="{EA859AB8-0AA6-4DCD-9988-C65AFEAC2ED7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{725CAD84-4602-460A-983E-9E7D94FF17D3}" name="DataTable" displayName="DataTable" ref="A6:AK655" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="39" headerRowCellStyle="Normal 81" dataCellStyle="Normal 81">
+  <autoFilter ref="A6:AK655" xr:uid="{80BDF66D-BF58-46D4-88D1-6DDE1288E9F8}"/>
   <tableColumns count="37">
-    <tableColumn id="1" xr3:uid="{A104EEED-2FED-498A-B56F-3E94C8DAE406}" name="Date" dataDxfId="38" dataCellStyle="Normal 81"/>
-    <tableColumn id="2" xr3:uid="{AB4F00D7-CB4C-49AA-883A-95034756C7C9}" name="County Name" dataDxfId="37" dataCellStyle="Normal 81"/>
-    <tableColumn id="3" xr3:uid="{437F0C46-4AE5-4735-98BC-A82A96AA2265}" name=" " dataDxfId="36" dataCellStyle="Normal 81"/>
-    <tableColumn id="4" xr3:uid="{BF4C8DED-7A4A-477E-87E7-298633E7835E}" name="County Code" dataDxfId="35" dataCellStyle="Normal 81"/>
-    <tableColumn id="5" xr3:uid="{99441EEC-2663-421F-A0DA-5ECD1FEA1B76}" name="SFY" dataDxfId="34" dataCellStyle="Normal 81"/>
-    <tableColumn id="6" xr3:uid="{B0B57AE2-E464-4FAC-89D1-DE98F1F36DCA}" name="FFY" dataDxfId="33" dataCellStyle="Normal 81"/>
-    <tableColumn id="7" xr3:uid="{6290F05B-A412-4454-98B2-2A35043550FC}" name="Report Month" dataDxfId="32" dataCellStyle="Normal 81"/>
-    <tableColumn id="8" xr3:uid="{625A8649-D138-4047-9042-4B272BF8CD65}" name="Cell 1" dataDxfId="31" dataCellStyle="Normal 81"/>
-    <tableColumn id="9" xr3:uid="{F0FA577B-FF2D-493B-8B4D-2ED595F62EE2}" name="Cell 2" dataDxfId="30" dataCellStyle="Normal 81"/>
-    <tableColumn id="10" xr3:uid="{00D81128-0F3B-4982-BA02-99CB641A0FFA}" name="Cell 3" dataDxfId="29" dataCellStyle="Normal 81"/>
-    <tableColumn id="11" xr3:uid="{1583BA13-EF26-435C-A56A-9BBB5D6C8BD9}" name="Cell 4" dataDxfId="28" dataCellStyle="Normal 81"/>
-    <tableColumn id="12" xr3:uid="{3D9F6D74-E598-4196-A58D-E8692297B10A}" name="Cell 5" dataDxfId="27" dataCellStyle="Normal 81"/>
-    <tableColumn id="13" xr3:uid="{F6E3E93E-5209-474D-95CC-613C98513D16}" name="Cell 6" dataDxfId="26" dataCellStyle="Normal 81"/>
-    <tableColumn id="14" xr3:uid="{116C64EB-41DA-4458-8712-B12479BAA2FD}" name="Cell 15" dataDxfId="25" dataCellStyle="Normal 81"/>
-    <tableColumn id="15" xr3:uid="{61E9A0A6-D492-45B9-B3B3-3FA3F8C3CB49}" name="Cell 16" dataDxfId="24" dataCellStyle="Normal 81"/>
-    <tableColumn id="16" xr3:uid="{4A4D50C4-C07C-4369-94E9-C258D49CDBA6}" name="Cell 17" dataDxfId="23" dataCellStyle="Normal 81"/>
-    <tableColumn id="17" xr3:uid="{6F7991C2-5C94-4493-A623-564E0195E8A7}" name="Cell 7" dataDxfId="22" dataCellStyle="Normal 81"/>
-    <tableColumn id="18" xr3:uid="{088E9BED-D311-4A87-BDBD-208B2590ECB2}" name="Cell 8" dataDxfId="21" dataCellStyle="Normal 81"/>
-    <tableColumn id="19" xr3:uid="{75E61D61-331A-48DA-8BEF-96BE071ABE2F}" name="Cell 18" dataDxfId="20" dataCellStyle="Normal 81"/>
-    <tableColumn id="20" xr3:uid="{1446DDDD-9A07-4F17-A3B2-720204303B66}" name="Cell 9" dataDxfId="19" dataCellStyle="Normal 81"/>
-    <tableColumn id="21" xr3:uid="{AC1CFB5A-CE3A-4F55-A724-782181CBAC5C}" name="Cell 10" dataDxfId="18" dataCellStyle="Normal 81"/>
-    <tableColumn id="22" xr3:uid="{F3EAF06F-30FE-418A-A3F7-2C869B17E66E}" name="Cell 11" dataDxfId="17" dataCellStyle="Normal 81"/>
-    <tableColumn id="23" xr3:uid="{4B21B7C9-96C9-49C1-BECF-AE5A10D3239C}" name="Cell 12" dataDxfId="16" dataCellStyle="Normal 81"/>
-    <tableColumn id="24" xr3:uid="{0CBC2C2B-572A-4ADB-847F-C550E0050126}" name="Cell 19" dataDxfId="15" dataCellStyle="Normal 81"/>
-    <tableColumn id="25" xr3:uid="{D311B61B-6344-4BAC-98F1-CE28354A248A}" name="Cell 20" dataDxfId="14" dataCellStyle="Normal 81"/>
-    <tableColumn id="26" xr3:uid="{6ED6C5FF-02E8-4D72-A7E0-53FFA655D084}" name="Cell 13" dataDxfId="13" dataCellStyle="Normal 81"/>
-    <tableColumn id="27" xr3:uid="{070A137A-91D4-4B3B-AB58-2F8335646241}" name="Cell 14" dataDxfId="12" dataCellStyle="Normal 81"/>
-    <tableColumn id="28" xr3:uid="{E1AADBDD-25E3-48EF-8C8D-E175C2648180}" name="Cell 21" dataDxfId="11" dataCellStyle="Normal 81"/>
-    <tableColumn id="29" xr3:uid="{9BBED1A6-0C41-4EEA-85B6-3C9E56EB0164}" name="Cell 22" dataDxfId="10" dataCellStyle="Normal 81"/>
-    <tableColumn id="30" xr3:uid="{7DD57033-0B68-4AD0-90CC-E014EAB719F0}" name="Cell 23" dataDxfId="9" dataCellStyle="Normal 81"/>
-    <tableColumn id="31" xr3:uid="{1BC3B2D2-A4C3-4D4B-ACCB-3E7B547A1D3D}" name="Cell 24" dataDxfId="8" dataCellStyle="Normal 81"/>
-    <tableColumn id="32" xr3:uid="{D4714433-B4F3-41F0-9DCF-0A654FF98930}" name="Cell 25" dataDxfId="7" dataCellStyle="Normal 81"/>
-    <tableColumn id="33" xr3:uid="{1F9327F4-5E04-4A0A-AC4F-86F29F0284C5}" name="Cell 26" dataDxfId="6" dataCellStyle="Normal 81"/>
-    <tableColumn id="34" xr3:uid="{EA80D493-AC10-47D2-B611-ADAB46B384FB}" name="Cell 27" dataDxfId="5" dataCellStyle="Normal 81"/>
-    <tableColumn id="35" xr3:uid="{661905CA-426C-4BAC-B851-34CAFF2E8D84}" name="Cell 28" dataDxfId="4" dataCellStyle="Normal 81"/>
-    <tableColumn id="36" xr3:uid="{BC9309DD-8D74-4216-B17D-52DB98860427}" name="Cell 29" dataDxfId="3" dataCellStyle="Normal 81"/>
-    <tableColumn id="37" xr3:uid="{7A014E86-C2A8-44AB-B135-F993504888F1}" name="Cell 30" dataDxfId="2" dataCellStyle="Normal 81"/>
+    <tableColumn id="1" xr3:uid="{0041593A-B7D1-4CBE-944F-178C5C97D148}" name="Date" dataDxfId="38" dataCellStyle="Normal 81"/>
+    <tableColumn id="2" xr3:uid="{83FD1176-BC94-4355-AD38-B9484A06D049}" name="County Name" dataDxfId="37" dataCellStyle="Normal 81"/>
+    <tableColumn id="3" xr3:uid="{BB8A02D6-56A3-41F6-A2C3-84CEBD178C05}" name=" " dataDxfId="36" dataCellStyle="Normal 81"/>
+    <tableColumn id="4" xr3:uid="{809BBB3D-143A-410E-B9A2-6745BEFC93AB}" name="County Code" dataDxfId="35" dataCellStyle="Normal 81"/>
+    <tableColumn id="5" xr3:uid="{0114B52C-F716-4319-AEC3-BCEBAFFDBDBA}" name="SFY" dataDxfId="34" dataCellStyle="Normal 81"/>
+    <tableColumn id="6" xr3:uid="{76925EF1-4B2F-46E5-8286-05CEF6ECAFCE}" name="FFY" dataDxfId="33" dataCellStyle="Normal 81"/>
+    <tableColumn id="7" xr3:uid="{F82FB7B6-D398-4EC3-9FCF-7D2DCAFECD47}" name="Report Month" dataDxfId="32" dataCellStyle="Normal 81"/>
+    <tableColumn id="8" xr3:uid="{2263375B-9435-4B17-87A3-19564C049D76}" name="Cell 1" dataDxfId="31" dataCellStyle="Normal 81"/>
+    <tableColumn id="9" xr3:uid="{BD1AB672-3E7F-4785-821A-F2A20DB9D68C}" name="Cell 2" dataDxfId="30" dataCellStyle="Normal 81"/>
+    <tableColumn id="10" xr3:uid="{861BAA21-BCA9-42C1-BDC1-E28D595FEBB8}" name="Cell 3" dataDxfId="29" dataCellStyle="Normal 81"/>
+    <tableColumn id="11" xr3:uid="{E89EED12-9CEC-4740-8EA3-8E8029FBCF7B}" name="Cell 4" dataDxfId="28" dataCellStyle="Normal 81"/>
+    <tableColumn id="12" xr3:uid="{A293F716-6CA5-4C05-8E5B-4D3A6508F0A2}" name="Cell 5" dataDxfId="27" dataCellStyle="Normal 81"/>
+    <tableColumn id="13" xr3:uid="{23F5FEF6-F793-4B3A-B652-F431CB78B277}" name="Cell 6" dataDxfId="26" dataCellStyle="Normal 81"/>
+    <tableColumn id="14" xr3:uid="{E2F8EEE0-8D66-45FA-8A54-5256D9DAFF2A}" name="Cell 15" dataDxfId="25" dataCellStyle="Normal 81"/>
+    <tableColumn id="15" xr3:uid="{2F767358-69F6-4AE0-9E19-6E02FD5F15C8}" name="Cell 16" dataDxfId="24" dataCellStyle="Normal 81"/>
+    <tableColumn id="16" xr3:uid="{9FCEDA2F-2124-49E6-9E1B-2DD736000021}" name="Cell 17" dataDxfId="23" dataCellStyle="Normal 81"/>
+    <tableColumn id="17" xr3:uid="{2FFEF58F-6940-4F35-B970-790AB57F7BFC}" name="Cell 7" dataDxfId="22" dataCellStyle="Normal 81"/>
+    <tableColumn id="18" xr3:uid="{D37D5EE5-6C64-4CC2-B0A1-E835366C68AA}" name="Cell 8" dataDxfId="21" dataCellStyle="Normal 81"/>
+    <tableColumn id="19" xr3:uid="{D725354D-4050-4A3F-A450-3F77A1BF40D7}" name="Cell 18" dataDxfId="20" dataCellStyle="Normal 81"/>
+    <tableColumn id="20" xr3:uid="{17A653EF-1FDC-4198-9A5F-805495260490}" name="Cell 9" dataDxfId="19" dataCellStyle="Normal 81"/>
+    <tableColumn id="21" xr3:uid="{CBC27C42-4F7D-44F2-89E1-379AD2979839}" name="Cell 10" dataDxfId="18" dataCellStyle="Normal 81"/>
+    <tableColumn id="22" xr3:uid="{90F6BF4D-4D00-4782-A68F-762B0B1BA6AD}" name="Cell 11" dataDxfId="17" dataCellStyle="Normal 81"/>
+    <tableColumn id="23" xr3:uid="{3051B282-C816-40D7-86DC-0F3998CCF4ED}" name="Cell 12" dataDxfId="16" dataCellStyle="Normal 81"/>
+    <tableColumn id="24" xr3:uid="{DCFE0B88-799E-45BF-9A1F-090F5F4AE12D}" name="Cell 19" dataDxfId="15" dataCellStyle="Normal 81"/>
+    <tableColumn id="25" xr3:uid="{E12FEDB3-A457-4D2D-9200-41C674D7E8BB}" name="Cell 20" dataDxfId="14" dataCellStyle="Normal 81"/>
+    <tableColumn id="26" xr3:uid="{FF932818-A701-44B6-AC02-A58491AA398D}" name="Cell 13" dataDxfId="13" dataCellStyle="Normal 81"/>
+    <tableColumn id="27" xr3:uid="{C5EE3C42-DFD8-4B19-993A-170CC4F77440}" name="Cell 14" dataDxfId="12" dataCellStyle="Normal 81"/>
+    <tableColumn id="28" xr3:uid="{C2A38A50-33FC-4776-AA1C-FBD549C48BA1}" name="Cell 21" dataDxfId="11" dataCellStyle="Normal 81"/>
+    <tableColumn id="29" xr3:uid="{D6AD0C29-38E1-4F44-8CB7-FC4C799998F8}" name="Cell 22" dataDxfId="10" dataCellStyle="Normal 81"/>
+    <tableColumn id="30" xr3:uid="{BB61E332-2C25-4A51-88D1-8C6A967A5056}" name="Cell 23" dataDxfId="9" dataCellStyle="Normal 81"/>
+    <tableColumn id="31" xr3:uid="{27BA977A-3F57-4B51-873E-E6F4AD224786}" name="Cell 24" dataDxfId="8" dataCellStyle="Normal 81"/>
+    <tableColumn id="32" xr3:uid="{0A29AE78-BFF7-4EB5-B302-25C24CE63B16}" name="Cell 25" dataDxfId="7" dataCellStyle="Normal 81"/>
+    <tableColumn id="33" xr3:uid="{624C6E8B-190E-474D-A95E-7EF9B61E03BE}" name="Cell 26" dataDxfId="6" dataCellStyle="Normal 81"/>
+    <tableColumn id="34" xr3:uid="{16DCAD09-FDB3-48F6-BF9B-6E01D0083304}" name="Cell 27" dataDxfId="5" dataCellStyle="Normal 81"/>
+    <tableColumn id="35" xr3:uid="{2DEF88AA-0CCA-4968-B138-42765D188FF5}" name="Cell 28" dataDxfId="4" dataCellStyle="Normal 81"/>
+    <tableColumn id="36" xr3:uid="{A311C31C-BF86-444D-9FE2-82A139A5CC20}" name="Cell 29" dataDxfId="3" dataCellStyle="Normal 81"/>
+    <tableColumn id="37" xr3:uid="{CCF4780A-006B-47F0-B032-465ABA4817E9}" name="Cell 30" dataDxfId="2" dataCellStyle="Normal 81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altText="DFA256 FY18-19 Data updated through April 2019"/>
+      <x14:table altText="DFA256 FY18-19 Data updated through May 2019"/>
     </ext>
   </extLst>
 </table>
@@ -5447,7 +5447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBB122A-2FC6-4FF5-B85D-1BB74C0C6D07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C088D3-05FB-4FAE-8BAA-0E9EAF58F6E8}">
   <sheetPr codeName="Sheet35">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6038,8 +6038,12 @@
       <c r="A15" s="237">
         <v>43586</v>
       </c>
-      <c r="B15" s="246"/>
-      <c r="C15" s="247"/>
+      <c r="B15" s="246">
+        <v>43654</v>
+      </c>
+      <c r="C15" s="247" t="s">
+        <v>270</v>
+      </c>
       <c r="D15" s="244"/>
       <c r="E15" s="245"/>
     </row>
@@ -6061,7 +6065,7 @@
     <mergeCell ref="F2:I3"/>
     <mergeCell ref="A3:C3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B9:C10 B12:C16 B11 B7:B8">
+  <conditionalFormatting sqref="B9:C10 B12:C16 B7:B8 B11">
     <cfRule type="expression" dxfId="46" priority="5">
       <formula>$B7=""</formula>
     </cfRule>
@@ -6101,7 +6105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A734B8-F46C-4C00-9E7D-F4BE6D1394E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262C4F74-CE49-43DC-8A56-257DAC659C16}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -6534,7 +6538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4E7111-2B33-4380-B4D4-B44056F7AFEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5F21F1-99EE-411C-8E90-DC947D3C134D}">
   <sheetPr codeName="Sheet72">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7843,7 +7847,7 @@
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="29">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
@@ -8027,43 +8031,43 @@
         <v>1</v>
       </c>
       <c r="G12" s="63">
-        <f t="array" ref="G12">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",F12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",F12),Data!$H$6:$AK$6,0)))</f>
-        <v>193253</v>
+        <f t="array" ref="G12">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",F12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",F12),Data!$H$6:$AK$6,0)))</f>
+        <v>193439</v>
       </c>
       <c r="H12" s="64">
         <v>2</v>
       </c>
       <c r="I12" s="63">
-        <f t="array" ref="I12">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",H12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",H12),Data!$H$6:$AK$6,0)))</f>
-        <v>4068</v>
+        <f t="array" ref="I12">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",H12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",H12),Data!$H$6:$AK$6,0)))</f>
+        <v>4086</v>
       </c>
       <c r="J12" s="64">
         <v>3</v>
       </c>
       <c r="K12" s="63">
-        <f t="array" ref="K12">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",J12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",J12),Data!$H$6:$AK$6,0)))</f>
-        <v>273</v>
+        <f t="array" ref="K12">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",J12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",J12),Data!$H$6:$AK$6,0)))</f>
+        <v>282</v>
       </c>
       <c r="L12" s="64">
         <v>4</v>
       </c>
       <c r="M12" s="63">
-        <f t="array" ref="M12">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",L12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",L12),Data!$H$6:$AK$6,0)))</f>
-        <v>1618084</v>
+        <f t="array" ref="M12">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",L12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",L12),Data!$H$6:$AK$6,0)))</f>
+        <v>1631377</v>
       </c>
       <c r="N12" s="64">
         <v>5</v>
       </c>
       <c r="O12" s="63">
-        <f t="array" ref="O12">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",N12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",N12),Data!$H$6:$AK$6,0)))</f>
-        <v>15944</v>
+        <f t="array" ref="O12">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",N12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",N12),Data!$H$6:$AK$6,0)))</f>
+        <v>15851</v>
       </c>
       <c r="P12" s="64">
         <v>6</v>
       </c>
       <c r="Q12" s="63">
-        <f t="array" ref="Q12">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P12),Data!$H$6:$AK$6,0)))</f>
-        <v>7658</v>
+        <f t="array" ref="Q12">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P12),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P12),Data!$H$6:$AK$6,0)))</f>
+        <v>7620</v>
       </c>
       <c r="S12" s="65"/>
       <c r="T12" s="65"/>
@@ -8073,8 +8077,8 @@
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>170</v>
+      <c r="B13" s="17">
+        <v>43586</v>
       </c>
       <c r="C13" s="66" t="s">
         <v>24</v>
@@ -8087,8 +8091,8 @@
         <v>7</v>
       </c>
       <c r="G13" s="63">
-        <f t="array" ref="G13">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",F13),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",F13),Data!$H$6:$AK$6,0)))</f>
-        <v>489564</v>
+        <f t="array" ref="G13">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",F13),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",F13),Data!$H$6:$AK$6,0)))</f>
+        <v>490277</v>
       </c>
       <c r="H13" s="69"/>
       <c r="I13" s="70"/>
@@ -8098,8 +8102,8 @@
         <v>8</v>
       </c>
       <c r="M13" s="63">
-        <f t="array" ref="M13">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",L13),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",L13),Data!$H$6:$AK$6,0)))</f>
-        <v>3086259</v>
+        <f t="array" ref="M13">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",L13),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",L13),Data!$H$6:$AK$6,0)))</f>
+        <v>3098203</v>
       </c>
       <c r="N13" s="69"/>
       <c r="O13" s="70"/>
@@ -8127,8 +8131,8 @@
         <v>9</v>
       </c>
       <c r="G14" s="71">
-        <f t="array" ref="G14">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",F14),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",F14),Data!$H$6:$AK$6,0)))</f>
-        <v>9066</v>
+        <f t="array" ref="G14">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",F14),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",F14),Data!$H$6:$AK$6,0)))</f>
+        <v>9151</v>
       </c>
       <c r="H14" s="69"/>
       <c r="I14" s="70"/>
@@ -8136,15 +8140,15 @@
         <v>10</v>
       </c>
       <c r="K14" s="71">
-        <f t="array" ref="K14">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",J14),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",J14),Data!$H$6:$AK$6,0)))</f>
-        <v>5597</v>
+        <f t="array" ref="K14">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",J14),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",J14),Data!$H$6:$AK$6,0)))</f>
+        <v>5636</v>
       </c>
       <c r="L14" s="64">
         <v>11</v>
       </c>
       <c r="M14" s="63">
-        <f t="array" ref="M14">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",L14),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",L14),Data!$H$6:$AK$6,0)))</f>
-        <v>38765</v>
+        <f t="array" ref="M14">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",L14),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",L14),Data!$H$6:$AK$6,0)))</f>
+        <v>38682</v>
       </c>
       <c r="N14" s="69"/>
       <c r="O14" s="70"/>
@@ -8152,8 +8156,8 @@
         <v>12</v>
       </c>
       <c r="Q14" s="63">
-        <f t="array" ref="Q14">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P14),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P14),Data!$H$6:$AK$6,0)))</f>
-        <v>19836</v>
+        <f t="array" ref="Q14">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P14),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P14),Data!$H$6:$AK$6,0)))</f>
+        <v>19861</v>
       </c>
       <c r="S14" s="34"/>
       <c r="T14" s="34"/>
@@ -8178,8 +8182,8 @@
         <v>13</v>
       </c>
       <c r="K15" s="77">
-        <f t="array" ref="K15">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",J15),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",J15),Data!$H$6:$AK$6,0)))</f>
-        <v>434</v>
+        <f t="array" ref="K15">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",J15),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",J15),Data!$H$6:$AK$6,0)))</f>
+        <v>439</v>
       </c>
       <c r="L15" s="74"/>
       <c r="M15" s="75"/>
@@ -8189,8 +8193,8 @@
         <v>14</v>
       </c>
       <c r="Q15" s="78">
-        <f t="array" ref="Q15">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P15),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P15),Data!$H$6:$AK$6,0)))</f>
-        <v>9914</v>
+        <f t="array" ref="Q15">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P15),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P15),Data!$H$6:$AK$6,0)))</f>
+        <v>9901</v>
       </c>
       <c r="S15" s="34"/>
       <c r="T15" s="34"/>
@@ -8221,8 +8225,8 @@
         <v>15</v>
       </c>
       <c r="Q16" s="85">
-        <f t="array" ref="Q16">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P16),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P16),Data!$H$6:$AK$6,0)))</f>
-        <v>1811337</v>
+        <f t="array" ref="Q16">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P16),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P16),Data!$H$6:$AK$6,0)))</f>
+        <v>1824816</v>
       </c>
       <c r="S16" s="34"/>
       <c r="T16" s="34"/>
@@ -8253,8 +8257,8 @@
         <v>16</v>
       </c>
       <c r="Q17" s="85">
-        <f t="array" ref="Q17">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P17),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P17),Data!$H$6:$AK$6,0)))</f>
-        <v>20012</v>
+        <f t="array" ref="Q17">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P17),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P17),Data!$H$6:$AK$6,0)))</f>
+        <v>19937</v>
       </c>
       <c r="S17" s="34"/>
       <c r="T17" s="34"/>
@@ -8285,8 +8289,8 @@
         <v>17</v>
       </c>
       <c r="Q18" s="85">
-        <f t="array" ref="Q18">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P18),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P18),Data!$H$6:$AK$6,0)))</f>
-        <v>7931</v>
+        <f t="array" ref="Q18">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P18),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P18),Data!$H$6:$AK$6,0)))</f>
+        <v>7902</v>
       </c>
       <c r="S18" s="34"/>
       <c r="T18" s="34"/>
@@ -8318,8 +8322,8 @@
         <v>18</v>
       </c>
       <c r="Q19" s="78">
-        <f t="array" ref="Q19">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P19),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P19),Data!$H$6:$AK$6,0)))</f>
-        <v>3575823</v>
+        <f t="array" ref="Q19">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P19),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P19),Data!$H$6:$AK$6,0)))</f>
+        <v>3588480</v>
       </c>
       <c r="R19" s="93"/>
       <c r="S19" s="34"/>
@@ -8356,8 +8360,8 @@
         <v>19</v>
       </c>
       <c r="Q20" s="78">
-        <f t="array" ref="Q20">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P20),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P20),Data!$H$6:$AK$6,0)))</f>
-        <v>47831</v>
+        <f t="array" ref="Q20">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P20),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P20),Data!$H$6:$AK$6,0)))</f>
+        <v>47833</v>
       </c>
       <c r="R20" s="93"/>
       <c r="S20" s="34"/>
@@ -8394,8 +8398,8 @@
         <v>20</v>
       </c>
       <c r="Q21" s="95">
-        <f t="array" ref="Q21">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P21),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P21),Data!$H$6:$AK$6,0)))</f>
-        <v>25433</v>
+        <f t="array" ref="Q21">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P21),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P21),Data!$H$6:$AK$6,0)))</f>
+        <v>25497</v>
       </c>
       <c r="R21" s="93"/>
       <c r="S21" s="34"/>
@@ -8432,8 +8436,8 @@
         <v>21</v>
       </c>
       <c r="Q22" s="63">
-        <f t="array" ref="Q22">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P22),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P22),Data!$H$6:$AK$6,0)))</f>
-        <v>10348</v>
+        <f t="array" ref="Q22">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P22),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P22),Data!$H$6:$AK$6,0)))</f>
+        <v>10340</v>
       </c>
       <c r="R22" s="93"/>
       <c r="S22" s="34"/>
@@ -8501,7 +8505,7 @@
         <v>22</v>
       </c>
       <c r="Q24" s="78">
-        <f t="array" ref="Q24">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P24),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P24),Data!$H$6:$AK$6,0)))</f>
+        <f t="array" ref="Q24">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P24),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P24),Data!$H$6:$AK$6,0)))</f>
         <v>0</v>
       </c>
       <c r="R24" s="93"/>
@@ -8539,7 +8543,7 @@
         <v>23</v>
       </c>
       <c r="Q25" s="78">
-        <f t="array" ref="Q25">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P25),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P25),Data!$H$6:$AK$6,0)))</f>
+        <f t="array" ref="Q25">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P25),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P25),Data!$H$6:$AK$6,0)))</f>
         <v>0</v>
       </c>
       <c r="R25" s="93"/>
@@ -8577,7 +8581,7 @@
         <v>24</v>
       </c>
       <c r="Q26" s="78">
-        <f t="array" ref="Q26">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P26),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P26),Data!$H$6:$AK$6,0)))</f>
+        <f t="array" ref="Q26">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P26),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P26),Data!$H$6:$AK$6,0)))</f>
         <v>0</v>
       </c>
       <c r="R26" s="93"/>
@@ -8614,8 +8618,8 @@
         <v>25</v>
       </c>
       <c r="Q27" s="78">
-        <f t="array" ref="Q27">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P27),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P27),Data!$H$6:$AK$6,0)))</f>
-        <v>1956561</v>
+        <f t="array" ref="Q27">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P27),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P27),Data!$H$6:$AK$6,0)))</f>
+        <v>1973354</v>
       </c>
       <c r="S27" s="34"/>
       <c r="T27" s="34"/>
@@ -8646,8 +8650,8 @@
         <v>26</v>
       </c>
       <c r="Q28" s="63">
-        <f t="array" ref="Q28">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P28),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P28),Data!$H$6:$AK$6,0)))</f>
-        <v>1956561</v>
+        <f t="array" ref="Q28">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P28),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P28),Data!$H$6:$AK$6,0)))</f>
+        <v>1973354</v>
       </c>
       <c r="S28" s="34"/>
       <c r="T28" s="34"/>
@@ -8676,7 +8680,7 @@
         <v>27</v>
       </c>
       <c r="O29" s="63">
-        <f t="array" ref="O29">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",N29),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",N29),Data!$H$6:$AK$6,0)))</f>
+        <f t="array" ref="O29">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",N29),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",N29),Data!$H$6:$AK$6,0)))</f>
         <v>0</v>
       </c>
       <c r="P29" s="126"/>
@@ -8737,8 +8741,8 @@
         <v>28</v>
       </c>
       <c r="Q31" s="136">
-        <f t="array" ref="Q31">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P31),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P31),Data!$H$6:$AK$6,0)))</f>
-        <v>483975587</v>
+        <f t="array" ref="Q31">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P31),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P31),Data!$H$6:$AK$6,0)))</f>
+        <v>485268779</v>
       </c>
       <c r="S31" s="34"/>
       <c r="T31" s="34"/>
@@ -8769,8 +8773,8 @@
         <v>29</v>
       </c>
       <c r="Q32" s="136">
-        <f t="array" ref="Q32">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P32),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P32),Data!$H$6:$AK$6,0)))</f>
-        <v>3833885</v>
+        <f t="array" ref="Q32">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P32),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P32),Data!$H$6:$AK$6,0)))</f>
+        <v>3827724</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8798,8 +8802,8 @@
         <v>30</v>
       </c>
       <c r="Q33" s="138">
-        <f t="array" ref="Q33">IF(INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P33),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$596,MATCH($C$6&amp;$J$6,Data!$B$7:$B$596&amp;Data!$G$7:$G$596,0),MATCH(CONCATENATE("Cell ",P33),Data!$H$6:$AK$6,0)))</f>
-        <v>487809472</v>
+        <f t="array" ref="Q33">IF(INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P33),Data!$H$6:$AK$6,0))="","",INDEX(Data!$H$7:$AK$655,MATCH($C$6&amp;$J$6,Data!$B$7:$B$655&amp;Data!$G$7:$G$655,0),MATCH(CONCATENATE("Cell ",P33),Data!$H$6:$AK$6,0)))</f>
+        <v>489096503</v>
       </c>
     </row>
     <row r="34" spans="1:25" s="94" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9082,21 +9086,21 @@
     <mergeCell ref="C7:Q7"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" errorTitle="Validation Error" error="ERROR:  Cell 2 must be equal to or less than Cell 10." sqref="I12 JB12 SX12 ACT12 AMP12 AWL12 BGH12 BQD12 BZZ12 CJV12 CTR12 DDN12 DNJ12 DXF12 EHB12 EQX12 FAT12 FKP12 FUL12 GEH12 GOD12 GXZ12 HHV12 HRR12 IBN12 ILJ12 IVF12 JFB12 JOX12 JYT12 KIP12 KSL12 LCH12 LMD12 LVZ12 MFV12 MPR12 MZN12 NJJ12 NTF12 ODB12 OMX12 OWT12 PGP12 PQL12 QAH12 QKD12 QTZ12 RDV12 RNR12 RXN12 SHJ12 SRF12 TBB12 TKX12 TUT12 UEP12 UOL12 UYH12 VID12 VRZ12 WBV12 WLR12 WVN12 I65543 JB65549 SX65549 ACT65549 AMP65549 AWL65549 BGH65549 BQD65549 BZZ65549 CJV65549 CTR65549 DDN65549 DNJ65549 DXF65549 EHB65549 EQX65549 FAT65549 FKP65549 FUL65549 GEH65549 GOD65549 GXZ65549 HHV65549 HRR65549 IBN65549 ILJ65549 IVF65549 JFB65549 JOX65549 JYT65549 KIP65549 KSL65549 LCH65549 LMD65549 LVZ65549 MFV65549 MPR65549 MZN65549 NJJ65549 NTF65549 ODB65549 OMX65549 OWT65549 PGP65549 PQL65549 QAH65549 QKD65549 QTZ65549 RDV65549 RNR65549 RXN65549 SHJ65549 SRF65549 TBB65549 TKX65549 TUT65549 UEP65549 UOL65549 UYH65549 VID65549 VRZ65549 WBV65549 WLR65549 WVN65549 I131079 JB131085 SX131085 ACT131085 AMP131085 AWL131085 BGH131085 BQD131085 BZZ131085 CJV131085 CTR131085 DDN131085 DNJ131085 DXF131085 EHB131085 EQX131085 FAT131085 FKP131085 FUL131085 GEH131085 GOD131085 GXZ131085 HHV131085 HRR131085 IBN131085 ILJ131085 IVF131085 JFB131085 JOX131085 JYT131085 KIP131085 KSL131085 LCH131085 LMD131085 LVZ131085 MFV131085 MPR131085 MZN131085 NJJ131085 NTF131085 ODB131085 OMX131085 OWT131085 PGP131085 PQL131085 QAH131085 QKD131085 QTZ131085 RDV131085 RNR131085 RXN131085 SHJ131085 SRF131085 TBB131085 TKX131085 TUT131085 UEP131085 UOL131085 UYH131085 VID131085 VRZ131085 WBV131085 WLR131085 WVN131085 I196615 JB196621 SX196621 ACT196621 AMP196621 AWL196621 BGH196621 BQD196621 BZZ196621 CJV196621 CTR196621 DDN196621 DNJ196621 DXF196621 EHB196621 EQX196621 FAT196621 FKP196621 FUL196621 GEH196621 GOD196621 GXZ196621 HHV196621 HRR196621 IBN196621 ILJ196621 IVF196621 JFB196621 JOX196621 JYT196621 KIP196621 KSL196621 LCH196621 LMD196621 LVZ196621 MFV196621 MPR196621 MZN196621 NJJ196621 NTF196621 ODB196621 OMX196621 OWT196621 PGP196621 PQL196621 QAH196621 QKD196621 QTZ196621 RDV196621 RNR196621 RXN196621 SHJ196621 SRF196621 TBB196621 TKX196621 TUT196621 UEP196621 UOL196621 UYH196621 VID196621 VRZ196621 WBV196621 WLR196621 WVN196621 I262151 JB262157 SX262157 ACT262157 AMP262157 AWL262157 BGH262157 BQD262157 BZZ262157 CJV262157 CTR262157 DDN262157 DNJ262157 DXF262157 EHB262157 EQX262157 FAT262157 FKP262157 FUL262157 GEH262157 GOD262157 GXZ262157 HHV262157 HRR262157 IBN262157 ILJ262157 IVF262157 JFB262157 JOX262157 JYT262157 KIP262157 KSL262157 LCH262157 LMD262157 LVZ262157 MFV262157 MPR262157 MZN262157 NJJ262157 NTF262157 ODB262157 OMX262157 OWT262157 PGP262157 PQL262157 QAH262157 QKD262157 QTZ262157 RDV262157 RNR262157 RXN262157 SHJ262157 SRF262157 TBB262157 TKX262157 TUT262157 UEP262157 UOL262157 UYH262157 VID262157 VRZ262157 WBV262157 WLR262157 WVN262157 I327687 JB327693 SX327693 ACT327693 AMP327693 AWL327693 BGH327693 BQD327693 BZZ327693 CJV327693 CTR327693 DDN327693 DNJ327693 DXF327693 EHB327693 EQX327693 FAT327693 FKP327693 FUL327693 GEH327693 GOD327693 GXZ327693 HHV327693 HRR327693 IBN327693 ILJ327693 IVF327693 JFB327693 JOX327693 JYT327693 KIP327693 KSL327693 LCH327693 LMD327693 LVZ327693 MFV327693 MPR327693 MZN327693 NJJ327693 NTF327693 ODB327693 OMX327693 OWT327693 PGP327693 PQL327693 QAH327693 QKD327693 QTZ327693 RDV327693 RNR327693 RXN327693 SHJ327693 SRF327693 TBB327693 TKX327693 TUT327693 UEP327693 UOL327693 UYH327693 VID327693 VRZ327693 WBV327693 WLR327693 WVN327693 I393223 JB393229 SX393229 ACT393229 AMP393229 AWL393229 BGH393229 BQD393229 BZZ393229 CJV393229 CTR393229 DDN393229 DNJ393229 DXF393229 EHB393229 EQX393229 FAT393229 FKP393229 FUL393229 GEH393229 GOD393229 GXZ393229 HHV393229 HRR393229 IBN393229 ILJ393229 IVF393229 JFB393229 JOX393229 JYT393229 KIP393229 KSL393229 LCH393229 LMD393229 LVZ393229 MFV393229 MPR393229 MZN393229 NJJ393229 NTF393229 ODB393229 OMX393229 OWT393229 PGP393229 PQL393229 QAH393229 QKD393229 QTZ393229 RDV393229 RNR393229 RXN393229 SHJ393229 SRF393229 TBB393229 TKX393229 TUT393229 UEP393229 UOL393229 UYH393229 VID393229 VRZ393229 WBV393229 WLR393229 WVN393229 I458759 JB458765 SX458765 ACT458765 AMP458765 AWL458765 BGH458765 BQD458765 BZZ458765 CJV458765 CTR458765 DDN458765 DNJ458765 DXF458765 EHB458765 EQX458765 FAT458765 FKP458765 FUL458765 GEH458765 GOD458765 GXZ458765 HHV458765 HRR458765 IBN458765 ILJ458765 IVF458765 JFB458765 JOX458765 JYT458765 KIP458765 KSL458765 LCH458765 LMD458765 LVZ458765 MFV458765 MPR458765 MZN458765 NJJ458765 NTF458765 ODB458765 OMX458765 OWT458765 PGP458765 PQL458765 QAH458765 QKD458765 QTZ458765 RDV458765 RNR458765 RXN458765 SHJ458765 SRF458765 TBB458765 TKX458765 TUT458765 UEP458765 UOL458765 UYH458765 VID458765 VRZ458765 WBV458765 WLR458765 WVN458765 I524295 JB524301 SX524301 ACT524301 AMP524301 AWL524301 BGH524301 BQD524301 BZZ524301 CJV524301 CTR524301 DDN524301 DNJ524301 DXF524301 EHB524301 EQX524301 FAT524301 FKP524301 FUL524301 GEH524301 GOD524301 GXZ524301 HHV524301 HRR524301 IBN524301 ILJ524301 IVF524301 JFB524301 JOX524301 JYT524301 KIP524301 KSL524301 LCH524301 LMD524301 LVZ524301 MFV524301 MPR524301 MZN524301 NJJ524301 NTF524301 ODB524301 OMX524301 OWT524301 PGP524301 PQL524301 QAH524301 QKD524301 QTZ524301 RDV524301 RNR524301 RXN524301 SHJ524301 SRF524301 TBB524301 TKX524301 TUT524301 UEP524301 UOL524301 UYH524301 VID524301 VRZ524301 WBV524301 WLR524301 WVN524301 I589831 JB589837 SX589837 ACT589837 AMP589837 AWL589837 BGH589837 BQD589837 BZZ589837 CJV589837 CTR589837 DDN589837 DNJ589837 DXF589837 EHB589837 EQX589837 FAT589837 FKP589837 FUL589837 GEH589837 GOD589837 GXZ589837 HHV589837 HRR589837 IBN589837 ILJ589837 IVF589837 JFB589837 JOX589837 JYT589837 KIP589837 KSL589837 LCH589837 LMD589837 LVZ589837 MFV589837 MPR589837 MZN589837 NJJ589837 NTF589837 ODB589837 OMX589837 OWT589837 PGP589837 PQL589837 QAH589837 QKD589837 QTZ589837 RDV589837 RNR589837 RXN589837 SHJ589837 SRF589837 TBB589837 TKX589837 TUT589837 UEP589837 UOL589837 UYH589837 VID589837 VRZ589837 WBV589837 WLR589837 WVN589837 I655367 JB655373 SX655373 ACT655373 AMP655373 AWL655373 BGH655373 BQD655373 BZZ655373 CJV655373 CTR655373 DDN655373 DNJ655373 DXF655373 EHB655373 EQX655373 FAT655373 FKP655373 FUL655373 GEH655373 GOD655373 GXZ655373 HHV655373 HRR655373 IBN655373 ILJ655373 IVF655373 JFB655373 JOX655373 JYT655373 KIP655373 KSL655373 LCH655373 LMD655373 LVZ655373 MFV655373 MPR655373 MZN655373 NJJ655373 NTF655373 ODB655373 OMX655373 OWT655373 PGP655373 PQL655373 QAH655373 QKD655373 QTZ655373 RDV655373 RNR655373 RXN655373 SHJ655373 SRF655373 TBB655373 TKX655373 TUT655373 UEP655373 UOL655373 UYH655373 VID655373 VRZ655373 WBV655373 WLR655373 WVN655373 I720903 JB720909 SX720909 ACT720909 AMP720909 AWL720909 BGH720909 BQD720909 BZZ720909 CJV720909 CTR720909 DDN720909 DNJ720909 DXF720909 EHB720909 EQX720909 FAT720909 FKP720909 FUL720909 GEH720909 GOD720909 GXZ720909 HHV720909 HRR720909 IBN720909 ILJ720909 IVF720909 JFB720909 JOX720909 JYT720909 KIP720909 KSL720909 LCH720909 LMD720909 LVZ720909 MFV720909 MPR720909 MZN720909 NJJ720909 NTF720909 ODB720909 OMX720909 OWT720909 PGP720909 PQL720909 QAH720909 QKD720909 QTZ720909 RDV720909 RNR720909 RXN720909 SHJ720909 SRF720909 TBB720909 TKX720909 TUT720909 UEP720909 UOL720909 UYH720909 VID720909 VRZ720909 WBV720909 WLR720909 WVN720909 I786439 JB786445 SX786445 ACT786445 AMP786445 AWL786445 BGH786445 BQD786445 BZZ786445 CJV786445 CTR786445 DDN786445 DNJ786445 DXF786445 EHB786445 EQX786445 FAT786445 FKP786445 FUL786445 GEH786445 GOD786445 GXZ786445 HHV786445 HRR786445 IBN786445 ILJ786445 IVF786445 JFB786445 JOX786445 JYT786445 KIP786445 KSL786445 LCH786445 LMD786445 LVZ786445 MFV786445 MPR786445 MZN786445 NJJ786445 NTF786445 ODB786445 OMX786445 OWT786445 PGP786445 PQL786445 QAH786445 QKD786445 QTZ786445 RDV786445 RNR786445 RXN786445 SHJ786445 SRF786445 TBB786445 TKX786445 TUT786445 UEP786445 UOL786445 UYH786445 VID786445 VRZ786445 WBV786445 WLR786445 WVN786445 I851975 JB851981 SX851981 ACT851981 AMP851981 AWL851981 BGH851981 BQD851981 BZZ851981 CJV851981 CTR851981 DDN851981 DNJ851981 DXF851981 EHB851981 EQX851981 FAT851981 FKP851981 FUL851981 GEH851981 GOD851981 GXZ851981 HHV851981 HRR851981 IBN851981 ILJ851981 IVF851981 JFB851981 JOX851981 JYT851981 KIP851981 KSL851981 LCH851981 LMD851981 LVZ851981 MFV851981 MPR851981 MZN851981 NJJ851981 NTF851981 ODB851981 OMX851981 OWT851981 PGP851981 PQL851981 QAH851981 QKD851981 QTZ851981 RDV851981 RNR851981 RXN851981 SHJ851981 SRF851981 TBB851981 TKX851981 TUT851981 UEP851981 UOL851981 UYH851981 VID851981 VRZ851981 WBV851981 WLR851981 WVN851981 I917511 JB917517 SX917517 ACT917517 AMP917517 AWL917517 BGH917517 BQD917517 BZZ917517 CJV917517 CTR917517 DDN917517 DNJ917517 DXF917517 EHB917517 EQX917517 FAT917517 FKP917517 FUL917517 GEH917517 GOD917517 GXZ917517 HHV917517 HRR917517 IBN917517 ILJ917517 IVF917517 JFB917517 JOX917517 JYT917517 KIP917517 KSL917517 LCH917517 LMD917517 LVZ917517 MFV917517 MPR917517 MZN917517 NJJ917517 NTF917517 ODB917517 OMX917517 OWT917517 PGP917517 PQL917517 QAH917517 QKD917517 QTZ917517 RDV917517 RNR917517 RXN917517 SHJ917517 SRF917517 TBB917517 TKX917517 TUT917517 UEP917517 UOL917517 UYH917517 VID917517 VRZ917517 WBV917517 WLR917517 WVN917517 I983047 JB983053 SX983053 ACT983053 AMP983053 AWL983053 BGH983053 BQD983053 BZZ983053 CJV983053 CTR983053 DDN983053 DNJ983053 DXF983053 EHB983053 EQX983053 FAT983053 FKP983053 FUL983053 GEH983053 GOD983053 GXZ983053 HHV983053 HRR983053 IBN983053 ILJ983053 IVF983053 JFB983053 JOX983053 JYT983053 KIP983053 KSL983053 LCH983053 LMD983053 LVZ983053 MFV983053 MPR983053 MZN983053 NJJ983053 NTF983053 ODB983053 OMX983053 OWT983053 PGP983053 PQL983053 QAH983053 QKD983053 QTZ983053 RDV983053 RNR983053 RXN983053 SHJ983053 SRF983053 TBB983053 TKX983053 TUT983053 UEP983053 UOL983053 UYH983053 VID983053 VRZ983053 WBV983053 WLR983053 WVN983053" xr:uid="{1685D338-D034-40DF-B842-9D8DE5C53329}"/>
-    <dataValidation operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" errorTitle="Validation Error" error="ERROR:  Cell 5 must be equal to or less than Cell 12." sqref="O12 JH12 TD12 ACZ12 AMV12 AWR12 BGN12 BQJ12 CAF12 CKB12 CTX12 DDT12 DNP12 DXL12 EHH12 ERD12 FAZ12 FKV12 FUR12 GEN12 GOJ12 GYF12 HIB12 HRX12 IBT12 ILP12 IVL12 JFH12 JPD12 JYZ12 KIV12 KSR12 LCN12 LMJ12 LWF12 MGB12 MPX12 MZT12 NJP12 NTL12 ODH12 OND12 OWZ12 PGV12 PQR12 QAN12 QKJ12 QUF12 REB12 RNX12 RXT12 SHP12 SRL12 TBH12 TLD12 TUZ12 UEV12 UOR12 UYN12 VIJ12 VSF12 WCB12 WLX12 WVT12 O65543 JH65549 TD65549 ACZ65549 AMV65549 AWR65549 BGN65549 BQJ65549 CAF65549 CKB65549 CTX65549 DDT65549 DNP65549 DXL65549 EHH65549 ERD65549 FAZ65549 FKV65549 FUR65549 GEN65549 GOJ65549 GYF65549 HIB65549 HRX65549 IBT65549 ILP65549 IVL65549 JFH65549 JPD65549 JYZ65549 KIV65549 KSR65549 LCN65549 LMJ65549 LWF65549 MGB65549 MPX65549 MZT65549 NJP65549 NTL65549 ODH65549 OND65549 OWZ65549 PGV65549 PQR65549 QAN65549 QKJ65549 QUF65549 REB65549 RNX65549 RXT65549 SHP65549 SRL65549 TBH65549 TLD65549 TUZ65549 UEV65549 UOR65549 UYN65549 VIJ65549 VSF65549 WCB65549 WLX65549 WVT65549 O131079 JH131085 TD131085 ACZ131085 AMV131085 AWR131085 BGN131085 BQJ131085 CAF131085 CKB131085 CTX131085 DDT131085 DNP131085 DXL131085 EHH131085 ERD131085 FAZ131085 FKV131085 FUR131085 GEN131085 GOJ131085 GYF131085 HIB131085 HRX131085 IBT131085 ILP131085 IVL131085 JFH131085 JPD131085 JYZ131085 KIV131085 KSR131085 LCN131085 LMJ131085 LWF131085 MGB131085 MPX131085 MZT131085 NJP131085 NTL131085 ODH131085 OND131085 OWZ131085 PGV131085 PQR131085 QAN131085 QKJ131085 QUF131085 REB131085 RNX131085 RXT131085 SHP131085 SRL131085 TBH131085 TLD131085 TUZ131085 UEV131085 UOR131085 UYN131085 VIJ131085 VSF131085 WCB131085 WLX131085 WVT131085 O196615 JH196621 TD196621 ACZ196621 AMV196621 AWR196621 BGN196621 BQJ196621 CAF196621 CKB196621 CTX196621 DDT196621 DNP196621 DXL196621 EHH196621 ERD196621 FAZ196621 FKV196621 FUR196621 GEN196621 GOJ196621 GYF196621 HIB196621 HRX196621 IBT196621 ILP196621 IVL196621 JFH196621 JPD196621 JYZ196621 KIV196621 KSR196621 LCN196621 LMJ196621 LWF196621 MGB196621 MPX196621 MZT196621 NJP196621 NTL196621 ODH196621 OND196621 OWZ196621 PGV196621 PQR196621 QAN196621 QKJ196621 QUF196621 REB196621 RNX196621 RXT196621 SHP196621 SRL196621 TBH196621 TLD196621 TUZ196621 UEV196621 UOR196621 UYN196621 VIJ196621 VSF196621 WCB196621 WLX196621 WVT196621 O262151 JH262157 TD262157 ACZ262157 AMV262157 AWR262157 BGN262157 BQJ262157 CAF262157 CKB262157 CTX262157 DDT262157 DNP262157 DXL262157 EHH262157 ERD262157 FAZ262157 FKV262157 FUR262157 GEN262157 GOJ262157 GYF262157 HIB262157 HRX262157 IBT262157 ILP262157 IVL262157 JFH262157 JPD262157 JYZ262157 KIV262157 KSR262157 LCN262157 LMJ262157 LWF262157 MGB262157 MPX262157 MZT262157 NJP262157 NTL262157 ODH262157 OND262157 OWZ262157 PGV262157 PQR262157 QAN262157 QKJ262157 QUF262157 REB262157 RNX262157 RXT262157 SHP262157 SRL262157 TBH262157 TLD262157 TUZ262157 UEV262157 UOR262157 UYN262157 VIJ262157 VSF262157 WCB262157 WLX262157 WVT262157 O327687 JH327693 TD327693 ACZ327693 AMV327693 AWR327693 BGN327693 BQJ327693 CAF327693 CKB327693 CTX327693 DDT327693 DNP327693 DXL327693 EHH327693 ERD327693 FAZ327693 FKV327693 FUR327693 GEN327693 GOJ327693 GYF327693 HIB327693 HRX327693 IBT327693 ILP327693 IVL327693 JFH327693 JPD327693 JYZ327693 KIV327693 KSR327693 LCN327693 LMJ327693 LWF327693 MGB327693 MPX327693 MZT327693 NJP327693 NTL327693 ODH327693 OND327693 OWZ327693 PGV327693 PQR327693 QAN327693 QKJ327693 QUF327693 REB327693 RNX327693 RXT327693 SHP327693 SRL327693 TBH327693 TLD327693 TUZ327693 UEV327693 UOR327693 UYN327693 VIJ327693 VSF327693 WCB327693 WLX327693 WVT327693 O393223 JH393229 TD393229 ACZ393229 AMV393229 AWR393229 BGN393229 BQJ393229 CAF393229 CKB393229 CTX393229 DDT393229 DNP393229 DXL393229 EHH393229 ERD393229 FAZ393229 FKV393229 FUR393229 GEN393229 GOJ393229 GYF393229 HIB393229 HRX393229 IBT393229 ILP393229 IVL393229 JFH393229 JPD393229 JYZ393229 KIV393229 KSR393229 LCN393229 LMJ393229 LWF393229 MGB393229 MPX393229 MZT393229 NJP393229 NTL393229 ODH393229 OND393229 OWZ393229 PGV393229 PQR393229 QAN393229 QKJ393229 QUF393229 REB393229 RNX393229 RXT393229 SHP393229 SRL393229 TBH393229 TLD393229 TUZ393229 UEV393229 UOR393229 UYN393229 VIJ393229 VSF393229 WCB393229 WLX393229 WVT393229 O458759 JH458765 TD458765 ACZ458765 AMV458765 AWR458765 BGN458765 BQJ458765 CAF458765 CKB458765 CTX458765 DDT458765 DNP458765 DXL458765 EHH458765 ERD458765 FAZ458765 FKV458765 FUR458765 GEN458765 GOJ458765 GYF458765 HIB458765 HRX458765 IBT458765 ILP458765 IVL458765 JFH458765 JPD458765 JYZ458765 KIV458765 KSR458765 LCN458765 LMJ458765 LWF458765 MGB458765 MPX458765 MZT458765 NJP458765 NTL458765 ODH458765 OND458765 OWZ458765 PGV458765 PQR458765 QAN458765 QKJ458765 QUF458765 REB458765 RNX458765 RXT458765 SHP458765 SRL458765 TBH458765 TLD458765 TUZ458765 UEV458765 UOR458765 UYN458765 VIJ458765 VSF458765 WCB458765 WLX458765 WVT458765 O524295 JH524301 TD524301 ACZ524301 AMV524301 AWR524301 BGN524301 BQJ524301 CAF524301 CKB524301 CTX524301 DDT524301 DNP524301 DXL524301 EHH524301 ERD524301 FAZ524301 FKV524301 FUR524301 GEN524301 GOJ524301 GYF524301 HIB524301 HRX524301 IBT524301 ILP524301 IVL524301 JFH524301 JPD524301 JYZ524301 KIV524301 KSR524301 LCN524301 LMJ524301 LWF524301 MGB524301 MPX524301 MZT524301 NJP524301 NTL524301 ODH524301 OND524301 OWZ524301 PGV524301 PQR524301 QAN524301 QKJ524301 QUF524301 REB524301 RNX524301 RXT524301 SHP524301 SRL524301 TBH524301 TLD524301 TUZ524301 UEV524301 UOR524301 UYN524301 VIJ524301 VSF524301 WCB524301 WLX524301 WVT524301 O589831 JH589837 TD589837 ACZ589837 AMV589837 AWR589837 BGN589837 BQJ589837 CAF589837 CKB589837 CTX589837 DDT589837 DNP589837 DXL589837 EHH589837 ERD589837 FAZ589837 FKV589837 FUR589837 GEN589837 GOJ589837 GYF589837 HIB589837 HRX589837 IBT589837 ILP589837 IVL589837 JFH589837 JPD589837 JYZ589837 KIV589837 KSR589837 LCN589837 LMJ589837 LWF589837 MGB589837 MPX589837 MZT589837 NJP589837 NTL589837 ODH589837 OND589837 OWZ589837 PGV589837 PQR589837 QAN589837 QKJ589837 QUF589837 REB589837 RNX589837 RXT589837 SHP589837 SRL589837 TBH589837 TLD589837 TUZ589837 UEV589837 UOR589837 UYN589837 VIJ589837 VSF589837 WCB589837 WLX589837 WVT589837 O655367 JH655373 TD655373 ACZ655373 AMV655373 AWR655373 BGN655373 BQJ655373 CAF655373 CKB655373 CTX655373 DDT655373 DNP655373 DXL655373 EHH655373 ERD655373 FAZ655373 FKV655373 FUR655373 GEN655373 GOJ655373 GYF655373 HIB655373 HRX655373 IBT655373 ILP655373 IVL655373 JFH655373 JPD655373 JYZ655373 KIV655373 KSR655373 LCN655373 LMJ655373 LWF655373 MGB655373 MPX655373 MZT655373 NJP655373 NTL655373 ODH655373 OND655373 OWZ655373 PGV655373 PQR655373 QAN655373 QKJ655373 QUF655373 REB655373 RNX655373 RXT655373 SHP655373 SRL655373 TBH655373 TLD655373 TUZ655373 UEV655373 UOR655373 UYN655373 VIJ655373 VSF655373 WCB655373 WLX655373 WVT655373 O720903 JH720909 TD720909 ACZ720909 AMV720909 AWR720909 BGN720909 BQJ720909 CAF720909 CKB720909 CTX720909 DDT720909 DNP720909 DXL720909 EHH720909 ERD720909 FAZ720909 FKV720909 FUR720909 GEN720909 GOJ720909 GYF720909 HIB720909 HRX720909 IBT720909 ILP720909 IVL720909 JFH720909 JPD720909 JYZ720909 KIV720909 KSR720909 LCN720909 LMJ720909 LWF720909 MGB720909 MPX720909 MZT720909 NJP720909 NTL720909 ODH720909 OND720909 OWZ720909 PGV720909 PQR720909 QAN720909 QKJ720909 QUF720909 REB720909 RNX720909 RXT720909 SHP720909 SRL720909 TBH720909 TLD720909 TUZ720909 UEV720909 UOR720909 UYN720909 VIJ720909 VSF720909 WCB720909 WLX720909 WVT720909 O786439 JH786445 TD786445 ACZ786445 AMV786445 AWR786445 BGN786445 BQJ786445 CAF786445 CKB786445 CTX786445 DDT786445 DNP786445 DXL786445 EHH786445 ERD786445 FAZ786445 FKV786445 FUR786445 GEN786445 GOJ786445 GYF786445 HIB786445 HRX786445 IBT786445 ILP786445 IVL786445 JFH786445 JPD786445 JYZ786445 KIV786445 KSR786445 LCN786445 LMJ786445 LWF786445 MGB786445 MPX786445 MZT786445 NJP786445 NTL786445 ODH786445 OND786445 OWZ786445 PGV786445 PQR786445 QAN786445 QKJ786445 QUF786445 REB786445 RNX786445 RXT786445 SHP786445 SRL786445 TBH786445 TLD786445 TUZ786445 UEV786445 UOR786445 UYN786445 VIJ786445 VSF786445 WCB786445 WLX786445 WVT786445 O851975 JH851981 TD851981 ACZ851981 AMV851981 AWR851981 BGN851981 BQJ851981 CAF851981 CKB851981 CTX851981 DDT851981 DNP851981 DXL851981 EHH851981 ERD851981 FAZ851981 FKV851981 FUR851981 GEN851981 GOJ851981 GYF851981 HIB851981 HRX851981 IBT851981 ILP851981 IVL851981 JFH851981 JPD851981 JYZ851981 KIV851981 KSR851981 LCN851981 LMJ851981 LWF851981 MGB851981 MPX851981 MZT851981 NJP851981 NTL851981 ODH851981 OND851981 OWZ851981 PGV851981 PQR851981 QAN851981 QKJ851981 QUF851981 REB851981 RNX851981 RXT851981 SHP851981 SRL851981 TBH851981 TLD851981 TUZ851981 UEV851981 UOR851981 UYN851981 VIJ851981 VSF851981 WCB851981 WLX851981 WVT851981 O917511 JH917517 TD917517 ACZ917517 AMV917517 AWR917517 BGN917517 BQJ917517 CAF917517 CKB917517 CTX917517 DDT917517 DNP917517 DXL917517 EHH917517 ERD917517 FAZ917517 FKV917517 FUR917517 GEN917517 GOJ917517 GYF917517 HIB917517 HRX917517 IBT917517 ILP917517 IVL917517 JFH917517 JPD917517 JYZ917517 KIV917517 KSR917517 LCN917517 LMJ917517 LWF917517 MGB917517 MPX917517 MZT917517 NJP917517 NTL917517 ODH917517 OND917517 OWZ917517 PGV917517 PQR917517 QAN917517 QKJ917517 QUF917517 REB917517 RNX917517 RXT917517 SHP917517 SRL917517 TBH917517 TLD917517 TUZ917517 UEV917517 UOR917517 UYN917517 VIJ917517 VSF917517 WCB917517 WLX917517 WVT917517 O983047 JH983053 TD983053 ACZ983053 AMV983053 AWR983053 BGN983053 BQJ983053 CAF983053 CKB983053 CTX983053 DDT983053 DNP983053 DXL983053 EHH983053 ERD983053 FAZ983053 FKV983053 FUR983053 GEN983053 GOJ983053 GYF983053 HIB983053 HRX983053 IBT983053 ILP983053 IVL983053 JFH983053 JPD983053 JYZ983053 KIV983053 KSR983053 LCN983053 LMJ983053 LWF983053 MGB983053 MPX983053 MZT983053 NJP983053 NTL983053 ODH983053 OND983053 OWZ983053 PGV983053 PQR983053 QAN983053 QKJ983053 QUF983053 REB983053 RNX983053 RXT983053 SHP983053 SRL983053 TBH983053 TLD983053 TUZ983053 UEV983053 UOR983053 UYN983053 VIJ983053 VSF983053 WCB983053 WLX983053 WVT983053" xr:uid="{2258161E-E7D5-44E4-A06C-1ECBC93D0420}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C6:I6" xr:uid="{E9AF7488-6532-4C3B-91B6-DF07CA72C932}">
+    <dataValidation operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" errorTitle="Validation Error" error="ERROR:  Cell 2 must be equal to or less than Cell 10." sqref="I12 JB12 SX12 ACT12 AMP12 AWL12 BGH12 BQD12 BZZ12 CJV12 CTR12 DDN12 DNJ12 DXF12 EHB12 EQX12 FAT12 FKP12 FUL12 GEH12 GOD12 GXZ12 HHV12 HRR12 IBN12 ILJ12 IVF12 JFB12 JOX12 JYT12 KIP12 KSL12 LCH12 LMD12 LVZ12 MFV12 MPR12 MZN12 NJJ12 NTF12 ODB12 OMX12 OWT12 PGP12 PQL12 QAH12 QKD12 QTZ12 RDV12 RNR12 RXN12 SHJ12 SRF12 TBB12 TKX12 TUT12 UEP12 UOL12 UYH12 VID12 VRZ12 WBV12 WLR12 WVN12 I65543 JB65549 SX65549 ACT65549 AMP65549 AWL65549 BGH65549 BQD65549 BZZ65549 CJV65549 CTR65549 DDN65549 DNJ65549 DXF65549 EHB65549 EQX65549 FAT65549 FKP65549 FUL65549 GEH65549 GOD65549 GXZ65549 HHV65549 HRR65549 IBN65549 ILJ65549 IVF65549 JFB65549 JOX65549 JYT65549 KIP65549 KSL65549 LCH65549 LMD65549 LVZ65549 MFV65549 MPR65549 MZN65549 NJJ65549 NTF65549 ODB65549 OMX65549 OWT65549 PGP65549 PQL65549 QAH65549 QKD65549 QTZ65549 RDV65549 RNR65549 RXN65549 SHJ65549 SRF65549 TBB65549 TKX65549 TUT65549 UEP65549 UOL65549 UYH65549 VID65549 VRZ65549 WBV65549 WLR65549 WVN65549 I131079 JB131085 SX131085 ACT131085 AMP131085 AWL131085 BGH131085 BQD131085 BZZ131085 CJV131085 CTR131085 DDN131085 DNJ131085 DXF131085 EHB131085 EQX131085 FAT131085 FKP131085 FUL131085 GEH131085 GOD131085 GXZ131085 HHV131085 HRR131085 IBN131085 ILJ131085 IVF131085 JFB131085 JOX131085 JYT131085 KIP131085 KSL131085 LCH131085 LMD131085 LVZ131085 MFV131085 MPR131085 MZN131085 NJJ131085 NTF131085 ODB131085 OMX131085 OWT131085 PGP131085 PQL131085 QAH131085 QKD131085 QTZ131085 RDV131085 RNR131085 RXN131085 SHJ131085 SRF131085 TBB131085 TKX131085 TUT131085 UEP131085 UOL131085 UYH131085 VID131085 VRZ131085 WBV131085 WLR131085 WVN131085 I196615 JB196621 SX196621 ACT196621 AMP196621 AWL196621 BGH196621 BQD196621 BZZ196621 CJV196621 CTR196621 DDN196621 DNJ196621 DXF196621 EHB196621 EQX196621 FAT196621 FKP196621 FUL196621 GEH196621 GOD196621 GXZ196621 HHV196621 HRR196621 IBN196621 ILJ196621 IVF196621 JFB196621 JOX196621 JYT196621 KIP196621 KSL196621 LCH196621 LMD196621 LVZ196621 MFV196621 MPR196621 MZN196621 NJJ196621 NTF196621 ODB196621 OMX196621 OWT196621 PGP196621 PQL196621 QAH196621 QKD196621 QTZ196621 RDV196621 RNR196621 RXN196621 SHJ196621 SRF196621 TBB196621 TKX196621 TUT196621 UEP196621 UOL196621 UYH196621 VID196621 VRZ196621 WBV196621 WLR196621 WVN196621 I262151 JB262157 SX262157 ACT262157 AMP262157 AWL262157 BGH262157 BQD262157 BZZ262157 CJV262157 CTR262157 DDN262157 DNJ262157 DXF262157 EHB262157 EQX262157 FAT262157 FKP262157 FUL262157 GEH262157 GOD262157 GXZ262157 HHV262157 HRR262157 IBN262157 ILJ262157 IVF262157 JFB262157 JOX262157 JYT262157 KIP262157 KSL262157 LCH262157 LMD262157 LVZ262157 MFV262157 MPR262157 MZN262157 NJJ262157 NTF262157 ODB262157 OMX262157 OWT262157 PGP262157 PQL262157 QAH262157 QKD262157 QTZ262157 RDV262157 RNR262157 RXN262157 SHJ262157 SRF262157 TBB262157 TKX262157 TUT262157 UEP262157 UOL262157 UYH262157 VID262157 VRZ262157 WBV262157 WLR262157 WVN262157 I327687 JB327693 SX327693 ACT327693 AMP327693 AWL327693 BGH327693 BQD327693 BZZ327693 CJV327693 CTR327693 DDN327693 DNJ327693 DXF327693 EHB327693 EQX327693 FAT327693 FKP327693 FUL327693 GEH327693 GOD327693 GXZ327693 HHV327693 HRR327693 IBN327693 ILJ327693 IVF327693 JFB327693 JOX327693 JYT327693 KIP327693 KSL327693 LCH327693 LMD327693 LVZ327693 MFV327693 MPR327693 MZN327693 NJJ327693 NTF327693 ODB327693 OMX327693 OWT327693 PGP327693 PQL327693 QAH327693 QKD327693 QTZ327693 RDV327693 RNR327693 RXN327693 SHJ327693 SRF327693 TBB327693 TKX327693 TUT327693 UEP327693 UOL327693 UYH327693 VID327693 VRZ327693 WBV327693 WLR327693 WVN327693 I393223 JB393229 SX393229 ACT393229 AMP393229 AWL393229 BGH393229 BQD393229 BZZ393229 CJV393229 CTR393229 DDN393229 DNJ393229 DXF393229 EHB393229 EQX393229 FAT393229 FKP393229 FUL393229 GEH393229 GOD393229 GXZ393229 HHV393229 HRR393229 IBN393229 ILJ393229 IVF393229 JFB393229 JOX393229 JYT393229 KIP393229 KSL393229 LCH393229 LMD393229 LVZ393229 MFV393229 MPR393229 MZN393229 NJJ393229 NTF393229 ODB393229 OMX393229 OWT393229 PGP393229 PQL393229 QAH393229 QKD393229 QTZ393229 RDV393229 RNR393229 RXN393229 SHJ393229 SRF393229 TBB393229 TKX393229 TUT393229 UEP393229 UOL393229 UYH393229 VID393229 VRZ393229 WBV393229 WLR393229 WVN393229 I458759 JB458765 SX458765 ACT458765 AMP458765 AWL458765 BGH458765 BQD458765 BZZ458765 CJV458765 CTR458765 DDN458765 DNJ458765 DXF458765 EHB458765 EQX458765 FAT458765 FKP458765 FUL458765 GEH458765 GOD458765 GXZ458765 HHV458765 HRR458765 IBN458765 ILJ458765 IVF458765 JFB458765 JOX458765 JYT458765 KIP458765 KSL458765 LCH458765 LMD458765 LVZ458765 MFV458765 MPR458765 MZN458765 NJJ458765 NTF458765 ODB458765 OMX458765 OWT458765 PGP458765 PQL458765 QAH458765 QKD458765 QTZ458765 RDV458765 RNR458765 RXN458765 SHJ458765 SRF458765 TBB458765 TKX458765 TUT458765 UEP458765 UOL458765 UYH458765 VID458765 VRZ458765 WBV458765 WLR458765 WVN458765 I524295 JB524301 SX524301 ACT524301 AMP524301 AWL524301 BGH524301 BQD524301 BZZ524301 CJV524301 CTR524301 DDN524301 DNJ524301 DXF524301 EHB524301 EQX524301 FAT524301 FKP524301 FUL524301 GEH524301 GOD524301 GXZ524301 HHV524301 HRR524301 IBN524301 ILJ524301 IVF524301 JFB524301 JOX524301 JYT524301 KIP524301 KSL524301 LCH524301 LMD524301 LVZ524301 MFV524301 MPR524301 MZN524301 NJJ524301 NTF524301 ODB524301 OMX524301 OWT524301 PGP524301 PQL524301 QAH524301 QKD524301 QTZ524301 RDV524301 RNR524301 RXN524301 SHJ524301 SRF524301 TBB524301 TKX524301 TUT524301 UEP524301 UOL524301 UYH524301 VID524301 VRZ524301 WBV524301 WLR524301 WVN524301 I589831 JB589837 SX589837 ACT589837 AMP589837 AWL589837 BGH589837 BQD589837 BZZ589837 CJV589837 CTR589837 DDN589837 DNJ589837 DXF589837 EHB589837 EQX589837 FAT589837 FKP589837 FUL589837 GEH589837 GOD589837 GXZ589837 HHV589837 HRR589837 IBN589837 ILJ589837 IVF589837 JFB589837 JOX589837 JYT589837 KIP589837 KSL589837 LCH589837 LMD589837 LVZ589837 MFV589837 MPR589837 MZN589837 NJJ589837 NTF589837 ODB589837 OMX589837 OWT589837 PGP589837 PQL589837 QAH589837 QKD589837 QTZ589837 RDV589837 RNR589837 RXN589837 SHJ589837 SRF589837 TBB589837 TKX589837 TUT589837 UEP589837 UOL589837 UYH589837 VID589837 VRZ589837 WBV589837 WLR589837 WVN589837 I655367 JB655373 SX655373 ACT655373 AMP655373 AWL655373 BGH655373 BQD655373 BZZ655373 CJV655373 CTR655373 DDN655373 DNJ655373 DXF655373 EHB655373 EQX655373 FAT655373 FKP655373 FUL655373 GEH655373 GOD655373 GXZ655373 HHV655373 HRR655373 IBN655373 ILJ655373 IVF655373 JFB655373 JOX655373 JYT655373 KIP655373 KSL655373 LCH655373 LMD655373 LVZ655373 MFV655373 MPR655373 MZN655373 NJJ655373 NTF655373 ODB655373 OMX655373 OWT655373 PGP655373 PQL655373 QAH655373 QKD655373 QTZ655373 RDV655373 RNR655373 RXN655373 SHJ655373 SRF655373 TBB655373 TKX655373 TUT655373 UEP655373 UOL655373 UYH655373 VID655373 VRZ655373 WBV655373 WLR655373 WVN655373 I720903 JB720909 SX720909 ACT720909 AMP720909 AWL720909 BGH720909 BQD720909 BZZ720909 CJV720909 CTR720909 DDN720909 DNJ720909 DXF720909 EHB720909 EQX720909 FAT720909 FKP720909 FUL720909 GEH720909 GOD720909 GXZ720909 HHV720909 HRR720909 IBN720909 ILJ720909 IVF720909 JFB720909 JOX720909 JYT720909 KIP720909 KSL720909 LCH720909 LMD720909 LVZ720909 MFV720909 MPR720909 MZN720909 NJJ720909 NTF720909 ODB720909 OMX720909 OWT720909 PGP720909 PQL720909 QAH720909 QKD720909 QTZ720909 RDV720909 RNR720909 RXN720909 SHJ720909 SRF720909 TBB720909 TKX720909 TUT720909 UEP720909 UOL720909 UYH720909 VID720909 VRZ720909 WBV720909 WLR720909 WVN720909 I786439 JB786445 SX786445 ACT786445 AMP786445 AWL786445 BGH786445 BQD786445 BZZ786445 CJV786445 CTR786445 DDN786445 DNJ786445 DXF786445 EHB786445 EQX786445 FAT786445 FKP786445 FUL786445 GEH786445 GOD786445 GXZ786445 HHV786445 HRR786445 IBN786445 ILJ786445 IVF786445 JFB786445 JOX786445 JYT786445 KIP786445 KSL786445 LCH786445 LMD786445 LVZ786445 MFV786445 MPR786445 MZN786445 NJJ786445 NTF786445 ODB786445 OMX786445 OWT786445 PGP786445 PQL786445 QAH786445 QKD786445 QTZ786445 RDV786445 RNR786445 RXN786445 SHJ786445 SRF786445 TBB786445 TKX786445 TUT786445 UEP786445 UOL786445 UYH786445 VID786445 VRZ786445 WBV786445 WLR786445 WVN786445 I851975 JB851981 SX851981 ACT851981 AMP851981 AWL851981 BGH851981 BQD851981 BZZ851981 CJV851981 CTR851981 DDN851981 DNJ851981 DXF851981 EHB851981 EQX851981 FAT851981 FKP851981 FUL851981 GEH851981 GOD851981 GXZ851981 HHV851981 HRR851981 IBN851981 ILJ851981 IVF851981 JFB851981 JOX851981 JYT851981 KIP851981 KSL851981 LCH851981 LMD851981 LVZ851981 MFV851981 MPR851981 MZN851981 NJJ851981 NTF851981 ODB851981 OMX851981 OWT851981 PGP851981 PQL851981 QAH851981 QKD851981 QTZ851981 RDV851981 RNR851981 RXN851981 SHJ851981 SRF851981 TBB851981 TKX851981 TUT851981 UEP851981 UOL851981 UYH851981 VID851981 VRZ851981 WBV851981 WLR851981 WVN851981 I917511 JB917517 SX917517 ACT917517 AMP917517 AWL917517 BGH917517 BQD917517 BZZ917517 CJV917517 CTR917517 DDN917517 DNJ917517 DXF917517 EHB917517 EQX917517 FAT917517 FKP917517 FUL917517 GEH917517 GOD917517 GXZ917517 HHV917517 HRR917517 IBN917517 ILJ917517 IVF917517 JFB917517 JOX917517 JYT917517 KIP917517 KSL917517 LCH917517 LMD917517 LVZ917517 MFV917517 MPR917517 MZN917517 NJJ917517 NTF917517 ODB917517 OMX917517 OWT917517 PGP917517 PQL917517 QAH917517 QKD917517 QTZ917517 RDV917517 RNR917517 RXN917517 SHJ917517 SRF917517 TBB917517 TKX917517 TUT917517 UEP917517 UOL917517 UYH917517 VID917517 VRZ917517 WBV917517 WLR917517 WVN917517 I983047 JB983053 SX983053 ACT983053 AMP983053 AWL983053 BGH983053 BQD983053 BZZ983053 CJV983053 CTR983053 DDN983053 DNJ983053 DXF983053 EHB983053 EQX983053 FAT983053 FKP983053 FUL983053 GEH983053 GOD983053 GXZ983053 HHV983053 HRR983053 IBN983053 ILJ983053 IVF983053 JFB983053 JOX983053 JYT983053 KIP983053 KSL983053 LCH983053 LMD983053 LVZ983053 MFV983053 MPR983053 MZN983053 NJJ983053 NTF983053 ODB983053 OMX983053 OWT983053 PGP983053 PQL983053 QAH983053 QKD983053 QTZ983053 RDV983053 RNR983053 RXN983053 SHJ983053 SRF983053 TBB983053 TKX983053 TUT983053 UEP983053 UOL983053 UYH983053 VID983053 VRZ983053 WBV983053 WLR983053 WVN983053" xr:uid="{77C074BE-1D27-48CE-8147-D00069C9015A}"/>
+    <dataValidation operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" errorTitle="Validation Error" error="ERROR:  Cell 5 must be equal to or less than Cell 12." sqref="O12 JH12 TD12 ACZ12 AMV12 AWR12 BGN12 BQJ12 CAF12 CKB12 CTX12 DDT12 DNP12 DXL12 EHH12 ERD12 FAZ12 FKV12 FUR12 GEN12 GOJ12 GYF12 HIB12 HRX12 IBT12 ILP12 IVL12 JFH12 JPD12 JYZ12 KIV12 KSR12 LCN12 LMJ12 LWF12 MGB12 MPX12 MZT12 NJP12 NTL12 ODH12 OND12 OWZ12 PGV12 PQR12 QAN12 QKJ12 QUF12 REB12 RNX12 RXT12 SHP12 SRL12 TBH12 TLD12 TUZ12 UEV12 UOR12 UYN12 VIJ12 VSF12 WCB12 WLX12 WVT12 O65543 JH65549 TD65549 ACZ65549 AMV65549 AWR65549 BGN65549 BQJ65549 CAF65549 CKB65549 CTX65549 DDT65549 DNP65549 DXL65549 EHH65549 ERD65549 FAZ65549 FKV65549 FUR65549 GEN65549 GOJ65549 GYF65549 HIB65549 HRX65549 IBT65549 ILP65549 IVL65549 JFH65549 JPD65549 JYZ65549 KIV65549 KSR65549 LCN65549 LMJ65549 LWF65549 MGB65549 MPX65549 MZT65549 NJP65549 NTL65549 ODH65549 OND65549 OWZ65549 PGV65549 PQR65549 QAN65549 QKJ65549 QUF65549 REB65549 RNX65549 RXT65549 SHP65549 SRL65549 TBH65549 TLD65549 TUZ65549 UEV65549 UOR65549 UYN65549 VIJ65549 VSF65549 WCB65549 WLX65549 WVT65549 O131079 JH131085 TD131085 ACZ131085 AMV131085 AWR131085 BGN131085 BQJ131085 CAF131085 CKB131085 CTX131085 DDT131085 DNP131085 DXL131085 EHH131085 ERD131085 FAZ131085 FKV131085 FUR131085 GEN131085 GOJ131085 GYF131085 HIB131085 HRX131085 IBT131085 ILP131085 IVL131085 JFH131085 JPD131085 JYZ131085 KIV131085 KSR131085 LCN131085 LMJ131085 LWF131085 MGB131085 MPX131085 MZT131085 NJP131085 NTL131085 ODH131085 OND131085 OWZ131085 PGV131085 PQR131085 QAN131085 QKJ131085 QUF131085 REB131085 RNX131085 RXT131085 SHP131085 SRL131085 TBH131085 TLD131085 TUZ131085 UEV131085 UOR131085 UYN131085 VIJ131085 VSF131085 WCB131085 WLX131085 WVT131085 O196615 JH196621 TD196621 ACZ196621 AMV196621 AWR196621 BGN196621 BQJ196621 CAF196621 CKB196621 CTX196621 DDT196621 DNP196621 DXL196621 EHH196621 ERD196621 FAZ196621 FKV196621 FUR196621 GEN196621 GOJ196621 GYF196621 HIB196621 HRX196621 IBT196621 ILP196621 IVL196621 JFH196621 JPD196621 JYZ196621 KIV196621 KSR196621 LCN196621 LMJ196621 LWF196621 MGB196621 MPX196621 MZT196621 NJP196621 NTL196621 ODH196621 OND196621 OWZ196621 PGV196621 PQR196621 QAN196621 QKJ196621 QUF196621 REB196621 RNX196621 RXT196621 SHP196621 SRL196621 TBH196621 TLD196621 TUZ196621 UEV196621 UOR196621 UYN196621 VIJ196621 VSF196621 WCB196621 WLX196621 WVT196621 O262151 JH262157 TD262157 ACZ262157 AMV262157 AWR262157 BGN262157 BQJ262157 CAF262157 CKB262157 CTX262157 DDT262157 DNP262157 DXL262157 EHH262157 ERD262157 FAZ262157 FKV262157 FUR262157 GEN262157 GOJ262157 GYF262157 HIB262157 HRX262157 IBT262157 ILP262157 IVL262157 JFH262157 JPD262157 JYZ262157 KIV262157 KSR262157 LCN262157 LMJ262157 LWF262157 MGB262157 MPX262157 MZT262157 NJP262157 NTL262157 ODH262157 OND262157 OWZ262157 PGV262157 PQR262157 QAN262157 QKJ262157 QUF262157 REB262157 RNX262157 RXT262157 SHP262157 SRL262157 TBH262157 TLD262157 TUZ262157 UEV262157 UOR262157 UYN262157 VIJ262157 VSF262157 WCB262157 WLX262157 WVT262157 O327687 JH327693 TD327693 ACZ327693 AMV327693 AWR327693 BGN327693 BQJ327693 CAF327693 CKB327693 CTX327693 DDT327693 DNP327693 DXL327693 EHH327693 ERD327693 FAZ327693 FKV327693 FUR327693 GEN327693 GOJ327693 GYF327693 HIB327693 HRX327693 IBT327693 ILP327693 IVL327693 JFH327693 JPD327693 JYZ327693 KIV327693 KSR327693 LCN327693 LMJ327693 LWF327693 MGB327693 MPX327693 MZT327693 NJP327693 NTL327693 ODH327693 OND327693 OWZ327693 PGV327693 PQR327693 QAN327693 QKJ327693 QUF327693 REB327693 RNX327693 RXT327693 SHP327693 SRL327693 TBH327693 TLD327693 TUZ327693 UEV327693 UOR327693 UYN327693 VIJ327693 VSF327693 WCB327693 WLX327693 WVT327693 O393223 JH393229 TD393229 ACZ393229 AMV393229 AWR393229 BGN393229 BQJ393229 CAF393229 CKB393229 CTX393229 DDT393229 DNP393229 DXL393229 EHH393229 ERD393229 FAZ393229 FKV393229 FUR393229 GEN393229 GOJ393229 GYF393229 HIB393229 HRX393229 IBT393229 ILP393229 IVL393229 JFH393229 JPD393229 JYZ393229 KIV393229 KSR393229 LCN393229 LMJ393229 LWF393229 MGB393229 MPX393229 MZT393229 NJP393229 NTL393229 ODH393229 OND393229 OWZ393229 PGV393229 PQR393229 QAN393229 QKJ393229 QUF393229 REB393229 RNX393229 RXT393229 SHP393229 SRL393229 TBH393229 TLD393229 TUZ393229 UEV393229 UOR393229 UYN393229 VIJ393229 VSF393229 WCB393229 WLX393229 WVT393229 O458759 JH458765 TD458765 ACZ458765 AMV458765 AWR458765 BGN458765 BQJ458765 CAF458765 CKB458765 CTX458765 DDT458765 DNP458765 DXL458765 EHH458765 ERD458765 FAZ458765 FKV458765 FUR458765 GEN458765 GOJ458765 GYF458765 HIB458765 HRX458765 IBT458765 ILP458765 IVL458765 JFH458765 JPD458765 JYZ458765 KIV458765 KSR458765 LCN458765 LMJ458765 LWF458765 MGB458765 MPX458765 MZT458765 NJP458765 NTL458765 ODH458765 OND458765 OWZ458765 PGV458765 PQR458765 QAN458765 QKJ458765 QUF458765 REB458765 RNX458765 RXT458765 SHP458765 SRL458765 TBH458765 TLD458765 TUZ458765 UEV458765 UOR458765 UYN458765 VIJ458765 VSF458765 WCB458765 WLX458765 WVT458765 O524295 JH524301 TD524301 ACZ524301 AMV524301 AWR524301 BGN524301 BQJ524301 CAF524301 CKB524301 CTX524301 DDT524301 DNP524301 DXL524301 EHH524301 ERD524301 FAZ524301 FKV524301 FUR524301 GEN524301 GOJ524301 GYF524301 HIB524301 HRX524301 IBT524301 ILP524301 IVL524301 JFH524301 JPD524301 JYZ524301 KIV524301 KSR524301 LCN524301 LMJ524301 LWF524301 MGB524301 MPX524301 MZT524301 NJP524301 NTL524301 ODH524301 OND524301 OWZ524301 PGV524301 PQR524301 QAN524301 QKJ524301 QUF524301 REB524301 RNX524301 RXT524301 SHP524301 SRL524301 TBH524301 TLD524301 TUZ524301 UEV524301 UOR524301 UYN524301 VIJ524301 VSF524301 WCB524301 WLX524301 WVT524301 O589831 JH589837 TD589837 ACZ589837 AMV589837 AWR589837 BGN589837 BQJ589837 CAF589837 CKB589837 CTX589837 DDT589837 DNP589837 DXL589837 EHH589837 ERD589837 FAZ589837 FKV589837 FUR589837 GEN589837 GOJ589837 GYF589837 HIB589837 HRX589837 IBT589837 ILP589837 IVL589837 JFH589837 JPD589837 JYZ589837 KIV589837 KSR589837 LCN589837 LMJ589837 LWF589837 MGB589837 MPX589837 MZT589837 NJP589837 NTL589837 ODH589837 OND589837 OWZ589837 PGV589837 PQR589837 QAN589837 QKJ589837 QUF589837 REB589837 RNX589837 RXT589837 SHP589837 SRL589837 TBH589837 TLD589837 TUZ589837 UEV589837 UOR589837 UYN589837 VIJ589837 VSF589837 WCB589837 WLX589837 WVT589837 O655367 JH655373 TD655373 ACZ655373 AMV655373 AWR655373 BGN655373 BQJ655373 CAF655373 CKB655373 CTX655373 DDT655373 DNP655373 DXL655373 EHH655373 ERD655373 FAZ655373 FKV655373 FUR655373 GEN655373 GOJ655373 GYF655373 HIB655373 HRX655373 IBT655373 ILP655373 IVL655373 JFH655373 JPD655373 JYZ655373 KIV655373 KSR655373 LCN655373 LMJ655373 LWF655373 MGB655373 MPX655373 MZT655373 NJP655373 NTL655373 ODH655373 OND655373 OWZ655373 PGV655373 PQR655373 QAN655373 QKJ655373 QUF655373 REB655373 RNX655373 RXT655373 SHP655373 SRL655373 TBH655373 TLD655373 TUZ655373 UEV655373 UOR655373 UYN655373 VIJ655373 VSF655373 WCB655373 WLX655373 WVT655373 O720903 JH720909 TD720909 ACZ720909 AMV720909 AWR720909 BGN720909 BQJ720909 CAF720909 CKB720909 CTX720909 DDT720909 DNP720909 DXL720909 EHH720909 ERD720909 FAZ720909 FKV720909 FUR720909 GEN720909 GOJ720909 GYF720909 HIB720909 HRX720909 IBT720909 ILP720909 IVL720909 JFH720909 JPD720909 JYZ720909 KIV720909 KSR720909 LCN720909 LMJ720909 LWF720909 MGB720909 MPX720909 MZT720909 NJP720909 NTL720909 ODH720909 OND720909 OWZ720909 PGV720909 PQR720909 QAN720909 QKJ720909 QUF720909 REB720909 RNX720909 RXT720909 SHP720909 SRL720909 TBH720909 TLD720909 TUZ720909 UEV720909 UOR720909 UYN720909 VIJ720909 VSF720909 WCB720909 WLX720909 WVT720909 O786439 JH786445 TD786445 ACZ786445 AMV786445 AWR786445 BGN786445 BQJ786445 CAF786445 CKB786445 CTX786445 DDT786445 DNP786445 DXL786445 EHH786445 ERD786445 FAZ786445 FKV786445 FUR786445 GEN786445 GOJ786445 GYF786445 HIB786445 HRX786445 IBT786445 ILP786445 IVL786445 JFH786445 JPD786445 JYZ786445 KIV786445 KSR786445 LCN786445 LMJ786445 LWF786445 MGB786445 MPX786445 MZT786445 NJP786445 NTL786445 ODH786445 OND786445 OWZ786445 PGV786445 PQR786445 QAN786445 QKJ786445 QUF786445 REB786445 RNX786445 RXT786445 SHP786445 SRL786445 TBH786445 TLD786445 TUZ786445 UEV786445 UOR786445 UYN786445 VIJ786445 VSF786445 WCB786445 WLX786445 WVT786445 O851975 JH851981 TD851981 ACZ851981 AMV851981 AWR851981 BGN851981 BQJ851981 CAF851981 CKB851981 CTX851981 DDT851981 DNP851981 DXL851981 EHH851981 ERD851981 FAZ851981 FKV851981 FUR851981 GEN851981 GOJ851981 GYF851981 HIB851981 HRX851981 IBT851981 ILP851981 IVL851981 JFH851981 JPD851981 JYZ851981 KIV851981 KSR851981 LCN851981 LMJ851981 LWF851981 MGB851981 MPX851981 MZT851981 NJP851981 NTL851981 ODH851981 OND851981 OWZ851981 PGV851981 PQR851981 QAN851981 QKJ851981 QUF851981 REB851981 RNX851981 RXT851981 SHP851981 SRL851981 TBH851981 TLD851981 TUZ851981 UEV851981 UOR851981 UYN851981 VIJ851981 VSF851981 WCB851981 WLX851981 WVT851981 O917511 JH917517 TD917517 ACZ917517 AMV917517 AWR917517 BGN917517 BQJ917517 CAF917517 CKB917517 CTX917517 DDT917517 DNP917517 DXL917517 EHH917517 ERD917517 FAZ917517 FKV917517 FUR917517 GEN917517 GOJ917517 GYF917517 HIB917517 HRX917517 IBT917517 ILP917517 IVL917517 JFH917517 JPD917517 JYZ917517 KIV917517 KSR917517 LCN917517 LMJ917517 LWF917517 MGB917517 MPX917517 MZT917517 NJP917517 NTL917517 ODH917517 OND917517 OWZ917517 PGV917517 PQR917517 QAN917517 QKJ917517 QUF917517 REB917517 RNX917517 RXT917517 SHP917517 SRL917517 TBH917517 TLD917517 TUZ917517 UEV917517 UOR917517 UYN917517 VIJ917517 VSF917517 WCB917517 WLX917517 WVT917517 O983047 JH983053 TD983053 ACZ983053 AMV983053 AWR983053 BGN983053 BQJ983053 CAF983053 CKB983053 CTX983053 DDT983053 DNP983053 DXL983053 EHH983053 ERD983053 FAZ983053 FKV983053 FUR983053 GEN983053 GOJ983053 GYF983053 HIB983053 HRX983053 IBT983053 ILP983053 IVL983053 JFH983053 JPD983053 JYZ983053 KIV983053 KSR983053 LCN983053 LMJ983053 LWF983053 MGB983053 MPX983053 MZT983053 NJP983053 NTL983053 ODH983053 OND983053 OWZ983053 PGV983053 PQR983053 QAN983053 QKJ983053 QUF983053 REB983053 RNX983053 RXT983053 SHP983053 SRL983053 TBH983053 TLD983053 TUZ983053 UEV983053 UOR983053 UYN983053 VIJ983053 VSF983053 WCB983053 WLX983053 WVT983053" xr:uid="{D0F7F560-9E4E-471D-BC9A-D71FAC3D6BBF}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C6:I6" xr:uid="{77D9BA1E-4201-434E-BB59-546209EBA2EB}">
       <formula1>$A$3:$A$61</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="J6:Q6" xr:uid="{AA098B2E-42C8-4B76-831F-A0A215BE7745}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="J6:Q6" xr:uid="{A6D2277A-962C-431D-BED6-C523BD460EEE}">
       <formula1>DateRange</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" sqref="WVV983057 JJ16 TF16 ADB16 AMX16 AWT16 BGP16 BQL16 CAH16 CKD16 CTZ16 DDV16 DNR16 DXN16 EHJ16 ERF16 FBB16 FKX16 FUT16 GEP16 GOL16 GYH16 HID16 HRZ16 IBV16 ILR16 IVN16 JFJ16 JPF16 JZB16 KIX16 KST16 LCP16 LML16 LWH16 MGD16 MPZ16 MZV16 NJR16 NTN16 ODJ16 ONF16 OXB16 PGX16 PQT16 QAP16 QKL16 QUH16 RED16 RNZ16 RXV16 SHR16 SRN16 TBJ16 TLF16 TVB16 UEX16 UOT16 UYP16 VIL16 VSH16 WCD16 WLZ16 WVV16 Q65547 JJ65553 TF65553 ADB65553 AMX65553 AWT65553 BGP65553 BQL65553 CAH65553 CKD65553 CTZ65553 DDV65553 DNR65553 DXN65553 EHJ65553 ERF65553 FBB65553 FKX65553 FUT65553 GEP65553 GOL65553 GYH65553 HID65553 HRZ65553 IBV65553 ILR65553 IVN65553 JFJ65553 JPF65553 JZB65553 KIX65553 KST65553 LCP65553 LML65553 LWH65553 MGD65553 MPZ65553 MZV65553 NJR65553 NTN65553 ODJ65553 ONF65553 OXB65553 PGX65553 PQT65553 QAP65553 QKL65553 QUH65553 RED65553 RNZ65553 RXV65553 SHR65553 SRN65553 TBJ65553 TLF65553 TVB65553 UEX65553 UOT65553 UYP65553 VIL65553 VSH65553 WCD65553 WLZ65553 WVV65553 Q131083 JJ131089 TF131089 ADB131089 AMX131089 AWT131089 BGP131089 BQL131089 CAH131089 CKD131089 CTZ131089 DDV131089 DNR131089 DXN131089 EHJ131089 ERF131089 FBB131089 FKX131089 FUT131089 GEP131089 GOL131089 GYH131089 HID131089 HRZ131089 IBV131089 ILR131089 IVN131089 JFJ131089 JPF131089 JZB131089 KIX131089 KST131089 LCP131089 LML131089 LWH131089 MGD131089 MPZ131089 MZV131089 NJR131089 NTN131089 ODJ131089 ONF131089 OXB131089 PGX131089 PQT131089 QAP131089 QKL131089 QUH131089 RED131089 RNZ131089 RXV131089 SHR131089 SRN131089 TBJ131089 TLF131089 TVB131089 UEX131089 UOT131089 UYP131089 VIL131089 VSH131089 WCD131089 WLZ131089 WVV131089 Q196619 JJ196625 TF196625 ADB196625 AMX196625 AWT196625 BGP196625 BQL196625 CAH196625 CKD196625 CTZ196625 DDV196625 DNR196625 DXN196625 EHJ196625 ERF196625 FBB196625 FKX196625 FUT196625 GEP196625 GOL196625 GYH196625 HID196625 HRZ196625 IBV196625 ILR196625 IVN196625 JFJ196625 JPF196625 JZB196625 KIX196625 KST196625 LCP196625 LML196625 LWH196625 MGD196625 MPZ196625 MZV196625 NJR196625 NTN196625 ODJ196625 ONF196625 OXB196625 PGX196625 PQT196625 QAP196625 QKL196625 QUH196625 RED196625 RNZ196625 RXV196625 SHR196625 SRN196625 TBJ196625 TLF196625 TVB196625 UEX196625 UOT196625 UYP196625 VIL196625 VSH196625 WCD196625 WLZ196625 WVV196625 Q262155 JJ262161 TF262161 ADB262161 AMX262161 AWT262161 BGP262161 BQL262161 CAH262161 CKD262161 CTZ262161 DDV262161 DNR262161 DXN262161 EHJ262161 ERF262161 FBB262161 FKX262161 FUT262161 GEP262161 GOL262161 GYH262161 HID262161 HRZ262161 IBV262161 ILR262161 IVN262161 JFJ262161 JPF262161 JZB262161 KIX262161 KST262161 LCP262161 LML262161 LWH262161 MGD262161 MPZ262161 MZV262161 NJR262161 NTN262161 ODJ262161 ONF262161 OXB262161 PGX262161 PQT262161 QAP262161 QKL262161 QUH262161 RED262161 RNZ262161 RXV262161 SHR262161 SRN262161 TBJ262161 TLF262161 TVB262161 UEX262161 UOT262161 UYP262161 VIL262161 VSH262161 WCD262161 WLZ262161 WVV262161 Q327691 JJ327697 TF327697 ADB327697 AMX327697 AWT327697 BGP327697 BQL327697 CAH327697 CKD327697 CTZ327697 DDV327697 DNR327697 DXN327697 EHJ327697 ERF327697 FBB327697 FKX327697 FUT327697 GEP327697 GOL327697 GYH327697 HID327697 HRZ327697 IBV327697 ILR327697 IVN327697 JFJ327697 JPF327697 JZB327697 KIX327697 KST327697 LCP327697 LML327697 LWH327697 MGD327697 MPZ327697 MZV327697 NJR327697 NTN327697 ODJ327697 ONF327697 OXB327697 PGX327697 PQT327697 QAP327697 QKL327697 QUH327697 RED327697 RNZ327697 RXV327697 SHR327697 SRN327697 TBJ327697 TLF327697 TVB327697 UEX327697 UOT327697 UYP327697 VIL327697 VSH327697 WCD327697 WLZ327697 WVV327697 Q393227 JJ393233 TF393233 ADB393233 AMX393233 AWT393233 BGP393233 BQL393233 CAH393233 CKD393233 CTZ393233 DDV393233 DNR393233 DXN393233 EHJ393233 ERF393233 FBB393233 FKX393233 FUT393233 GEP393233 GOL393233 GYH393233 HID393233 HRZ393233 IBV393233 ILR393233 IVN393233 JFJ393233 JPF393233 JZB393233 KIX393233 KST393233 LCP393233 LML393233 LWH393233 MGD393233 MPZ393233 MZV393233 NJR393233 NTN393233 ODJ393233 ONF393233 OXB393233 PGX393233 PQT393233 QAP393233 QKL393233 QUH393233 RED393233 RNZ393233 RXV393233 SHR393233 SRN393233 TBJ393233 TLF393233 TVB393233 UEX393233 UOT393233 UYP393233 VIL393233 VSH393233 WCD393233 WLZ393233 WVV393233 Q458763 JJ458769 TF458769 ADB458769 AMX458769 AWT458769 BGP458769 BQL458769 CAH458769 CKD458769 CTZ458769 DDV458769 DNR458769 DXN458769 EHJ458769 ERF458769 FBB458769 FKX458769 FUT458769 GEP458769 GOL458769 GYH458769 HID458769 HRZ458769 IBV458769 ILR458769 IVN458769 JFJ458769 JPF458769 JZB458769 KIX458769 KST458769 LCP458769 LML458769 LWH458769 MGD458769 MPZ458769 MZV458769 NJR458769 NTN458769 ODJ458769 ONF458769 OXB458769 PGX458769 PQT458769 QAP458769 QKL458769 QUH458769 RED458769 RNZ458769 RXV458769 SHR458769 SRN458769 TBJ458769 TLF458769 TVB458769 UEX458769 UOT458769 UYP458769 VIL458769 VSH458769 WCD458769 WLZ458769 WVV458769 Q524299 JJ524305 TF524305 ADB524305 AMX524305 AWT524305 BGP524305 BQL524305 CAH524305 CKD524305 CTZ524305 DDV524305 DNR524305 DXN524305 EHJ524305 ERF524305 FBB524305 FKX524305 FUT524305 GEP524305 GOL524305 GYH524305 HID524305 HRZ524305 IBV524305 ILR524305 IVN524305 JFJ524305 JPF524305 JZB524305 KIX524305 KST524305 LCP524305 LML524305 LWH524305 MGD524305 MPZ524305 MZV524305 NJR524305 NTN524305 ODJ524305 ONF524305 OXB524305 PGX524305 PQT524305 QAP524305 QKL524305 QUH524305 RED524305 RNZ524305 RXV524305 SHR524305 SRN524305 TBJ524305 TLF524305 TVB524305 UEX524305 UOT524305 UYP524305 VIL524305 VSH524305 WCD524305 WLZ524305 WVV524305 Q589835 JJ589841 TF589841 ADB589841 AMX589841 AWT589841 BGP589841 BQL589841 CAH589841 CKD589841 CTZ589841 DDV589841 DNR589841 DXN589841 EHJ589841 ERF589841 FBB589841 FKX589841 FUT589841 GEP589841 GOL589841 GYH589841 HID589841 HRZ589841 IBV589841 ILR589841 IVN589841 JFJ589841 JPF589841 JZB589841 KIX589841 KST589841 LCP589841 LML589841 LWH589841 MGD589841 MPZ589841 MZV589841 NJR589841 NTN589841 ODJ589841 ONF589841 OXB589841 PGX589841 PQT589841 QAP589841 QKL589841 QUH589841 RED589841 RNZ589841 RXV589841 SHR589841 SRN589841 TBJ589841 TLF589841 TVB589841 UEX589841 UOT589841 UYP589841 VIL589841 VSH589841 WCD589841 WLZ589841 WVV589841 Q655371 JJ655377 TF655377 ADB655377 AMX655377 AWT655377 BGP655377 BQL655377 CAH655377 CKD655377 CTZ655377 DDV655377 DNR655377 DXN655377 EHJ655377 ERF655377 FBB655377 FKX655377 FUT655377 GEP655377 GOL655377 GYH655377 HID655377 HRZ655377 IBV655377 ILR655377 IVN655377 JFJ655377 JPF655377 JZB655377 KIX655377 KST655377 LCP655377 LML655377 LWH655377 MGD655377 MPZ655377 MZV655377 NJR655377 NTN655377 ODJ655377 ONF655377 OXB655377 PGX655377 PQT655377 QAP655377 QKL655377 QUH655377 RED655377 RNZ655377 RXV655377 SHR655377 SRN655377 TBJ655377 TLF655377 TVB655377 UEX655377 UOT655377 UYP655377 VIL655377 VSH655377 WCD655377 WLZ655377 WVV655377 Q720907 JJ720913 TF720913 ADB720913 AMX720913 AWT720913 BGP720913 BQL720913 CAH720913 CKD720913 CTZ720913 DDV720913 DNR720913 DXN720913 EHJ720913 ERF720913 FBB720913 FKX720913 FUT720913 GEP720913 GOL720913 GYH720913 HID720913 HRZ720913 IBV720913 ILR720913 IVN720913 JFJ720913 JPF720913 JZB720913 KIX720913 KST720913 LCP720913 LML720913 LWH720913 MGD720913 MPZ720913 MZV720913 NJR720913 NTN720913 ODJ720913 ONF720913 OXB720913 PGX720913 PQT720913 QAP720913 QKL720913 QUH720913 RED720913 RNZ720913 RXV720913 SHR720913 SRN720913 TBJ720913 TLF720913 TVB720913 UEX720913 UOT720913 UYP720913 VIL720913 VSH720913 WCD720913 WLZ720913 WVV720913 Q786443 JJ786449 TF786449 ADB786449 AMX786449 AWT786449 BGP786449 BQL786449 CAH786449 CKD786449 CTZ786449 DDV786449 DNR786449 DXN786449 EHJ786449 ERF786449 FBB786449 FKX786449 FUT786449 GEP786449 GOL786449 GYH786449 HID786449 HRZ786449 IBV786449 ILR786449 IVN786449 JFJ786449 JPF786449 JZB786449 KIX786449 KST786449 LCP786449 LML786449 LWH786449 MGD786449 MPZ786449 MZV786449 NJR786449 NTN786449 ODJ786449 ONF786449 OXB786449 PGX786449 PQT786449 QAP786449 QKL786449 QUH786449 RED786449 RNZ786449 RXV786449 SHR786449 SRN786449 TBJ786449 TLF786449 TVB786449 UEX786449 UOT786449 UYP786449 VIL786449 VSH786449 WCD786449 WLZ786449 WVV786449 Q851979 JJ851985 TF851985 ADB851985 AMX851985 AWT851985 BGP851985 BQL851985 CAH851985 CKD851985 CTZ851985 DDV851985 DNR851985 DXN851985 EHJ851985 ERF851985 FBB851985 FKX851985 FUT851985 GEP851985 GOL851985 GYH851985 HID851985 HRZ851985 IBV851985 ILR851985 IVN851985 JFJ851985 JPF851985 JZB851985 KIX851985 KST851985 LCP851985 LML851985 LWH851985 MGD851985 MPZ851985 MZV851985 NJR851985 NTN851985 ODJ851985 ONF851985 OXB851985 PGX851985 PQT851985 QAP851985 QKL851985 QUH851985 RED851985 RNZ851985 RXV851985 SHR851985 SRN851985 TBJ851985 TLF851985 TVB851985 UEX851985 UOT851985 UYP851985 VIL851985 VSH851985 WCD851985 WLZ851985 WVV851985 Q917515 JJ917521 TF917521 ADB917521 AMX917521 AWT917521 BGP917521 BQL917521 CAH917521 CKD917521 CTZ917521 DDV917521 DNR917521 DXN917521 EHJ917521 ERF917521 FBB917521 FKX917521 FUT917521 GEP917521 GOL917521 GYH917521 HID917521 HRZ917521 IBV917521 ILR917521 IVN917521 JFJ917521 JPF917521 JZB917521 KIX917521 KST917521 LCP917521 LML917521 LWH917521 MGD917521 MPZ917521 MZV917521 NJR917521 NTN917521 ODJ917521 ONF917521 OXB917521 PGX917521 PQT917521 QAP917521 QKL917521 QUH917521 RED917521 RNZ917521 RXV917521 SHR917521 SRN917521 TBJ917521 TLF917521 TVB917521 UEX917521 UOT917521 UYP917521 VIL917521 VSH917521 WCD917521 WLZ917521 WVV917521 Q983051 JJ983057 TF983057 ADB983057 AMX983057 AWT983057 BGP983057 BQL983057 CAH983057 CKD983057 CTZ983057 DDV983057 DNR983057 DXN983057 EHJ983057 ERF983057 FBB983057 FKX983057 FUT983057 GEP983057 GOL983057 GYH983057 HID983057 HRZ983057 IBV983057 ILR983057 IVN983057 JFJ983057 JPF983057 JZB983057 KIX983057 KST983057 LCP983057 LML983057 LWH983057 MGD983057 MPZ983057 MZV983057 NJR983057 NTN983057 ODJ983057 ONF983057 OXB983057 PGX983057 PQT983057 QAP983057 QKL983057 QUH983057 RED983057 RNZ983057 RXV983057 SHR983057 SRN983057 TBJ983057 TLF983057 TVB983057 UEX983057 UOT983057 UYP983057 VIL983057 VSH983057 WCD983057 WLZ983057" xr:uid="{576C6AF2-E738-4218-A48A-23BBE7691978}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" sqref="WVV983057 JJ16 TF16 ADB16 AMX16 AWT16 BGP16 BQL16 CAH16 CKD16 CTZ16 DDV16 DNR16 DXN16 EHJ16 ERF16 FBB16 FKX16 FUT16 GEP16 GOL16 GYH16 HID16 HRZ16 IBV16 ILR16 IVN16 JFJ16 JPF16 JZB16 KIX16 KST16 LCP16 LML16 LWH16 MGD16 MPZ16 MZV16 NJR16 NTN16 ODJ16 ONF16 OXB16 PGX16 PQT16 QAP16 QKL16 QUH16 RED16 RNZ16 RXV16 SHR16 SRN16 TBJ16 TLF16 TVB16 UEX16 UOT16 UYP16 VIL16 VSH16 WCD16 WLZ16 WVV16 Q65547 JJ65553 TF65553 ADB65553 AMX65553 AWT65553 BGP65553 BQL65553 CAH65553 CKD65553 CTZ65553 DDV65553 DNR65553 DXN65553 EHJ65553 ERF65553 FBB65553 FKX65553 FUT65553 GEP65553 GOL65553 GYH65553 HID65553 HRZ65553 IBV65553 ILR65553 IVN65553 JFJ65553 JPF65553 JZB65553 KIX65553 KST65553 LCP65553 LML65553 LWH65553 MGD65553 MPZ65553 MZV65553 NJR65553 NTN65553 ODJ65553 ONF65553 OXB65553 PGX65553 PQT65553 QAP65553 QKL65553 QUH65553 RED65553 RNZ65553 RXV65553 SHR65553 SRN65553 TBJ65553 TLF65553 TVB65553 UEX65553 UOT65553 UYP65553 VIL65553 VSH65553 WCD65553 WLZ65553 WVV65553 Q131083 JJ131089 TF131089 ADB131089 AMX131089 AWT131089 BGP131089 BQL131089 CAH131089 CKD131089 CTZ131089 DDV131089 DNR131089 DXN131089 EHJ131089 ERF131089 FBB131089 FKX131089 FUT131089 GEP131089 GOL131089 GYH131089 HID131089 HRZ131089 IBV131089 ILR131089 IVN131089 JFJ131089 JPF131089 JZB131089 KIX131089 KST131089 LCP131089 LML131089 LWH131089 MGD131089 MPZ131089 MZV131089 NJR131089 NTN131089 ODJ131089 ONF131089 OXB131089 PGX131089 PQT131089 QAP131089 QKL131089 QUH131089 RED131089 RNZ131089 RXV131089 SHR131089 SRN131089 TBJ131089 TLF131089 TVB131089 UEX131089 UOT131089 UYP131089 VIL131089 VSH131089 WCD131089 WLZ131089 WVV131089 Q196619 JJ196625 TF196625 ADB196625 AMX196625 AWT196625 BGP196625 BQL196625 CAH196625 CKD196625 CTZ196625 DDV196625 DNR196625 DXN196625 EHJ196625 ERF196625 FBB196625 FKX196625 FUT196625 GEP196625 GOL196625 GYH196625 HID196625 HRZ196625 IBV196625 ILR196625 IVN196625 JFJ196625 JPF196625 JZB196625 KIX196625 KST196625 LCP196625 LML196625 LWH196625 MGD196625 MPZ196625 MZV196625 NJR196625 NTN196625 ODJ196625 ONF196625 OXB196625 PGX196625 PQT196625 QAP196625 QKL196625 QUH196625 RED196625 RNZ196625 RXV196625 SHR196625 SRN196625 TBJ196625 TLF196625 TVB196625 UEX196625 UOT196625 UYP196625 VIL196625 VSH196625 WCD196625 WLZ196625 WVV196625 Q262155 JJ262161 TF262161 ADB262161 AMX262161 AWT262161 BGP262161 BQL262161 CAH262161 CKD262161 CTZ262161 DDV262161 DNR262161 DXN262161 EHJ262161 ERF262161 FBB262161 FKX262161 FUT262161 GEP262161 GOL262161 GYH262161 HID262161 HRZ262161 IBV262161 ILR262161 IVN262161 JFJ262161 JPF262161 JZB262161 KIX262161 KST262161 LCP262161 LML262161 LWH262161 MGD262161 MPZ262161 MZV262161 NJR262161 NTN262161 ODJ262161 ONF262161 OXB262161 PGX262161 PQT262161 QAP262161 QKL262161 QUH262161 RED262161 RNZ262161 RXV262161 SHR262161 SRN262161 TBJ262161 TLF262161 TVB262161 UEX262161 UOT262161 UYP262161 VIL262161 VSH262161 WCD262161 WLZ262161 WVV262161 Q327691 JJ327697 TF327697 ADB327697 AMX327697 AWT327697 BGP327697 BQL327697 CAH327697 CKD327697 CTZ327697 DDV327697 DNR327697 DXN327697 EHJ327697 ERF327697 FBB327697 FKX327697 FUT327697 GEP327697 GOL327697 GYH327697 HID327697 HRZ327697 IBV327697 ILR327697 IVN327697 JFJ327697 JPF327697 JZB327697 KIX327697 KST327697 LCP327697 LML327697 LWH327697 MGD327697 MPZ327697 MZV327697 NJR327697 NTN327697 ODJ327697 ONF327697 OXB327697 PGX327697 PQT327697 QAP327697 QKL327697 QUH327697 RED327697 RNZ327697 RXV327697 SHR327697 SRN327697 TBJ327697 TLF327697 TVB327697 UEX327697 UOT327697 UYP327697 VIL327697 VSH327697 WCD327697 WLZ327697 WVV327697 Q393227 JJ393233 TF393233 ADB393233 AMX393233 AWT393233 BGP393233 BQL393233 CAH393233 CKD393233 CTZ393233 DDV393233 DNR393233 DXN393233 EHJ393233 ERF393233 FBB393233 FKX393233 FUT393233 GEP393233 GOL393233 GYH393233 HID393233 HRZ393233 IBV393233 ILR393233 IVN393233 JFJ393233 JPF393233 JZB393233 KIX393233 KST393233 LCP393233 LML393233 LWH393233 MGD393233 MPZ393233 MZV393233 NJR393233 NTN393233 ODJ393233 ONF393233 OXB393233 PGX393233 PQT393233 QAP393233 QKL393233 QUH393233 RED393233 RNZ393233 RXV393233 SHR393233 SRN393233 TBJ393233 TLF393233 TVB393233 UEX393233 UOT393233 UYP393233 VIL393233 VSH393233 WCD393233 WLZ393233 WVV393233 Q458763 JJ458769 TF458769 ADB458769 AMX458769 AWT458769 BGP458769 BQL458769 CAH458769 CKD458769 CTZ458769 DDV458769 DNR458769 DXN458769 EHJ458769 ERF458769 FBB458769 FKX458769 FUT458769 GEP458769 GOL458769 GYH458769 HID458769 HRZ458769 IBV458769 ILR458769 IVN458769 JFJ458769 JPF458769 JZB458769 KIX458769 KST458769 LCP458769 LML458769 LWH458769 MGD458769 MPZ458769 MZV458769 NJR458769 NTN458769 ODJ458769 ONF458769 OXB458769 PGX458769 PQT458769 QAP458769 QKL458769 QUH458769 RED458769 RNZ458769 RXV458769 SHR458769 SRN458769 TBJ458769 TLF458769 TVB458769 UEX458769 UOT458769 UYP458769 VIL458769 VSH458769 WCD458769 WLZ458769 WVV458769 Q524299 JJ524305 TF524305 ADB524305 AMX524305 AWT524305 BGP524305 BQL524305 CAH524305 CKD524305 CTZ524305 DDV524305 DNR524305 DXN524305 EHJ524305 ERF524305 FBB524305 FKX524305 FUT524305 GEP524305 GOL524305 GYH524305 HID524305 HRZ524305 IBV524305 ILR524305 IVN524305 JFJ524305 JPF524305 JZB524305 KIX524305 KST524305 LCP524305 LML524305 LWH524305 MGD524305 MPZ524305 MZV524305 NJR524305 NTN524305 ODJ524305 ONF524305 OXB524305 PGX524305 PQT524305 QAP524305 QKL524305 QUH524305 RED524305 RNZ524305 RXV524305 SHR524305 SRN524305 TBJ524305 TLF524305 TVB524305 UEX524305 UOT524305 UYP524305 VIL524305 VSH524305 WCD524305 WLZ524305 WVV524305 Q589835 JJ589841 TF589841 ADB589841 AMX589841 AWT589841 BGP589841 BQL589841 CAH589841 CKD589841 CTZ589841 DDV589841 DNR589841 DXN589841 EHJ589841 ERF589841 FBB589841 FKX589841 FUT589841 GEP589841 GOL589841 GYH589841 HID589841 HRZ589841 IBV589841 ILR589841 IVN589841 JFJ589841 JPF589841 JZB589841 KIX589841 KST589841 LCP589841 LML589841 LWH589841 MGD589841 MPZ589841 MZV589841 NJR589841 NTN589841 ODJ589841 ONF589841 OXB589841 PGX589841 PQT589841 QAP589841 QKL589841 QUH589841 RED589841 RNZ589841 RXV589841 SHR589841 SRN589841 TBJ589841 TLF589841 TVB589841 UEX589841 UOT589841 UYP589841 VIL589841 VSH589841 WCD589841 WLZ589841 WVV589841 Q655371 JJ655377 TF655377 ADB655377 AMX655377 AWT655377 BGP655377 BQL655377 CAH655377 CKD655377 CTZ655377 DDV655377 DNR655377 DXN655377 EHJ655377 ERF655377 FBB655377 FKX655377 FUT655377 GEP655377 GOL655377 GYH655377 HID655377 HRZ655377 IBV655377 ILR655377 IVN655377 JFJ655377 JPF655377 JZB655377 KIX655377 KST655377 LCP655377 LML655377 LWH655377 MGD655377 MPZ655377 MZV655377 NJR655377 NTN655377 ODJ655377 ONF655377 OXB655377 PGX655377 PQT655377 QAP655377 QKL655377 QUH655377 RED655377 RNZ655377 RXV655377 SHR655377 SRN655377 TBJ655377 TLF655377 TVB655377 UEX655377 UOT655377 UYP655377 VIL655377 VSH655377 WCD655377 WLZ655377 WVV655377 Q720907 JJ720913 TF720913 ADB720913 AMX720913 AWT720913 BGP720913 BQL720913 CAH720913 CKD720913 CTZ720913 DDV720913 DNR720913 DXN720913 EHJ720913 ERF720913 FBB720913 FKX720913 FUT720913 GEP720913 GOL720913 GYH720913 HID720913 HRZ720913 IBV720913 ILR720913 IVN720913 JFJ720913 JPF720913 JZB720913 KIX720913 KST720913 LCP720913 LML720913 LWH720913 MGD720913 MPZ720913 MZV720913 NJR720913 NTN720913 ODJ720913 ONF720913 OXB720913 PGX720913 PQT720913 QAP720913 QKL720913 QUH720913 RED720913 RNZ720913 RXV720913 SHR720913 SRN720913 TBJ720913 TLF720913 TVB720913 UEX720913 UOT720913 UYP720913 VIL720913 VSH720913 WCD720913 WLZ720913 WVV720913 Q786443 JJ786449 TF786449 ADB786449 AMX786449 AWT786449 BGP786449 BQL786449 CAH786449 CKD786449 CTZ786449 DDV786449 DNR786449 DXN786449 EHJ786449 ERF786449 FBB786449 FKX786449 FUT786449 GEP786449 GOL786449 GYH786449 HID786449 HRZ786449 IBV786449 ILR786449 IVN786449 JFJ786449 JPF786449 JZB786449 KIX786449 KST786449 LCP786449 LML786449 LWH786449 MGD786449 MPZ786449 MZV786449 NJR786449 NTN786449 ODJ786449 ONF786449 OXB786449 PGX786449 PQT786449 QAP786449 QKL786449 QUH786449 RED786449 RNZ786449 RXV786449 SHR786449 SRN786449 TBJ786449 TLF786449 TVB786449 UEX786449 UOT786449 UYP786449 VIL786449 VSH786449 WCD786449 WLZ786449 WVV786449 Q851979 JJ851985 TF851985 ADB851985 AMX851985 AWT851985 BGP851985 BQL851985 CAH851985 CKD851985 CTZ851985 DDV851985 DNR851985 DXN851985 EHJ851985 ERF851985 FBB851985 FKX851985 FUT851985 GEP851985 GOL851985 GYH851985 HID851985 HRZ851985 IBV851985 ILR851985 IVN851985 JFJ851985 JPF851985 JZB851985 KIX851985 KST851985 LCP851985 LML851985 LWH851985 MGD851985 MPZ851985 MZV851985 NJR851985 NTN851985 ODJ851985 ONF851985 OXB851985 PGX851985 PQT851985 QAP851985 QKL851985 QUH851985 RED851985 RNZ851985 RXV851985 SHR851985 SRN851985 TBJ851985 TLF851985 TVB851985 UEX851985 UOT851985 UYP851985 VIL851985 VSH851985 WCD851985 WLZ851985 WVV851985 Q917515 JJ917521 TF917521 ADB917521 AMX917521 AWT917521 BGP917521 BQL917521 CAH917521 CKD917521 CTZ917521 DDV917521 DNR917521 DXN917521 EHJ917521 ERF917521 FBB917521 FKX917521 FUT917521 GEP917521 GOL917521 GYH917521 HID917521 HRZ917521 IBV917521 ILR917521 IVN917521 JFJ917521 JPF917521 JZB917521 KIX917521 KST917521 LCP917521 LML917521 LWH917521 MGD917521 MPZ917521 MZV917521 NJR917521 NTN917521 ODJ917521 ONF917521 OXB917521 PGX917521 PQT917521 QAP917521 QKL917521 QUH917521 RED917521 RNZ917521 RXV917521 SHR917521 SRN917521 TBJ917521 TLF917521 TVB917521 UEX917521 UOT917521 UYP917521 VIL917521 VSH917521 WCD917521 WLZ917521 WVV917521 Q983051 JJ983057 TF983057 ADB983057 AMX983057 AWT983057 BGP983057 BQL983057 CAH983057 CKD983057 CTZ983057 DDV983057 DNR983057 DXN983057 EHJ983057 ERF983057 FBB983057 FKX983057 FUT983057 GEP983057 GOL983057 GYH983057 HID983057 HRZ983057 IBV983057 ILR983057 IVN983057 JFJ983057 JPF983057 JZB983057 KIX983057 KST983057 LCP983057 LML983057 LWH983057 MGD983057 MPZ983057 MZV983057 NJR983057 NTN983057 ODJ983057 ONF983057 OXB983057 PGX983057 PQT983057 QAP983057 QKL983057 QUH983057 RED983057 RNZ983057 RXV983057 SHR983057 SRN983057 TBJ983057 TLF983057 TVB983057 UEX983057 UOT983057 UYP983057 VIL983057 VSH983057 WCD983057 WLZ983057" xr:uid="{2E51A1C8-3EFB-42C5-98B0-B3DF245B5281}">
       <formula1>O12</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" showInputMessage="1" sqref="WVP983057 JD16 SZ16 ACV16 AMR16 AWN16 BGJ16 BQF16 CAB16 CJX16 CTT16 DDP16 DNL16 DXH16 EHD16 EQZ16 FAV16 FKR16 FUN16 GEJ16 GOF16 GYB16 HHX16 HRT16 IBP16 ILL16 IVH16 JFD16 JOZ16 JYV16 KIR16 KSN16 LCJ16 LMF16 LWB16 MFX16 MPT16 MZP16 NJL16 NTH16 ODD16 OMZ16 OWV16 PGR16 PQN16 QAJ16 QKF16 QUB16 RDX16 RNT16 RXP16 SHL16 SRH16 TBD16 TKZ16 TUV16 UER16 UON16 UYJ16 VIF16 VSB16 WBX16 WLT16 WVP16 K65547 JD65553 SZ65553 ACV65553 AMR65553 AWN65553 BGJ65553 BQF65553 CAB65553 CJX65553 CTT65553 DDP65553 DNL65553 DXH65553 EHD65553 EQZ65553 FAV65553 FKR65553 FUN65553 GEJ65553 GOF65553 GYB65553 HHX65553 HRT65553 IBP65553 ILL65553 IVH65553 JFD65553 JOZ65553 JYV65553 KIR65553 KSN65553 LCJ65553 LMF65553 LWB65553 MFX65553 MPT65553 MZP65553 NJL65553 NTH65553 ODD65553 OMZ65553 OWV65553 PGR65553 PQN65553 QAJ65553 QKF65553 QUB65553 RDX65553 RNT65553 RXP65553 SHL65553 SRH65553 TBD65553 TKZ65553 TUV65553 UER65553 UON65553 UYJ65553 VIF65553 VSB65553 WBX65553 WLT65553 WVP65553 K131083 JD131089 SZ131089 ACV131089 AMR131089 AWN131089 BGJ131089 BQF131089 CAB131089 CJX131089 CTT131089 DDP131089 DNL131089 DXH131089 EHD131089 EQZ131089 FAV131089 FKR131089 FUN131089 GEJ131089 GOF131089 GYB131089 HHX131089 HRT131089 IBP131089 ILL131089 IVH131089 JFD131089 JOZ131089 JYV131089 KIR131089 KSN131089 LCJ131089 LMF131089 LWB131089 MFX131089 MPT131089 MZP131089 NJL131089 NTH131089 ODD131089 OMZ131089 OWV131089 PGR131089 PQN131089 QAJ131089 QKF131089 QUB131089 RDX131089 RNT131089 RXP131089 SHL131089 SRH131089 TBD131089 TKZ131089 TUV131089 UER131089 UON131089 UYJ131089 VIF131089 VSB131089 WBX131089 WLT131089 WVP131089 K196619 JD196625 SZ196625 ACV196625 AMR196625 AWN196625 BGJ196625 BQF196625 CAB196625 CJX196625 CTT196625 DDP196625 DNL196625 DXH196625 EHD196625 EQZ196625 FAV196625 FKR196625 FUN196625 GEJ196625 GOF196625 GYB196625 HHX196625 HRT196625 IBP196625 ILL196625 IVH196625 JFD196625 JOZ196625 JYV196625 KIR196625 KSN196625 LCJ196625 LMF196625 LWB196625 MFX196625 MPT196625 MZP196625 NJL196625 NTH196625 ODD196625 OMZ196625 OWV196625 PGR196625 PQN196625 QAJ196625 QKF196625 QUB196625 RDX196625 RNT196625 RXP196625 SHL196625 SRH196625 TBD196625 TKZ196625 TUV196625 UER196625 UON196625 UYJ196625 VIF196625 VSB196625 WBX196625 WLT196625 WVP196625 K262155 JD262161 SZ262161 ACV262161 AMR262161 AWN262161 BGJ262161 BQF262161 CAB262161 CJX262161 CTT262161 DDP262161 DNL262161 DXH262161 EHD262161 EQZ262161 FAV262161 FKR262161 FUN262161 GEJ262161 GOF262161 GYB262161 HHX262161 HRT262161 IBP262161 ILL262161 IVH262161 JFD262161 JOZ262161 JYV262161 KIR262161 KSN262161 LCJ262161 LMF262161 LWB262161 MFX262161 MPT262161 MZP262161 NJL262161 NTH262161 ODD262161 OMZ262161 OWV262161 PGR262161 PQN262161 QAJ262161 QKF262161 QUB262161 RDX262161 RNT262161 RXP262161 SHL262161 SRH262161 TBD262161 TKZ262161 TUV262161 UER262161 UON262161 UYJ262161 VIF262161 VSB262161 WBX262161 WLT262161 WVP262161 K327691 JD327697 SZ327697 ACV327697 AMR327697 AWN327697 BGJ327697 BQF327697 CAB327697 CJX327697 CTT327697 DDP327697 DNL327697 DXH327697 EHD327697 EQZ327697 FAV327697 FKR327697 FUN327697 GEJ327697 GOF327697 GYB327697 HHX327697 HRT327697 IBP327697 ILL327697 IVH327697 JFD327697 JOZ327697 JYV327697 KIR327697 KSN327697 LCJ327697 LMF327697 LWB327697 MFX327697 MPT327697 MZP327697 NJL327697 NTH327697 ODD327697 OMZ327697 OWV327697 PGR327697 PQN327697 QAJ327697 QKF327697 QUB327697 RDX327697 RNT327697 RXP327697 SHL327697 SRH327697 TBD327697 TKZ327697 TUV327697 UER327697 UON327697 UYJ327697 VIF327697 VSB327697 WBX327697 WLT327697 WVP327697 K393227 JD393233 SZ393233 ACV393233 AMR393233 AWN393233 BGJ393233 BQF393233 CAB393233 CJX393233 CTT393233 DDP393233 DNL393233 DXH393233 EHD393233 EQZ393233 FAV393233 FKR393233 FUN393233 GEJ393233 GOF393233 GYB393233 HHX393233 HRT393233 IBP393233 ILL393233 IVH393233 JFD393233 JOZ393233 JYV393233 KIR393233 KSN393233 LCJ393233 LMF393233 LWB393233 MFX393233 MPT393233 MZP393233 NJL393233 NTH393233 ODD393233 OMZ393233 OWV393233 PGR393233 PQN393233 QAJ393233 QKF393233 QUB393233 RDX393233 RNT393233 RXP393233 SHL393233 SRH393233 TBD393233 TKZ393233 TUV393233 UER393233 UON393233 UYJ393233 VIF393233 VSB393233 WBX393233 WLT393233 WVP393233 K458763 JD458769 SZ458769 ACV458769 AMR458769 AWN458769 BGJ458769 BQF458769 CAB458769 CJX458769 CTT458769 DDP458769 DNL458769 DXH458769 EHD458769 EQZ458769 FAV458769 FKR458769 FUN458769 GEJ458769 GOF458769 GYB458769 HHX458769 HRT458769 IBP458769 ILL458769 IVH458769 JFD458769 JOZ458769 JYV458769 KIR458769 KSN458769 LCJ458769 LMF458769 LWB458769 MFX458769 MPT458769 MZP458769 NJL458769 NTH458769 ODD458769 OMZ458769 OWV458769 PGR458769 PQN458769 QAJ458769 QKF458769 QUB458769 RDX458769 RNT458769 RXP458769 SHL458769 SRH458769 TBD458769 TKZ458769 TUV458769 UER458769 UON458769 UYJ458769 VIF458769 VSB458769 WBX458769 WLT458769 WVP458769 K524299 JD524305 SZ524305 ACV524305 AMR524305 AWN524305 BGJ524305 BQF524305 CAB524305 CJX524305 CTT524305 DDP524305 DNL524305 DXH524305 EHD524305 EQZ524305 FAV524305 FKR524305 FUN524305 GEJ524305 GOF524305 GYB524305 HHX524305 HRT524305 IBP524305 ILL524305 IVH524305 JFD524305 JOZ524305 JYV524305 KIR524305 KSN524305 LCJ524305 LMF524305 LWB524305 MFX524305 MPT524305 MZP524305 NJL524305 NTH524305 ODD524305 OMZ524305 OWV524305 PGR524305 PQN524305 QAJ524305 QKF524305 QUB524305 RDX524305 RNT524305 RXP524305 SHL524305 SRH524305 TBD524305 TKZ524305 TUV524305 UER524305 UON524305 UYJ524305 VIF524305 VSB524305 WBX524305 WLT524305 WVP524305 K589835 JD589841 SZ589841 ACV589841 AMR589841 AWN589841 BGJ589841 BQF589841 CAB589841 CJX589841 CTT589841 DDP589841 DNL589841 DXH589841 EHD589841 EQZ589841 FAV589841 FKR589841 FUN589841 GEJ589841 GOF589841 GYB589841 HHX589841 HRT589841 IBP589841 ILL589841 IVH589841 JFD589841 JOZ589841 JYV589841 KIR589841 KSN589841 LCJ589841 LMF589841 LWB589841 MFX589841 MPT589841 MZP589841 NJL589841 NTH589841 ODD589841 OMZ589841 OWV589841 PGR589841 PQN589841 QAJ589841 QKF589841 QUB589841 RDX589841 RNT589841 RXP589841 SHL589841 SRH589841 TBD589841 TKZ589841 TUV589841 UER589841 UON589841 UYJ589841 VIF589841 VSB589841 WBX589841 WLT589841 WVP589841 K655371 JD655377 SZ655377 ACV655377 AMR655377 AWN655377 BGJ655377 BQF655377 CAB655377 CJX655377 CTT655377 DDP655377 DNL655377 DXH655377 EHD655377 EQZ655377 FAV655377 FKR655377 FUN655377 GEJ655377 GOF655377 GYB655377 HHX655377 HRT655377 IBP655377 ILL655377 IVH655377 JFD655377 JOZ655377 JYV655377 KIR655377 KSN655377 LCJ655377 LMF655377 LWB655377 MFX655377 MPT655377 MZP655377 NJL655377 NTH655377 ODD655377 OMZ655377 OWV655377 PGR655377 PQN655377 QAJ655377 QKF655377 QUB655377 RDX655377 RNT655377 RXP655377 SHL655377 SRH655377 TBD655377 TKZ655377 TUV655377 UER655377 UON655377 UYJ655377 VIF655377 VSB655377 WBX655377 WLT655377 WVP655377 K720907 JD720913 SZ720913 ACV720913 AMR720913 AWN720913 BGJ720913 BQF720913 CAB720913 CJX720913 CTT720913 DDP720913 DNL720913 DXH720913 EHD720913 EQZ720913 FAV720913 FKR720913 FUN720913 GEJ720913 GOF720913 GYB720913 HHX720913 HRT720913 IBP720913 ILL720913 IVH720913 JFD720913 JOZ720913 JYV720913 KIR720913 KSN720913 LCJ720913 LMF720913 LWB720913 MFX720913 MPT720913 MZP720913 NJL720913 NTH720913 ODD720913 OMZ720913 OWV720913 PGR720913 PQN720913 QAJ720913 QKF720913 QUB720913 RDX720913 RNT720913 RXP720913 SHL720913 SRH720913 TBD720913 TKZ720913 TUV720913 UER720913 UON720913 UYJ720913 VIF720913 VSB720913 WBX720913 WLT720913 WVP720913 K786443 JD786449 SZ786449 ACV786449 AMR786449 AWN786449 BGJ786449 BQF786449 CAB786449 CJX786449 CTT786449 DDP786449 DNL786449 DXH786449 EHD786449 EQZ786449 FAV786449 FKR786449 FUN786449 GEJ786449 GOF786449 GYB786449 HHX786449 HRT786449 IBP786449 ILL786449 IVH786449 JFD786449 JOZ786449 JYV786449 KIR786449 KSN786449 LCJ786449 LMF786449 LWB786449 MFX786449 MPT786449 MZP786449 NJL786449 NTH786449 ODD786449 OMZ786449 OWV786449 PGR786449 PQN786449 QAJ786449 QKF786449 QUB786449 RDX786449 RNT786449 RXP786449 SHL786449 SRH786449 TBD786449 TKZ786449 TUV786449 UER786449 UON786449 UYJ786449 VIF786449 VSB786449 WBX786449 WLT786449 WVP786449 K851979 JD851985 SZ851985 ACV851985 AMR851985 AWN851985 BGJ851985 BQF851985 CAB851985 CJX851985 CTT851985 DDP851985 DNL851985 DXH851985 EHD851985 EQZ851985 FAV851985 FKR851985 FUN851985 GEJ851985 GOF851985 GYB851985 HHX851985 HRT851985 IBP851985 ILL851985 IVH851985 JFD851985 JOZ851985 JYV851985 KIR851985 KSN851985 LCJ851985 LMF851985 LWB851985 MFX851985 MPT851985 MZP851985 NJL851985 NTH851985 ODD851985 OMZ851985 OWV851985 PGR851985 PQN851985 QAJ851985 QKF851985 QUB851985 RDX851985 RNT851985 RXP851985 SHL851985 SRH851985 TBD851985 TKZ851985 TUV851985 UER851985 UON851985 UYJ851985 VIF851985 VSB851985 WBX851985 WLT851985 WVP851985 K917515 JD917521 SZ917521 ACV917521 AMR917521 AWN917521 BGJ917521 BQF917521 CAB917521 CJX917521 CTT917521 DDP917521 DNL917521 DXH917521 EHD917521 EQZ917521 FAV917521 FKR917521 FUN917521 GEJ917521 GOF917521 GYB917521 HHX917521 HRT917521 IBP917521 ILL917521 IVH917521 JFD917521 JOZ917521 JYV917521 KIR917521 KSN917521 LCJ917521 LMF917521 LWB917521 MFX917521 MPT917521 MZP917521 NJL917521 NTH917521 ODD917521 OMZ917521 OWV917521 PGR917521 PQN917521 QAJ917521 QKF917521 QUB917521 RDX917521 RNT917521 RXP917521 SHL917521 SRH917521 TBD917521 TKZ917521 TUV917521 UER917521 UON917521 UYJ917521 VIF917521 VSB917521 WBX917521 WLT917521 WVP917521 K983051 JD983057 SZ983057 ACV983057 AMR983057 AWN983057 BGJ983057 BQF983057 CAB983057 CJX983057 CTT983057 DDP983057 DNL983057 DXH983057 EHD983057 EQZ983057 FAV983057 FKR983057 FUN983057 GEJ983057 GOF983057 GYB983057 HHX983057 HRT983057 IBP983057 ILL983057 IVH983057 JFD983057 JOZ983057 JYV983057 KIR983057 KSN983057 LCJ983057 LMF983057 LWB983057 MFX983057 MPT983057 MZP983057 NJL983057 NTH983057 ODD983057 OMZ983057 OWV983057 PGR983057 PQN983057 QAJ983057 QKF983057 QUB983057 RDX983057 RNT983057 RXP983057 SHL983057 SRH983057 TBD983057 TKZ983057 TUV983057 UER983057 UON983057 UYJ983057 VIF983057 VSB983057 WBX983057 WLT983057" xr:uid="{841921B4-2F21-4D80-82AF-125254717AF2}">
+    <dataValidation type="whole" operator="lessThanOrEqual" showInputMessage="1" sqref="WVP983057 JD16 SZ16 ACV16 AMR16 AWN16 BGJ16 BQF16 CAB16 CJX16 CTT16 DDP16 DNL16 DXH16 EHD16 EQZ16 FAV16 FKR16 FUN16 GEJ16 GOF16 GYB16 HHX16 HRT16 IBP16 ILL16 IVH16 JFD16 JOZ16 JYV16 KIR16 KSN16 LCJ16 LMF16 LWB16 MFX16 MPT16 MZP16 NJL16 NTH16 ODD16 OMZ16 OWV16 PGR16 PQN16 QAJ16 QKF16 QUB16 RDX16 RNT16 RXP16 SHL16 SRH16 TBD16 TKZ16 TUV16 UER16 UON16 UYJ16 VIF16 VSB16 WBX16 WLT16 WVP16 K65547 JD65553 SZ65553 ACV65553 AMR65553 AWN65553 BGJ65553 BQF65553 CAB65553 CJX65553 CTT65553 DDP65553 DNL65553 DXH65553 EHD65553 EQZ65553 FAV65553 FKR65553 FUN65553 GEJ65553 GOF65553 GYB65553 HHX65553 HRT65553 IBP65553 ILL65553 IVH65553 JFD65553 JOZ65553 JYV65553 KIR65553 KSN65553 LCJ65553 LMF65553 LWB65553 MFX65553 MPT65553 MZP65553 NJL65553 NTH65553 ODD65553 OMZ65553 OWV65553 PGR65553 PQN65553 QAJ65553 QKF65553 QUB65553 RDX65553 RNT65553 RXP65553 SHL65553 SRH65553 TBD65553 TKZ65553 TUV65553 UER65553 UON65553 UYJ65553 VIF65553 VSB65553 WBX65553 WLT65553 WVP65553 K131083 JD131089 SZ131089 ACV131089 AMR131089 AWN131089 BGJ131089 BQF131089 CAB131089 CJX131089 CTT131089 DDP131089 DNL131089 DXH131089 EHD131089 EQZ131089 FAV131089 FKR131089 FUN131089 GEJ131089 GOF131089 GYB131089 HHX131089 HRT131089 IBP131089 ILL131089 IVH131089 JFD131089 JOZ131089 JYV131089 KIR131089 KSN131089 LCJ131089 LMF131089 LWB131089 MFX131089 MPT131089 MZP131089 NJL131089 NTH131089 ODD131089 OMZ131089 OWV131089 PGR131089 PQN131089 QAJ131089 QKF131089 QUB131089 RDX131089 RNT131089 RXP131089 SHL131089 SRH131089 TBD131089 TKZ131089 TUV131089 UER131089 UON131089 UYJ131089 VIF131089 VSB131089 WBX131089 WLT131089 WVP131089 K196619 JD196625 SZ196625 ACV196625 AMR196625 AWN196625 BGJ196625 BQF196625 CAB196625 CJX196625 CTT196625 DDP196625 DNL196625 DXH196625 EHD196625 EQZ196625 FAV196625 FKR196625 FUN196625 GEJ196625 GOF196625 GYB196625 HHX196625 HRT196625 IBP196625 ILL196625 IVH196625 JFD196625 JOZ196625 JYV196625 KIR196625 KSN196625 LCJ196625 LMF196625 LWB196625 MFX196625 MPT196625 MZP196625 NJL196625 NTH196625 ODD196625 OMZ196625 OWV196625 PGR196625 PQN196625 QAJ196625 QKF196625 QUB196625 RDX196625 RNT196625 RXP196625 SHL196625 SRH196625 TBD196625 TKZ196625 TUV196625 UER196625 UON196625 UYJ196625 VIF196625 VSB196625 WBX196625 WLT196625 WVP196625 K262155 JD262161 SZ262161 ACV262161 AMR262161 AWN262161 BGJ262161 BQF262161 CAB262161 CJX262161 CTT262161 DDP262161 DNL262161 DXH262161 EHD262161 EQZ262161 FAV262161 FKR262161 FUN262161 GEJ262161 GOF262161 GYB262161 HHX262161 HRT262161 IBP262161 ILL262161 IVH262161 JFD262161 JOZ262161 JYV262161 KIR262161 KSN262161 LCJ262161 LMF262161 LWB262161 MFX262161 MPT262161 MZP262161 NJL262161 NTH262161 ODD262161 OMZ262161 OWV262161 PGR262161 PQN262161 QAJ262161 QKF262161 QUB262161 RDX262161 RNT262161 RXP262161 SHL262161 SRH262161 TBD262161 TKZ262161 TUV262161 UER262161 UON262161 UYJ262161 VIF262161 VSB262161 WBX262161 WLT262161 WVP262161 K327691 JD327697 SZ327697 ACV327697 AMR327697 AWN327697 BGJ327697 BQF327697 CAB327697 CJX327697 CTT327697 DDP327697 DNL327697 DXH327697 EHD327697 EQZ327697 FAV327697 FKR327697 FUN327697 GEJ327697 GOF327697 GYB327697 HHX327697 HRT327697 IBP327697 ILL327697 IVH327697 JFD327697 JOZ327697 JYV327697 KIR327697 KSN327697 LCJ327697 LMF327697 LWB327697 MFX327697 MPT327697 MZP327697 NJL327697 NTH327697 ODD327697 OMZ327697 OWV327697 PGR327697 PQN327697 QAJ327697 QKF327697 QUB327697 RDX327697 RNT327697 RXP327697 SHL327697 SRH327697 TBD327697 TKZ327697 TUV327697 UER327697 UON327697 UYJ327697 VIF327697 VSB327697 WBX327697 WLT327697 WVP327697 K393227 JD393233 SZ393233 ACV393233 AMR393233 AWN393233 BGJ393233 BQF393233 CAB393233 CJX393233 CTT393233 DDP393233 DNL393233 DXH393233 EHD393233 EQZ393233 FAV393233 FKR393233 FUN393233 GEJ393233 GOF393233 GYB393233 HHX393233 HRT393233 IBP393233 ILL393233 IVH393233 JFD393233 JOZ393233 JYV393233 KIR393233 KSN393233 LCJ393233 LMF393233 LWB393233 MFX393233 MPT393233 MZP393233 NJL393233 NTH393233 ODD393233 OMZ393233 OWV393233 PGR393233 PQN393233 QAJ393233 QKF393233 QUB393233 RDX393233 RNT393233 RXP393233 SHL393233 SRH393233 TBD393233 TKZ393233 TUV393233 UER393233 UON393233 UYJ393233 VIF393233 VSB393233 WBX393233 WLT393233 WVP393233 K458763 JD458769 SZ458769 ACV458769 AMR458769 AWN458769 BGJ458769 BQF458769 CAB458769 CJX458769 CTT458769 DDP458769 DNL458769 DXH458769 EHD458769 EQZ458769 FAV458769 FKR458769 FUN458769 GEJ458769 GOF458769 GYB458769 HHX458769 HRT458769 IBP458769 ILL458769 IVH458769 JFD458769 JOZ458769 JYV458769 KIR458769 KSN458769 LCJ458769 LMF458769 LWB458769 MFX458769 MPT458769 MZP458769 NJL458769 NTH458769 ODD458769 OMZ458769 OWV458769 PGR458769 PQN458769 QAJ458769 QKF458769 QUB458769 RDX458769 RNT458769 RXP458769 SHL458769 SRH458769 TBD458769 TKZ458769 TUV458769 UER458769 UON458769 UYJ458769 VIF458769 VSB458769 WBX458769 WLT458769 WVP458769 K524299 JD524305 SZ524305 ACV524305 AMR524305 AWN524305 BGJ524305 BQF524305 CAB524305 CJX524305 CTT524305 DDP524305 DNL524305 DXH524305 EHD524305 EQZ524305 FAV524305 FKR524305 FUN524305 GEJ524305 GOF524305 GYB524305 HHX524305 HRT524305 IBP524305 ILL524305 IVH524305 JFD524305 JOZ524305 JYV524305 KIR524305 KSN524305 LCJ524305 LMF524305 LWB524305 MFX524305 MPT524305 MZP524305 NJL524305 NTH524305 ODD524305 OMZ524305 OWV524305 PGR524305 PQN524305 QAJ524305 QKF524305 QUB524305 RDX524305 RNT524305 RXP524305 SHL524305 SRH524305 TBD524305 TKZ524305 TUV524305 UER524305 UON524305 UYJ524305 VIF524305 VSB524305 WBX524305 WLT524305 WVP524305 K589835 JD589841 SZ589841 ACV589841 AMR589841 AWN589841 BGJ589841 BQF589841 CAB589841 CJX589841 CTT589841 DDP589841 DNL589841 DXH589841 EHD589841 EQZ589841 FAV589841 FKR589841 FUN589841 GEJ589841 GOF589841 GYB589841 HHX589841 HRT589841 IBP589841 ILL589841 IVH589841 JFD589841 JOZ589841 JYV589841 KIR589841 KSN589841 LCJ589841 LMF589841 LWB589841 MFX589841 MPT589841 MZP589841 NJL589841 NTH589841 ODD589841 OMZ589841 OWV589841 PGR589841 PQN589841 QAJ589841 QKF589841 QUB589841 RDX589841 RNT589841 RXP589841 SHL589841 SRH589841 TBD589841 TKZ589841 TUV589841 UER589841 UON589841 UYJ589841 VIF589841 VSB589841 WBX589841 WLT589841 WVP589841 K655371 JD655377 SZ655377 ACV655377 AMR655377 AWN655377 BGJ655377 BQF655377 CAB655377 CJX655377 CTT655377 DDP655377 DNL655377 DXH655377 EHD655377 EQZ655377 FAV655377 FKR655377 FUN655377 GEJ655377 GOF655377 GYB655377 HHX655377 HRT655377 IBP655377 ILL655377 IVH655377 JFD655377 JOZ655377 JYV655377 KIR655377 KSN655377 LCJ655377 LMF655377 LWB655377 MFX655377 MPT655377 MZP655377 NJL655377 NTH655377 ODD655377 OMZ655377 OWV655377 PGR655377 PQN655377 QAJ655377 QKF655377 QUB655377 RDX655377 RNT655377 RXP655377 SHL655377 SRH655377 TBD655377 TKZ655377 TUV655377 UER655377 UON655377 UYJ655377 VIF655377 VSB655377 WBX655377 WLT655377 WVP655377 K720907 JD720913 SZ720913 ACV720913 AMR720913 AWN720913 BGJ720913 BQF720913 CAB720913 CJX720913 CTT720913 DDP720913 DNL720913 DXH720913 EHD720913 EQZ720913 FAV720913 FKR720913 FUN720913 GEJ720913 GOF720913 GYB720913 HHX720913 HRT720913 IBP720913 ILL720913 IVH720913 JFD720913 JOZ720913 JYV720913 KIR720913 KSN720913 LCJ720913 LMF720913 LWB720913 MFX720913 MPT720913 MZP720913 NJL720913 NTH720913 ODD720913 OMZ720913 OWV720913 PGR720913 PQN720913 QAJ720913 QKF720913 QUB720913 RDX720913 RNT720913 RXP720913 SHL720913 SRH720913 TBD720913 TKZ720913 TUV720913 UER720913 UON720913 UYJ720913 VIF720913 VSB720913 WBX720913 WLT720913 WVP720913 K786443 JD786449 SZ786449 ACV786449 AMR786449 AWN786449 BGJ786449 BQF786449 CAB786449 CJX786449 CTT786449 DDP786449 DNL786449 DXH786449 EHD786449 EQZ786449 FAV786449 FKR786449 FUN786449 GEJ786449 GOF786449 GYB786449 HHX786449 HRT786449 IBP786449 ILL786449 IVH786449 JFD786449 JOZ786449 JYV786449 KIR786449 KSN786449 LCJ786449 LMF786449 LWB786449 MFX786449 MPT786449 MZP786449 NJL786449 NTH786449 ODD786449 OMZ786449 OWV786449 PGR786449 PQN786449 QAJ786449 QKF786449 QUB786449 RDX786449 RNT786449 RXP786449 SHL786449 SRH786449 TBD786449 TKZ786449 TUV786449 UER786449 UON786449 UYJ786449 VIF786449 VSB786449 WBX786449 WLT786449 WVP786449 K851979 JD851985 SZ851985 ACV851985 AMR851985 AWN851985 BGJ851985 BQF851985 CAB851985 CJX851985 CTT851985 DDP851985 DNL851985 DXH851985 EHD851985 EQZ851985 FAV851985 FKR851985 FUN851985 GEJ851985 GOF851985 GYB851985 HHX851985 HRT851985 IBP851985 ILL851985 IVH851985 JFD851985 JOZ851985 JYV851985 KIR851985 KSN851985 LCJ851985 LMF851985 LWB851985 MFX851985 MPT851985 MZP851985 NJL851985 NTH851985 ODD851985 OMZ851985 OWV851985 PGR851985 PQN851985 QAJ851985 QKF851985 QUB851985 RDX851985 RNT851985 RXP851985 SHL851985 SRH851985 TBD851985 TKZ851985 TUV851985 UER851985 UON851985 UYJ851985 VIF851985 VSB851985 WBX851985 WLT851985 WVP851985 K917515 JD917521 SZ917521 ACV917521 AMR917521 AWN917521 BGJ917521 BQF917521 CAB917521 CJX917521 CTT917521 DDP917521 DNL917521 DXH917521 EHD917521 EQZ917521 FAV917521 FKR917521 FUN917521 GEJ917521 GOF917521 GYB917521 HHX917521 HRT917521 IBP917521 ILL917521 IVH917521 JFD917521 JOZ917521 JYV917521 KIR917521 KSN917521 LCJ917521 LMF917521 LWB917521 MFX917521 MPT917521 MZP917521 NJL917521 NTH917521 ODD917521 OMZ917521 OWV917521 PGR917521 PQN917521 QAJ917521 QKF917521 QUB917521 RDX917521 RNT917521 RXP917521 SHL917521 SRH917521 TBD917521 TKZ917521 TUV917521 UER917521 UON917521 UYJ917521 VIF917521 VSB917521 WBX917521 WLT917521 WVP917521 K983051 JD983057 SZ983057 ACV983057 AMR983057 AWN983057 BGJ983057 BQF983057 CAB983057 CJX983057 CTT983057 DDP983057 DNL983057 DXH983057 EHD983057 EQZ983057 FAV983057 FKR983057 FUN983057 GEJ983057 GOF983057 GYB983057 HHX983057 HRT983057 IBP983057 ILL983057 IVH983057 JFD983057 JOZ983057 JYV983057 KIR983057 KSN983057 LCJ983057 LMF983057 LWB983057 MFX983057 MPT983057 MZP983057 NJL983057 NTH983057 ODD983057 OMZ983057 OWV983057 PGR983057 PQN983057 QAJ983057 QKF983057 QUB983057 RDX983057 RNT983057 RXP983057 SHL983057 SRH983057 TBD983057 TKZ983057 TUV983057 UER983057 UON983057 UYJ983057 VIF983057 VSB983057 WBX983057 WLT983057" xr:uid="{6F3CE95C-3094-47FF-899E-BE2317E6EACA}">
       <formula1>I12</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="WLT983045 IX6 ST6 ACP6 AML6 AWH6 BGD6 BPZ6 BZV6 CJR6 CTN6 DDJ6 DNF6 DXB6 EGX6 EQT6 FAP6 FKL6 FUH6 GED6 GNZ6 GXV6 HHR6 HRN6 IBJ6 ILF6 IVB6 JEX6 JOT6 JYP6 KIL6 KSH6 LCD6 LLZ6 LVV6 MFR6 MPN6 MZJ6 NJF6 NTB6 OCX6 OMT6 OWP6 PGL6 PQH6 QAD6 QJZ6 QTV6 RDR6 RNN6 RXJ6 SHF6 SRB6 TAX6 TKT6 TUP6 UEL6 UOH6 UYD6 VHZ6 VRV6 WBR6 WLN6 WVJ6 E65535 IX65541 ST65541 ACP65541 AML65541 AWH65541 BGD65541 BPZ65541 BZV65541 CJR65541 CTN65541 DDJ65541 DNF65541 DXB65541 EGX65541 EQT65541 FAP65541 FKL65541 FUH65541 GED65541 GNZ65541 GXV65541 HHR65541 HRN65541 IBJ65541 ILF65541 IVB65541 JEX65541 JOT65541 JYP65541 KIL65541 KSH65541 LCD65541 LLZ65541 LVV65541 MFR65541 MPN65541 MZJ65541 NJF65541 NTB65541 OCX65541 OMT65541 OWP65541 PGL65541 PQH65541 QAD65541 QJZ65541 QTV65541 RDR65541 RNN65541 RXJ65541 SHF65541 SRB65541 TAX65541 TKT65541 TUP65541 UEL65541 UOH65541 UYD65541 VHZ65541 VRV65541 WBR65541 WLN65541 WVJ65541 E131071 IX131077 ST131077 ACP131077 AML131077 AWH131077 BGD131077 BPZ131077 BZV131077 CJR131077 CTN131077 DDJ131077 DNF131077 DXB131077 EGX131077 EQT131077 FAP131077 FKL131077 FUH131077 GED131077 GNZ131077 GXV131077 HHR131077 HRN131077 IBJ131077 ILF131077 IVB131077 JEX131077 JOT131077 JYP131077 KIL131077 KSH131077 LCD131077 LLZ131077 LVV131077 MFR131077 MPN131077 MZJ131077 NJF131077 NTB131077 OCX131077 OMT131077 OWP131077 PGL131077 PQH131077 QAD131077 QJZ131077 QTV131077 RDR131077 RNN131077 RXJ131077 SHF131077 SRB131077 TAX131077 TKT131077 TUP131077 UEL131077 UOH131077 UYD131077 VHZ131077 VRV131077 WBR131077 WLN131077 WVJ131077 E196607 IX196613 ST196613 ACP196613 AML196613 AWH196613 BGD196613 BPZ196613 BZV196613 CJR196613 CTN196613 DDJ196613 DNF196613 DXB196613 EGX196613 EQT196613 FAP196613 FKL196613 FUH196613 GED196613 GNZ196613 GXV196613 HHR196613 HRN196613 IBJ196613 ILF196613 IVB196613 JEX196613 JOT196613 JYP196613 KIL196613 KSH196613 LCD196613 LLZ196613 LVV196613 MFR196613 MPN196613 MZJ196613 NJF196613 NTB196613 OCX196613 OMT196613 OWP196613 PGL196613 PQH196613 QAD196613 QJZ196613 QTV196613 RDR196613 RNN196613 RXJ196613 SHF196613 SRB196613 TAX196613 TKT196613 TUP196613 UEL196613 UOH196613 UYD196613 VHZ196613 VRV196613 WBR196613 WLN196613 WVJ196613 E262143 IX262149 ST262149 ACP262149 AML262149 AWH262149 BGD262149 BPZ262149 BZV262149 CJR262149 CTN262149 DDJ262149 DNF262149 DXB262149 EGX262149 EQT262149 FAP262149 FKL262149 FUH262149 GED262149 GNZ262149 GXV262149 HHR262149 HRN262149 IBJ262149 ILF262149 IVB262149 JEX262149 JOT262149 JYP262149 KIL262149 KSH262149 LCD262149 LLZ262149 LVV262149 MFR262149 MPN262149 MZJ262149 NJF262149 NTB262149 OCX262149 OMT262149 OWP262149 PGL262149 PQH262149 QAD262149 QJZ262149 QTV262149 RDR262149 RNN262149 RXJ262149 SHF262149 SRB262149 TAX262149 TKT262149 TUP262149 UEL262149 UOH262149 UYD262149 VHZ262149 VRV262149 WBR262149 WLN262149 WVJ262149 E327679 IX327685 ST327685 ACP327685 AML327685 AWH327685 BGD327685 BPZ327685 BZV327685 CJR327685 CTN327685 DDJ327685 DNF327685 DXB327685 EGX327685 EQT327685 FAP327685 FKL327685 FUH327685 GED327685 GNZ327685 GXV327685 HHR327685 HRN327685 IBJ327685 ILF327685 IVB327685 JEX327685 JOT327685 JYP327685 KIL327685 KSH327685 LCD327685 LLZ327685 LVV327685 MFR327685 MPN327685 MZJ327685 NJF327685 NTB327685 OCX327685 OMT327685 OWP327685 PGL327685 PQH327685 QAD327685 QJZ327685 QTV327685 RDR327685 RNN327685 RXJ327685 SHF327685 SRB327685 TAX327685 TKT327685 TUP327685 UEL327685 UOH327685 UYD327685 VHZ327685 VRV327685 WBR327685 WLN327685 WVJ327685 E393215 IX393221 ST393221 ACP393221 AML393221 AWH393221 BGD393221 BPZ393221 BZV393221 CJR393221 CTN393221 DDJ393221 DNF393221 DXB393221 EGX393221 EQT393221 FAP393221 FKL393221 FUH393221 GED393221 GNZ393221 GXV393221 HHR393221 HRN393221 IBJ393221 ILF393221 IVB393221 JEX393221 JOT393221 JYP393221 KIL393221 KSH393221 LCD393221 LLZ393221 LVV393221 MFR393221 MPN393221 MZJ393221 NJF393221 NTB393221 OCX393221 OMT393221 OWP393221 PGL393221 PQH393221 QAD393221 QJZ393221 QTV393221 RDR393221 RNN393221 RXJ393221 SHF393221 SRB393221 TAX393221 TKT393221 TUP393221 UEL393221 UOH393221 UYD393221 VHZ393221 VRV393221 WBR393221 WLN393221 WVJ393221 E458751 IX458757 ST458757 ACP458757 AML458757 AWH458757 BGD458757 BPZ458757 BZV458757 CJR458757 CTN458757 DDJ458757 DNF458757 DXB458757 EGX458757 EQT458757 FAP458757 FKL458757 FUH458757 GED458757 GNZ458757 GXV458757 HHR458757 HRN458757 IBJ458757 ILF458757 IVB458757 JEX458757 JOT458757 JYP458757 KIL458757 KSH458757 LCD458757 LLZ458757 LVV458757 MFR458757 MPN458757 MZJ458757 NJF458757 NTB458757 OCX458757 OMT458757 OWP458757 PGL458757 PQH458757 QAD458757 QJZ458757 QTV458757 RDR458757 RNN458757 RXJ458757 SHF458757 SRB458757 TAX458757 TKT458757 TUP458757 UEL458757 UOH458757 UYD458757 VHZ458757 VRV458757 WBR458757 WLN458757 WVJ458757 E524287 IX524293 ST524293 ACP524293 AML524293 AWH524293 BGD524293 BPZ524293 BZV524293 CJR524293 CTN524293 DDJ524293 DNF524293 DXB524293 EGX524293 EQT524293 FAP524293 FKL524293 FUH524293 GED524293 GNZ524293 GXV524293 HHR524293 HRN524293 IBJ524293 ILF524293 IVB524293 JEX524293 JOT524293 JYP524293 KIL524293 KSH524293 LCD524293 LLZ524293 LVV524293 MFR524293 MPN524293 MZJ524293 NJF524293 NTB524293 OCX524293 OMT524293 OWP524293 PGL524293 PQH524293 QAD524293 QJZ524293 QTV524293 RDR524293 RNN524293 RXJ524293 SHF524293 SRB524293 TAX524293 TKT524293 TUP524293 UEL524293 UOH524293 UYD524293 VHZ524293 VRV524293 WBR524293 WLN524293 WVJ524293 E589823 IX589829 ST589829 ACP589829 AML589829 AWH589829 BGD589829 BPZ589829 BZV589829 CJR589829 CTN589829 DDJ589829 DNF589829 DXB589829 EGX589829 EQT589829 FAP589829 FKL589829 FUH589829 GED589829 GNZ589829 GXV589829 HHR589829 HRN589829 IBJ589829 ILF589829 IVB589829 JEX589829 JOT589829 JYP589829 KIL589829 KSH589829 LCD589829 LLZ589829 LVV589829 MFR589829 MPN589829 MZJ589829 NJF589829 NTB589829 OCX589829 OMT589829 OWP589829 PGL589829 PQH589829 QAD589829 QJZ589829 QTV589829 RDR589829 RNN589829 RXJ589829 SHF589829 SRB589829 TAX589829 TKT589829 TUP589829 UEL589829 UOH589829 UYD589829 VHZ589829 VRV589829 WBR589829 WLN589829 WVJ589829 E655359 IX655365 ST655365 ACP655365 AML655365 AWH655365 BGD655365 BPZ655365 BZV655365 CJR655365 CTN655365 DDJ655365 DNF655365 DXB655365 EGX655365 EQT655365 FAP655365 FKL655365 FUH655365 GED655365 GNZ655365 GXV655365 HHR655365 HRN655365 IBJ655365 ILF655365 IVB655365 JEX655365 JOT655365 JYP655365 KIL655365 KSH655365 LCD655365 LLZ655365 LVV655365 MFR655365 MPN655365 MZJ655365 NJF655365 NTB655365 OCX655365 OMT655365 OWP655365 PGL655365 PQH655365 QAD655365 QJZ655365 QTV655365 RDR655365 RNN655365 RXJ655365 SHF655365 SRB655365 TAX655365 TKT655365 TUP655365 UEL655365 UOH655365 UYD655365 VHZ655365 VRV655365 WBR655365 WLN655365 WVJ655365 E720895 IX720901 ST720901 ACP720901 AML720901 AWH720901 BGD720901 BPZ720901 BZV720901 CJR720901 CTN720901 DDJ720901 DNF720901 DXB720901 EGX720901 EQT720901 FAP720901 FKL720901 FUH720901 GED720901 GNZ720901 GXV720901 HHR720901 HRN720901 IBJ720901 ILF720901 IVB720901 JEX720901 JOT720901 JYP720901 KIL720901 KSH720901 LCD720901 LLZ720901 LVV720901 MFR720901 MPN720901 MZJ720901 NJF720901 NTB720901 OCX720901 OMT720901 OWP720901 PGL720901 PQH720901 QAD720901 QJZ720901 QTV720901 RDR720901 RNN720901 RXJ720901 SHF720901 SRB720901 TAX720901 TKT720901 TUP720901 UEL720901 UOH720901 UYD720901 VHZ720901 VRV720901 WBR720901 WLN720901 WVJ720901 E786431 IX786437 ST786437 ACP786437 AML786437 AWH786437 BGD786437 BPZ786437 BZV786437 CJR786437 CTN786437 DDJ786437 DNF786437 DXB786437 EGX786437 EQT786437 FAP786437 FKL786437 FUH786437 GED786437 GNZ786437 GXV786437 HHR786437 HRN786437 IBJ786437 ILF786437 IVB786437 JEX786437 JOT786437 JYP786437 KIL786437 KSH786437 LCD786437 LLZ786437 LVV786437 MFR786437 MPN786437 MZJ786437 NJF786437 NTB786437 OCX786437 OMT786437 OWP786437 PGL786437 PQH786437 QAD786437 QJZ786437 QTV786437 RDR786437 RNN786437 RXJ786437 SHF786437 SRB786437 TAX786437 TKT786437 TUP786437 UEL786437 UOH786437 UYD786437 VHZ786437 VRV786437 WBR786437 WLN786437 WVJ786437 E851967 IX851973 ST851973 ACP851973 AML851973 AWH851973 BGD851973 BPZ851973 BZV851973 CJR851973 CTN851973 DDJ851973 DNF851973 DXB851973 EGX851973 EQT851973 FAP851973 FKL851973 FUH851973 GED851973 GNZ851973 GXV851973 HHR851973 HRN851973 IBJ851973 ILF851973 IVB851973 JEX851973 JOT851973 JYP851973 KIL851973 KSH851973 LCD851973 LLZ851973 LVV851973 MFR851973 MPN851973 MZJ851973 NJF851973 NTB851973 OCX851973 OMT851973 OWP851973 PGL851973 PQH851973 QAD851973 QJZ851973 QTV851973 RDR851973 RNN851973 RXJ851973 SHF851973 SRB851973 TAX851973 TKT851973 TUP851973 UEL851973 UOH851973 UYD851973 VHZ851973 VRV851973 WBR851973 WLN851973 WVJ851973 E917503 IX917509 ST917509 ACP917509 AML917509 AWH917509 BGD917509 BPZ917509 BZV917509 CJR917509 CTN917509 DDJ917509 DNF917509 DXB917509 EGX917509 EQT917509 FAP917509 FKL917509 FUH917509 GED917509 GNZ917509 GXV917509 HHR917509 HRN917509 IBJ917509 ILF917509 IVB917509 JEX917509 JOT917509 JYP917509 KIL917509 KSH917509 LCD917509 LLZ917509 LVV917509 MFR917509 MPN917509 MZJ917509 NJF917509 NTB917509 OCX917509 OMT917509 OWP917509 PGL917509 PQH917509 QAD917509 QJZ917509 QTV917509 RDR917509 RNN917509 RXJ917509 SHF917509 SRB917509 TAX917509 TKT917509 TUP917509 UEL917509 UOH917509 UYD917509 VHZ917509 VRV917509 WBR917509 WLN917509 WVJ917509 E983039 IX983045 ST983045 ACP983045 AML983045 AWH983045 BGD983045 BPZ983045 BZV983045 CJR983045 CTN983045 DDJ983045 DNF983045 DXB983045 EGX983045 EQT983045 FAP983045 FKL983045 FUH983045 GED983045 GNZ983045 GXV983045 HHR983045 HRN983045 IBJ983045 ILF983045 IVB983045 JEX983045 JOT983045 JYP983045 KIL983045 KSH983045 LCD983045 LLZ983045 LVV983045 MFR983045 MPN983045 MZJ983045 NJF983045 NTB983045 OCX983045 OMT983045 OWP983045 PGL983045 PQH983045 QAD983045 QJZ983045 QTV983045 RDR983045 RNN983045 RXJ983045 SHF983045 SRB983045 TAX983045 TKT983045 TUP983045 UEL983045 UOH983045 UYD983045 VHZ983045 VRV983045 WBR983045 WLN983045 WVJ983045 WVP983045 JD6 SZ6 ACV6 AMR6 AWN6 BGJ6 BQF6 CAB6 CJX6 CTT6 DDP6 DNL6 DXH6 EHD6 EQZ6 FAV6 FKR6 FUN6 GEJ6 GOF6 GYB6 HHX6 HRT6 IBP6 ILL6 IVH6 JFD6 JOZ6 JYV6 KIR6 KSN6 LCJ6 LMF6 LWB6 MFX6 MPT6 MZP6 NJL6 NTH6 ODD6 OMZ6 OWV6 PGR6 PQN6 QAJ6 QKF6 QUB6 RDX6 RNT6 RXP6 SHL6 SRH6 TBD6 TKZ6 TUV6 UER6 UON6 UYJ6 VIF6 VSB6 WBX6 WLT6 WVP6 K65535 JD65541 SZ65541 ACV65541 AMR65541 AWN65541 BGJ65541 BQF65541 CAB65541 CJX65541 CTT65541 DDP65541 DNL65541 DXH65541 EHD65541 EQZ65541 FAV65541 FKR65541 FUN65541 GEJ65541 GOF65541 GYB65541 HHX65541 HRT65541 IBP65541 ILL65541 IVH65541 JFD65541 JOZ65541 JYV65541 KIR65541 KSN65541 LCJ65541 LMF65541 LWB65541 MFX65541 MPT65541 MZP65541 NJL65541 NTH65541 ODD65541 OMZ65541 OWV65541 PGR65541 PQN65541 QAJ65541 QKF65541 QUB65541 RDX65541 RNT65541 RXP65541 SHL65541 SRH65541 TBD65541 TKZ65541 TUV65541 UER65541 UON65541 UYJ65541 VIF65541 VSB65541 WBX65541 WLT65541 WVP65541 K131071 JD131077 SZ131077 ACV131077 AMR131077 AWN131077 BGJ131077 BQF131077 CAB131077 CJX131077 CTT131077 DDP131077 DNL131077 DXH131077 EHD131077 EQZ131077 FAV131077 FKR131077 FUN131077 GEJ131077 GOF131077 GYB131077 HHX131077 HRT131077 IBP131077 ILL131077 IVH131077 JFD131077 JOZ131077 JYV131077 KIR131077 KSN131077 LCJ131077 LMF131077 LWB131077 MFX131077 MPT131077 MZP131077 NJL131077 NTH131077 ODD131077 OMZ131077 OWV131077 PGR131077 PQN131077 QAJ131077 QKF131077 QUB131077 RDX131077 RNT131077 RXP131077 SHL131077 SRH131077 TBD131077 TKZ131077 TUV131077 UER131077 UON131077 UYJ131077 VIF131077 VSB131077 WBX131077 WLT131077 WVP131077 K196607 JD196613 SZ196613 ACV196613 AMR196613 AWN196613 BGJ196613 BQF196613 CAB196613 CJX196613 CTT196613 DDP196613 DNL196613 DXH196613 EHD196613 EQZ196613 FAV196613 FKR196613 FUN196613 GEJ196613 GOF196613 GYB196613 HHX196613 HRT196613 IBP196613 ILL196613 IVH196613 JFD196613 JOZ196613 JYV196613 KIR196613 KSN196613 LCJ196613 LMF196613 LWB196613 MFX196613 MPT196613 MZP196613 NJL196613 NTH196613 ODD196613 OMZ196613 OWV196613 PGR196613 PQN196613 QAJ196613 QKF196613 QUB196613 RDX196613 RNT196613 RXP196613 SHL196613 SRH196613 TBD196613 TKZ196613 TUV196613 UER196613 UON196613 UYJ196613 VIF196613 VSB196613 WBX196613 WLT196613 WVP196613 K262143 JD262149 SZ262149 ACV262149 AMR262149 AWN262149 BGJ262149 BQF262149 CAB262149 CJX262149 CTT262149 DDP262149 DNL262149 DXH262149 EHD262149 EQZ262149 FAV262149 FKR262149 FUN262149 GEJ262149 GOF262149 GYB262149 HHX262149 HRT262149 IBP262149 ILL262149 IVH262149 JFD262149 JOZ262149 JYV262149 KIR262149 KSN262149 LCJ262149 LMF262149 LWB262149 MFX262149 MPT262149 MZP262149 NJL262149 NTH262149 ODD262149 OMZ262149 OWV262149 PGR262149 PQN262149 QAJ262149 QKF262149 QUB262149 RDX262149 RNT262149 RXP262149 SHL262149 SRH262149 TBD262149 TKZ262149 TUV262149 UER262149 UON262149 UYJ262149 VIF262149 VSB262149 WBX262149 WLT262149 WVP262149 K327679 JD327685 SZ327685 ACV327685 AMR327685 AWN327685 BGJ327685 BQF327685 CAB327685 CJX327685 CTT327685 DDP327685 DNL327685 DXH327685 EHD327685 EQZ327685 FAV327685 FKR327685 FUN327685 GEJ327685 GOF327685 GYB327685 HHX327685 HRT327685 IBP327685 ILL327685 IVH327685 JFD327685 JOZ327685 JYV327685 KIR327685 KSN327685 LCJ327685 LMF327685 LWB327685 MFX327685 MPT327685 MZP327685 NJL327685 NTH327685 ODD327685 OMZ327685 OWV327685 PGR327685 PQN327685 QAJ327685 QKF327685 QUB327685 RDX327685 RNT327685 RXP327685 SHL327685 SRH327685 TBD327685 TKZ327685 TUV327685 UER327685 UON327685 UYJ327685 VIF327685 VSB327685 WBX327685 WLT327685 WVP327685 K393215 JD393221 SZ393221 ACV393221 AMR393221 AWN393221 BGJ393221 BQF393221 CAB393221 CJX393221 CTT393221 DDP393221 DNL393221 DXH393221 EHD393221 EQZ393221 FAV393221 FKR393221 FUN393221 GEJ393221 GOF393221 GYB393221 HHX393221 HRT393221 IBP393221 ILL393221 IVH393221 JFD393221 JOZ393221 JYV393221 KIR393221 KSN393221 LCJ393221 LMF393221 LWB393221 MFX393221 MPT393221 MZP393221 NJL393221 NTH393221 ODD393221 OMZ393221 OWV393221 PGR393221 PQN393221 QAJ393221 QKF393221 QUB393221 RDX393221 RNT393221 RXP393221 SHL393221 SRH393221 TBD393221 TKZ393221 TUV393221 UER393221 UON393221 UYJ393221 VIF393221 VSB393221 WBX393221 WLT393221 WVP393221 K458751 JD458757 SZ458757 ACV458757 AMR458757 AWN458757 BGJ458757 BQF458757 CAB458757 CJX458757 CTT458757 DDP458757 DNL458757 DXH458757 EHD458757 EQZ458757 FAV458757 FKR458757 FUN458757 GEJ458757 GOF458757 GYB458757 HHX458757 HRT458757 IBP458757 ILL458757 IVH458757 JFD458757 JOZ458757 JYV458757 KIR458757 KSN458757 LCJ458757 LMF458757 LWB458757 MFX458757 MPT458757 MZP458757 NJL458757 NTH458757 ODD458757 OMZ458757 OWV458757 PGR458757 PQN458757 QAJ458757 QKF458757 QUB458757 RDX458757 RNT458757 RXP458757 SHL458757 SRH458757 TBD458757 TKZ458757 TUV458757 UER458757 UON458757 UYJ458757 VIF458757 VSB458757 WBX458757 WLT458757 WVP458757 K524287 JD524293 SZ524293 ACV524293 AMR524293 AWN524293 BGJ524293 BQF524293 CAB524293 CJX524293 CTT524293 DDP524293 DNL524293 DXH524293 EHD524293 EQZ524293 FAV524293 FKR524293 FUN524293 GEJ524293 GOF524293 GYB524293 HHX524293 HRT524293 IBP524293 ILL524293 IVH524293 JFD524293 JOZ524293 JYV524293 KIR524293 KSN524293 LCJ524293 LMF524293 LWB524293 MFX524293 MPT524293 MZP524293 NJL524293 NTH524293 ODD524293 OMZ524293 OWV524293 PGR524293 PQN524293 QAJ524293 QKF524293 QUB524293 RDX524293 RNT524293 RXP524293 SHL524293 SRH524293 TBD524293 TKZ524293 TUV524293 UER524293 UON524293 UYJ524293 VIF524293 VSB524293 WBX524293 WLT524293 WVP524293 K589823 JD589829 SZ589829 ACV589829 AMR589829 AWN589829 BGJ589829 BQF589829 CAB589829 CJX589829 CTT589829 DDP589829 DNL589829 DXH589829 EHD589829 EQZ589829 FAV589829 FKR589829 FUN589829 GEJ589829 GOF589829 GYB589829 HHX589829 HRT589829 IBP589829 ILL589829 IVH589829 JFD589829 JOZ589829 JYV589829 KIR589829 KSN589829 LCJ589829 LMF589829 LWB589829 MFX589829 MPT589829 MZP589829 NJL589829 NTH589829 ODD589829 OMZ589829 OWV589829 PGR589829 PQN589829 QAJ589829 QKF589829 QUB589829 RDX589829 RNT589829 RXP589829 SHL589829 SRH589829 TBD589829 TKZ589829 TUV589829 UER589829 UON589829 UYJ589829 VIF589829 VSB589829 WBX589829 WLT589829 WVP589829 K655359 JD655365 SZ655365 ACV655365 AMR655365 AWN655365 BGJ655365 BQF655365 CAB655365 CJX655365 CTT655365 DDP655365 DNL655365 DXH655365 EHD655365 EQZ655365 FAV655365 FKR655365 FUN655365 GEJ655365 GOF655365 GYB655365 HHX655365 HRT655365 IBP655365 ILL655365 IVH655365 JFD655365 JOZ655365 JYV655365 KIR655365 KSN655365 LCJ655365 LMF655365 LWB655365 MFX655365 MPT655365 MZP655365 NJL655365 NTH655365 ODD655365 OMZ655365 OWV655365 PGR655365 PQN655365 QAJ655365 QKF655365 QUB655365 RDX655365 RNT655365 RXP655365 SHL655365 SRH655365 TBD655365 TKZ655365 TUV655365 UER655365 UON655365 UYJ655365 VIF655365 VSB655365 WBX655365 WLT655365 WVP655365 K720895 JD720901 SZ720901 ACV720901 AMR720901 AWN720901 BGJ720901 BQF720901 CAB720901 CJX720901 CTT720901 DDP720901 DNL720901 DXH720901 EHD720901 EQZ720901 FAV720901 FKR720901 FUN720901 GEJ720901 GOF720901 GYB720901 HHX720901 HRT720901 IBP720901 ILL720901 IVH720901 JFD720901 JOZ720901 JYV720901 KIR720901 KSN720901 LCJ720901 LMF720901 LWB720901 MFX720901 MPT720901 MZP720901 NJL720901 NTH720901 ODD720901 OMZ720901 OWV720901 PGR720901 PQN720901 QAJ720901 QKF720901 QUB720901 RDX720901 RNT720901 RXP720901 SHL720901 SRH720901 TBD720901 TKZ720901 TUV720901 UER720901 UON720901 UYJ720901 VIF720901 VSB720901 WBX720901 WLT720901 WVP720901 K786431 JD786437 SZ786437 ACV786437 AMR786437 AWN786437 BGJ786437 BQF786437 CAB786437 CJX786437 CTT786437 DDP786437 DNL786437 DXH786437 EHD786437 EQZ786437 FAV786437 FKR786437 FUN786437 GEJ786437 GOF786437 GYB786437 HHX786437 HRT786437 IBP786437 ILL786437 IVH786437 JFD786437 JOZ786437 JYV786437 KIR786437 KSN786437 LCJ786437 LMF786437 LWB786437 MFX786437 MPT786437 MZP786437 NJL786437 NTH786437 ODD786437 OMZ786437 OWV786437 PGR786437 PQN786437 QAJ786437 QKF786437 QUB786437 RDX786437 RNT786437 RXP786437 SHL786437 SRH786437 TBD786437 TKZ786437 TUV786437 UER786437 UON786437 UYJ786437 VIF786437 VSB786437 WBX786437 WLT786437 WVP786437 K851967 JD851973 SZ851973 ACV851973 AMR851973 AWN851973 BGJ851973 BQF851973 CAB851973 CJX851973 CTT851973 DDP851973 DNL851973 DXH851973 EHD851973 EQZ851973 FAV851973 FKR851973 FUN851973 GEJ851973 GOF851973 GYB851973 HHX851973 HRT851973 IBP851973 ILL851973 IVH851973 JFD851973 JOZ851973 JYV851973 KIR851973 KSN851973 LCJ851973 LMF851973 LWB851973 MFX851973 MPT851973 MZP851973 NJL851973 NTH851973 ODD851973 OMZ851973 OWV851973 PGR851973 PQN851973 QAJ851973 QKF851973 QUB851973 RDX851973 RNT851973 RXP851973 SHL851973 SRH851973 TBD851973 TKZ851973 TUV851973 UER851973 UON851973 UYJ851973 VIF851973 VSB851973 WBX851973 WLT851973 WVP851973 K917503 JD917509 SZ917509 ACV917509 AMR917509 AWN917509 BGJ917509 BQF917509 CAB917509 CJX917509 CTT917509 DDP917509 DNL917509 DXH917509 EHD917509 EQZ917509 FAV917509 FKR917509 FUN917509 GEJ917509 GOF917509 GYB917509 HHX917509 HRT917509 IBP917509 ILL917509 IVH917509 JFD917509 JOZ917509 JYV917509 KIR917509 KSN917509 LCJ917509 LMF917509 LWB917509 MFX917509 MPT917509 MZP917509 NJL917509 NTH917509 ODD917509 OMZ917509 OWV917509 PGR917509 PQN917509 QAJ917509 QKF917509 QUB917509 RDX917509 RNT917509 RXP917509 SHL917509 SRH917509 TBD917509 TKZ917509 TUV917509 UER917509 UON917509 UYJ917509 VIF917509 VSB917509 WBX917509 WLT917509 WVP917509 K983039 JD983045 SZ983045 ACV983045 AMR983045 AWN983045 BGJ983045 BQF983045 CAB983045 CJX983045 CTT983045 DDP983045 DNL983045 DXH983045 EHD983045 EQZ983045 FAV983045 FKR983045 FUN983045 GEJ983045 GOF983045 GYB983045 HHX983045 HRT983045 IBP983045 ILL983045 IVH983045 JFD983045 JOZ983045 JYV983045 KIR983045 KSN983045 LCJ983045 LMF983045 LWB983045 MFX983045 MPT983045 MZP983045 NJL983045 NTH983045 ODD983045 OMZ983045 OWV983045 PGR983045 PQN983045 QAJ983045 QKF983045 QUB983045 RDX983045 RNT983045 RXP983045 SHL983045 SRH983045 TBD983045 TKZ983045 TUV983045 UER983045 UON983045 UYJ983045 VIF983045 VSB983045 WBX983045" xr:uid="{6CEA7019-F8B6-4833-B242-0A31E2EBE670}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="WLT983045 IX6 ST6 ACP6 AML6 AWH6 BGD6 BPZ6 BZV6 CJR6 CTN6 DDJ6 DNF6 DXB6 EGX6 EQT6 FAP6 FKL6 FUH6 GED6 GNZ6 GXV6 HHR6 HRN6 IBJ6 ILF6 IVB6 JEX6 JOT6 JYP6 KIL6 KSH6 LCD6 LLZ6 LVV6 MFR6 MPN6 MZJ6 NJF6 NTB6 OCX6 OMT6 OWP6 PGL6 PQH6 QAD6 QJZ6 QTV6 RDR6 RNN6 RXJ6 SHF6 SRB6 TAX6 TKT6 TUP6 UEL6 UOH6 UYD6 VHZ6 VRV6 WBR6 WLN6 WVJ6 E65535 IX65541 ST65541 ACP65541 AML65541 AWH65541 BGD65541 BPZ65541 BZV65541 CJR65541 CTN65541 DDJ65541 DNF65541 DXB65541 EGX65541 EQT65541 FAP65541 FKL65541 FUH65541 GED65541 GNZ65541 GXV65541 HHR65541 HRN65541 IBJ65541 ILF65541 IVB65541 JEX65541 JOT65541 JYP65541 KIL65541 KSH65541 LCD65541 LLZ65541 LVV65541 MFR65541 MPN65541 MZJ65541 NJF65541 NTB65541 OCX65541 OMT65541 OWP65541 PGL65541 PQH65541 QAD65541 QJZ65541 QTV65541 RDR65541 RNN65541 RXJ65541 SHF65541 SRB65541 TAX65541 TKT65541 TUP65541 UEL65541 UOH65541 UYD65541 VHZ65541 VRV65541 WBR65541 WLN65541 WVJ65541 E131071 IX131077 ST131077 ACP131077 AML131077 AWH131077 BGD131077 BPZ131077 BZV131077 CJR131077 CTN131077 DDJ131077 DNF131077 DXB131077 EGX131077 EQT131077 FAP131077 FKL131077 FUH131077 GED131077 GNZ131077 GXV131077 HHR131077 HRN131077 IBJ131077 ILF131077 IVB131077 JEX131077 JOT131077 JYP131077 KIL131077 KSH131077 LCD131077 LLZ131077 LVV131077 MFR131077 MPN131077 MZJ131077 NJF131077 NTB131077 OCX131077 OMT131077 OWP131077 PGL131077 PQH131077 QAD131077 QJZ131077 QTV131077 RDR131077 RNN131077 RXJ131077 SHF131077 SRB131077 TAX131077 TKT131077 TUP131077 UEL131077 UOH131077 UYD131077 VHZ131077 VRV131077 WBR131077 WLN131077 WVJ131077 E196607 IX196613 ST196613 ACP196613 AML196613 AWH196613 BGD196613 BPZ196613 BZV196613 CJR196613 CTN196613 DDJ196613 DNF196613 DXB196613 EGX196613 EQT196613 FAP196613 FKL196613 FUH196613 GED196613 GNZ196613 GXV196613 HHR196613 HRN196613 IBJ196613 ILF196613 IVB196613 JEX196613 JOT196613 JYP196613 KIL196613 KSH196613 LCD196613 LLZ196613 LVV196613 MFR196613 MPN196613 MZJ196613 NJF196613 NTB196613 OCX196613 OMT196613 OWP196613 PGL196613 PQH196613 QAD196613 QJZ196613 QTV196613 RDR196613 RNN196613 RXJ196613 SHF196613 SRB196613 TAX196613 TKT196613 TUP196613 UEL196613 UOH196613 UYD196613 VHZ196613 VRV196613 WBR196613 WLN196613 WVJ196613 E262143 IX262149 ST262149 ACP262149 AML262149 AWH262149 BGD262149 BPZ262149 BZV262149 CJR262149 CTN262149 DDJ262149 DNF262149 DXB262149 EGX262149 EQT262149 FAP262149 FKL262149 FUH262149 GED262149 GNZ262149 GXV262149 HHR262149 HRN262149 IBJ262149 ILF262149 IVB262149 JEX262149 JOT262149 JYP262149 KIL262149 KSH262149 LCD262149 LLZ262149 LVV262149 MFR262149 MPN262149 MZJ262149 NJF262149 NTB262149 OCX262149 OMT262149 OWP262149 PGL262149 PQH262149 QAD262149 QJZ262149 QTV262149 RDR262149 RNN262149 RXJ262149 SHF262149 SRB262149 TAX262149 TKT262149 TUP262149 UEL262149 UOH262149 UYD262149 VHZ262149 VRV262149 WBR262149 WLN262149 WVJ262149 E327679 IX327685 ST327685 ACP327685 AML327685 AWH327685 BGD327685 BPZ327685 BZV327685 CJR327685 CTN327685 DDJ327685 DNF327685 DXB327685 EGX327685 EQT327685 FAP327685 FKL327685 FUH327685 GED327685 GNZ327685 GXV327685 HHR327685 HRN327685 IBJ327685 ILF327685 IVB327685 JEX327685 JOT327685 JYP327685 KIL327685 KSH327685 LCD327685 LLZ327685 LVV327685 MFR327685 MPN327685 MZJ327685 NJF327685 NTB327685 OCX327685 OMT327685 OWP327685 PGL327685 PQH327685 QAD327685 QJZ327685 QTV327685 RDR327685 RNN327685 RXJ327685 SHF327685 SRB327685 TAX327685 TKT327685 TUP327685 UEL327685 UOH327685 UYD327685 VHZ327685 VRV327685 WBR327685 WLN327685 WVJ327685 E393215 IX393221 ST393221 ACP393221 AML393221 AWH393221 BGD393221 BPZ393221 BZV393221 CJR393221 CTN393221 DDJ393221 DNF393221 DXB393221 EGX393221 EQT393221 FAP393221 FKL393221 FUH393221 GED393221 GNZ393221 GXV393221 HHR393221 HRN393221 IBJ393221 ILF393221 IVB393221 JEX393221 JOT393221 JYP393221 KIL393221 KSH393221 LCD393221 LLZ393221 LVV393221 MFR393221 MPN393221 MZJ393221 NJF393221 NTB393221 OCX393221 OMT393221 OWP393221 PGL393221 PQH393221 QAD393221 QJZ393221 QTV393221 RDR393221 RNN393221 RXJ393221 SHF393221 SRB393221 TAX393221 TKT393221 TUP393221 UEL393221 UOH393221 UYD393221 VHZ393221 VRV393221 WBR393221 WLN393221 WVJ393221 E458751 IX458757 ST458757 ACP458757 AML458757 AWH458757 BGD458757 BPZ458757 BZV458757 CJR458757 CTN458757 DDJ458757 DNF458757 DXB458757 EGX458757 EQT458757 FAP458757 FKL458757 FUH458757 GED458757 GNZ458757 GXV458757 HHR458757 HRN458757 IBJ458757 ILF458757 IVB458757 JEX458757 JOT458757 JYP458757 KIL458757 KSH458757 LCD458757 LLZ458757 LVV458757 MFR458757 MPN458757 MZJ458757 NJF458757 NTB458757 OCX458757 OMT458757 OWP458757 PGL458757 PQH458757 QAD458757 QJZ458757 QTV458757 RDR458757 RNN458757 RXJ458757 SHF458757 SRB458757 TAX458757 TKT458757 TUP458757 UEL458757 UOH458757 UYD458757 VHZ458757 VRV458757 WBR458757 WLN458757 WVJ458757 E524287 IX524293 ST524293 ACP524293 AML524293 AWH524293 BGD524293 BPZ524293 BZV524293 CJR524293 CTN524293 DDJ524293 DNF524293 DXB524293 EGX524293 EQT524293 FAP524293 FKL524293 FUH524293 GED524293 GNZ524293 GXV524293 HHR524293 HRN524293 IBJ524293 ILF524293 IVB524293 JEX524293 JOT524293 JYP524293 KIL524293 KSH524293 LCD524293 LLZ524293 LVV524293 MFR524293 MPN524293 MZJ524293 NJF524293 NTB524293 OCX524293 OMT524293 OWP524293 PGL524293 PQH524293 QAD524293 QJZ524293 QTV524293 RDR524293 RNN524293 RXJ524293 SHF524293 SRB524293 TAX524293 TKT524293 TUP524293 UEL524293 UOH524293 UYD524293 VHZ524293 VRV524293 WBR524293 WLN524293 WVJ524293 E589823 IX589829 ST589829 ACP589829 AML589829 AWH589829 BGD589829 BPZ589829 BZV589829 CJR589829 CTN589829 DDJ589829 DNF589829 DXB589829 EGX589829 EQT589829 FAP589829 FKL589829 FUH589829 GED589829 GNZ589829 GXV589829 HHR589829 HRN589829 IBJ589829 ILF589829 IVB589829 JEX589829 JOT589829 JYP589829 KIL589829 KSH589829 LCD589829 LLZ589829 LVV589829 MFR589829 MPN589829 MZJ589829 NJF589829 NTB589829 OCX589829 OMT589829 OWP589829 PGL589829 PQH589829 QAD589829 QJZ589829 QTV589829 RDR589829 RNN589829 RXJ589829 SHF589829 SRB589829 TAX589829 TKT589829 TUP589829 UEL589829 UOH589829 UYD589829 VHZ589829 VRV589829 WBR589829 WLN589829 WVJ589829 E655359 IX655365 ST655365 ACP655365 AML655365 AWH655365 BGD655365 BPZ655365 BZV655365 CJR655365 CTN655365 DDJ655365 DNF655365 DXB655365 EGX655365 EQT655365 FAP655365 FKL655365 FUH655365 GED655365 GNZ655365 GXV655365 HHR655365 HRN655365 IBJ655365 ILF655365 IVB655365 JEX655365 JOT655365 JYP655365 KIL655365 KSH655365 LCD655365 LLZ655365 LVV655365 MFR655365 MPN655365 MZJ655365 NJF655365 NTB655365 OCX655365 OMT655365 OWP655365 PGL655365 PQH655365 QAD655365 QJZ655365 QTV655365 RDR655365 RNN655365 RXJ655365 SHF655365 SRB655365 TAX655365 TKT655365 TUP655365 UEL655365 UOH655365 UYD655365 VHZ655365 VRV655365 WBR655365 WLN655365 WVJ655365 E720895 IX720901 ST720901 ACP720901 AML720901 AWH720901 BGD720901 BPZ720901 BZV720901 CJR720901 CTN720901 DDJ720901 DNF720901 DXB720901 EGX720901 EQT720901 FAP720901 FKL720901 FUH720901 GED720901 GNZ720901 GXV720901 HHR720901 HRN720901 IBJ720901 ILF720901 IVB720901 JEX720901 JOT720901 JYP720901 KIL720901 KSH720901 LCD720901 LLZ720901 LVV720901 MFR720901 MPN720901 MZJ720901 NJF720901 NTB720901 OCX720901 OMT720901 OWP720901 PGL720901 PQH720901 QAD720901 QJZ720901 QTV720901 RDR720901 RNN720901 RXJ720901 SHF720901 SRB720901 TAX720901 TKT720901 TUP720901 UEL720901 UOH720901 UYD720901 VHZ720901 VRV720901 WBR720901 WLN720901 WVJ720901 E786431 IX786437 ST786437 ACP786437 AML786437 AWH786437 BGD786437 BPZ786437 BZV786437 CJR786437 CTN786437 DDJ786437 DNF786437 DXB786437 EGX786437 EQT786437 FAP786437 FKL786437 FUH786437 GED786437 GNZ786437 GXV786437 HHR786437 HRN786437 IBJ786437 ILF786437 IVB786437 JEX786437 JOT786437 JYP786437 KIL786437 KSH786437 LCD786437 LLZ786437 LVV786437 MFR786437 MPN786437 MZJ786437 NJF786437 NTB786437 OCX786437 OMT786437 OWP786437 PGL786437 PQH786437 QAD786437 QJZ786437 QTV786437 RDR786437 RNN786437 RXJ786437 SHF786437 SRB786437 TAX786437 TKT786437 TUP786437 UEL786437 UOH786437 UYD786437 VHZ786437 VRV786437 WBR786437 WLN786437 WVJ786437 E851967 IX851973 ST851973 ACP851973 AML851973 AWH851973 BGD851973 BPZ851973 BZV851973 CJR851973 CTN851973 DDJ851973 DNF851973 DXB851973 EGX851973 EQT851973 FAP851973 FKL851973 FUH851973 GED851973 GNZ851973 GXV851973 HHR851973 HRN851973 IBJ851973 ILF851973 IVB851973 JEX851973 JOT851973 JYP851973 KIL851973 KSH851973 LCD851973 LLZ851973 LVV851973 MFR851973 MPN851973 MZJ851973 NJF851973 NTB851973 OCX851973 OMT851973 OWP851973 PGL851973 PQH851973 QAD851973 QJZ851973 QTV851973 RDR851973 RNN851973 RXJ851973 SHF851973 SRB851973 TAX851973 TKT851973 TUP851973 UEL851973 UOH851973 UYD851973 VHZ851973 VRV851973 WBR851973 WLN851973 WVJ851973 E917503 IX917509 ST917509 ACP917509 AML917509 AWH917509 BGD917509 BPZ917509 BZV917509 CJR917509 CTN917509 DDJ917509 DNF917509 DXB917509 EGX917509 EQT917509 FAP917509 FKL917509 FUH917509 GED917509 GNZ917509 GXV917509 HHR917509 HRN917509 IBJ917509 ILF917509 IVB917509 JEX917509 JOT917509 JYP917509 KIL917509 KSH917509 LCD917509 LLZ917509 LVV917509 MFR917509 MPN917509 MZJ917509 NJF917509 NTB917509 OCX917509 OMT917509 OWP917509 PGL917509 PQH917509 QAD917509 QJZ917509 QTV917509 RDR917509 RNN917509 RXJ917509 SHF917509 SRB917509 TAX917509 TKT917509 TUP917509 UEL917509 UOH917509 UYD917509 VHZ917509 VRV917509 WBR917509 WLN917509 WVJ917509 E983039 IX983045 ST983045 ACP983045 AML983045 AWH983045 BGD983045 BPZ983045 BZV983045 CJR983045 CTN983045 DDJ983045 DNF983045 DXB983045 EGX983045 EQT983045 FAP983045 FKL983045 FUH983045 GED983045 GNZ983045 GXV983045 HHR983045 HRN983045 IBJ983045 ILF983045 IVB983045 JEX983045 JOT983045 JYP983045 KIL983045 KSH983045 LCD983045 LLZ983045 LVV983045 MFR983045 MPN983045 MZJ983045 NJF983045 NTB983045 OCX983045 OMT983045 OWP983045 PGL983045 PQH983045 QAD983045 QJZ983045 QTV983045 RDR983045 RNN983045 RXJ983045 SHF983045 SRB983045 TAX983045 TKT983045 TUP983045 UEL983045 UOH983045 UYD983045 VHZ983045 VRV983045 WBR983045 WLN983045 WVJ983045 WVP983045 JD6 SZ6 ACV6 AMR6 AWN6 BGJ6 BQF6 CAB6 CJX6 CTT6 DDP6 DNL6 DXH6 EHD6 EQZ6 FAV6 FKR6 FUN6 GEJ6 GOF6 GYB6 HHX6 HRT6 IBP6 ILL6 IVH6 JFD6 JOZ6 JYV6 KIR6 KSN6 LCJ6 LMF6 LWB6 MFX6 MPT6 MZP6 NJL6 NTH6 ODD6 OMZ6 OWV6 PGR6 PQN6 QAJ6 QKF6 QUB6 RDX6 RNT6 RXP6 SHL6 SRH6 TBD6 TKZ6 TUV6 UER6 UON6 UYJ6 VIF6 VSB6 WBX6 WLT6 WVP6 K65535 JD65541 SZ65541 ACV65541 AMR65541 AWN65541 BGJ65541 BQF65541 CAB65541 CJX65541 CTT65541 DDP65541 DNL65541 DXH65541 EHD65541 EQZ65541 FAV65541 FKR65541 FUN65541 GEJ65541 GOF65541 GYB65541 HHX65541 HRT65541 IBP65541 ILL65541 IVH65541 JFD65541 JOZ65541 JYV65541 KIR65541 KSN65541 LCJ65541 LMF65541 LWB65541 MFX65541 MPT65541 MZP65541 NJL65541 NTH65541 ODD65541 OMZ65541 OWV65541 PGR65541 PQN65541 QAJ65541 QKF65541 QUB65541 RDX65541 RNT65541 RXP65541 SHL65541 SRH65541 TBD65541 TKZ65541 TUV65541 UER65541 UON65541 UYJ65541 VIF65541 VSB65541 WBX65541 WLT65541 WVP65541 K131071 JD131077 SZ131077 ACV131077 AMR131077 AWN131077 BGJ131077 BQF131077 CAB131077 CJX131077 CTT131077 DDP131077 DNL131077 DXH131077 EHD131077 EQZ131077 FAV131077 FKR131077 FUN131077 GEJ131077 GOF131077 GYB131077 HHX131077 HRT131077 IBP131077 ILL131077 IVH131077 JFD131077 JOZ131077 JYV131077 KIR131077 KSN131077 LCJ131077 LMF131077 LWB131077 MFX131077 MPT131077 MZP131077 NJL131077 NTH131077 ODD131077 OMZ131077 OWV131077 PGR131077 PQN131077 QAJ131077 QKF131077 QUB131077 RDX131077 RNT131077 RXP131077 SHL131077 SRH131077 TBD131077 TKZ131077 TUV131077 UER131077 UON131077 UYJ131077 VIF131077 VSB131077 WBX131077 WLT131077 WVP131077 K196607 JD196613 SZ196613 ACV196613 AMR196613 AWN196613 BGJ196613 BQF196613 CAB196613 CJX196613 CTT196613 DDP196613 DNL196613 DXH196613 EHD196613 EQZ196613 FAV196613 FKR196613 FUN196613 GEJ196613 GOF196613 GYB196613 HHX196613 HRT196613 IBP196613 ILL196613 IVH196613 JFD196613 JOZ196613 JYV196613 KIR196613 KSN196613 LCJ196613 LMF196613 LWB196613 MFX196613 MPT196613 MZP196613 NJL196613 NTH196613 ODD196613 OMZ196613 OWV196613 PGR196613 PQN196613 QAJ196613 QKF196613 QUB196613 RDX196613 RNT196613 RXP196613 SHL196613 SRH196613 TBD196613 TKZ196613 TUV196613 UER196613 UON196613 UYJ196613 VIF196613 VSB196613 WBX196613 WLT196613 WVP196613 K262143 JD262149 SZ262149 ACV262149 AMR262149 AWN262149 BGJ262149 BQF262149 CAB262149 CJX262149 CTT262149 DDP262149 DNL262149 DXH262149 EHD262149 EQZ262149 FAV262149 FKR262149 FUN262149 GEJ262149 GOF262149 GYB262149 HHX262149 HRT262149 IBP262149 ILL262149 IVH262149 JFD262149 JOZ262149 JYV262149 KIR262149 KSN262149 LCJ262149 LMF262149 LWB262149 MFX262149 MPT262149 MZP262149 NJL262149 NTH262149 ODD262149 OMZ262149 OWV262149 PGR262149 PQN262149 QAJ262149 QKF262149 QUB262149 RDX262149 RNT262149 RXP262149 SHL262149 SRH262149 TBD262149 TKZ262149 TUV262149 UER262149 UON262149 UYJ262149 VIF262149 VSB262149 WBX262149 WLT262149 WVP262149 K327679 JD327685 SZ327685 ACV327685 AMR327685 AWN327685 BGJ327685 BQF327685 CAB327685 CJX327685 CTT327685 DDP327685 DNL327685 DXH327685 EHD327685 EQZ327685 FAV327685 FKR327685 FUN327685 GEJ327685 GOF327685 GYB327685 HHX327685 HRT327685 IBP327685 ILL327685 IVH327685 JFD327685 JOZ327685 JYV327685 KIR327685 KSN327685 LCJ327685 LMF327685 LWB327685 MFX327685 MPT327685 MZP327685 NJL327685 NTH327685 ODD327685 OMZ327685 OWV327685 PGR327685 PQN327685 QAJ327685 QKF327685 QUB327685 RDX327685 RNT327685 RXP327685 SHL327685 SRH327685 TBD327685 TKZ327685 TUV327685 UER327685 UON327685 UYJ327685 VIF327685 VSB327685 WBX327685 WLT327685 WVP327685 K393215 JD393221 SZ393221 ACV393221 AMR393221 AWN393221 BGJ393221 BQF393221 CAB393221 CJX393221 CTT393221 DDP393221 DNL393221 DXH393221 EHD393221 EQZ393221 FAV393221 FKR393221 FUN393221 GEJ393221 GOF393221 GYB393221 HHX393221 HRT393221 IBP393221 ILL393221 IVH393221 JFD393221 JOZ393221 JYV393221 KIR393221 KSN393221 LCJ393221 LMF393221 LWB393221 MFX393221 MPT393221 MZP393221 NJL393221 NTH393221 ODD393221 OMZ393221 OWV393221 PGR393221 PQN393221 QAJ393221 QKF393221 QUB393221 RDX393221 RNT393221 RXP393221 SHL393221 SRH393221 TBD393221 TKZ393221 TUV393221 UER393221 UON393221 UYJ393221 VIF393221 VSB393221 WBX393221 WLT393221 WVP393221 K458751 JD458757 SZ458757 ACV458757 AMR458757 AWN458757 BGJ458757 BQF458757 CAB458757 CJX458757 CTT458757 DDP458757 DNL458757 DXH458757 EHD458757 EQZ458757 FAV458757 FKR458757 FUN458757 GEJ458757 GOF458757 GYB458757 HHX458757 HRT458757 IBP458757 ILL458757 IVH458757 JFD458757 JOZ458757 JYV458757 KIR458757 KSN458757 LCJ458757 LMF458757 LWB458757 MFX458757 MPT458757 MZP458757 NJL458757 NTH458757 ODD458757 OMZ458757 OWV458757 PGR458757 PQN458757 QAJ458757 QKF458757 QUB458757 RDX458757 RNT458757 RXP458757 SHL458757 SRH458757 TBD458757 TKZ458757 TUV458757 UER458757 UON458757 UYJ458757 VIF458757 VSB458757 WBX458757 WLT458757 WVP458757 K524287 JD524293 SZ524293 ACV524293 AMR524293 AWN524293 BGJ524293 BQF524293 CAB524293 CJX524293 CTT524293 DDP524293 DNL524293 DXH524293 EHD524293 EQZ524293 FAV524293 FKR524293 FUN524293 GEJ524293 GOF524293 GYB524293 HHX524293 HRT524293 IBP524293 ILL524293 IVH524293 JFD524293 JOZ524293 JYV524293 KIR524293 KSN524293 LCJ524293 LMF524293 LWB524293 MFX524293 MPT524293 MZP524293 NJL524293 NTH524293 ODD524293 OMZ524293 OWV524293 PGR524293 PQN524293 QAJ524293 QKF524293 QUB524293 RDX524293 RNT524293 RXP524293 SHL524293 SRH524293 TBD524293 TKZ524293 TUV524293 UER524293 UON524293 UYJ524293 VIF524293 VSB524293 WBX524293 WLT524293 WVP524293 K589823 JD589829 SZ589829 ACV589829 AMR589829 AWN589829 BGJ589829 BQF589829 CAB589829 CJX589829 CTT589829 DDP589829 DNL589829 DXH589829 EHD589829 EQZ589829 FAV589829 FKR589829 FUN589829 GEJ589829 GOF589829 GYB589829 HHX589829 HRT589829 IBP589829 ILL589829 IVH589829 JFD589829 JOZ589829 JYV589829 KIR589829 KSN589829 LCJ589829 LMF589829 LWB589829 MFX589829 MPT589829 MZP589829 NJL589829 NTH589829 ODD589829 OMZ589829 OWV589829 PGR589829 PQN589829 QAJ589829 QKF589829 QUB589829 RDX589829 RNT589829 RXP589829 SHL589829 SRH589829 TBD589829 TKZ589829 TUV589829 UER589829 UON589829 UYJ589829 VIF589829 VSB589829 WBX589829 WLT589829 WVP589829 K655359 JD655365 SZ655365 ACV655365 AMR655365 AWN655365 BGJ655365 BQF655365 CAB655365 CJX655365 CTT655365 DDP655365 DNL655365 DXH655365 EHD655365 EQZ655365 FAV655365 FKR655365 FUN655365 GEJ655365 GOF655365 GYB655365 HHX655365 HRT655365 IBP655365 ILL655365 IVH655365 JFD655365 JOZ655365 JYV655365 KIR655365 KSN655365 LCJ655365 LMF655365 LWB655365 MFX655365 MPT655365 MZP655365 NJL655365 NTH655365 ODD655365 OMZ655365 OWV655365 PGR655365 PQN655365 QAJ655365 QKF655365 QUB655365 RDX655365 RNT655365 RXP655365 SHL655365 SRH655365 TBD655365 TKZ655365 TUV655365 UER655365 UON655365 UYJ655365 VIF655365 VSB655365 WBX655365 WLT655365 WVP655365 K720895 JD720901 SZ720901 ACV720901 AMR720901 AWN720901 BGJ720901 BQF720901 CAB720901 CJX720901 CTT720901 DDP720901 DNL720901 DXH720901 EHD720901 EQZ720901 FAV720901 FKR720901 FUN720901 GEJ720901 GOF720901 GYB720901 HHX720901 HRT720901 IBP720901 ILL720901 IVH720901 JFD720901 JOZ720901 JYV720901 KIR720901 KSN720901 LCJ720901 LMF720901 LWB720901 MFX720901 MPT720901 MZP720901 NJL720901 NTH720901 ODD720901 OMZ720901 OWV720901 PGR720901 PQN720901 QAJ720901 QKF720901 QUB720901 RDX720901 RNT720901 RXP720901 SHL720901 SRH720901 TBD720901 TKZ720901 TUV720901 UER720901 UON720901 UYJ720901 VIF720901 VSB720901 WBX720901 WLT720901 WVP720901 K786431 JD786437 SZ786437 ACV786437 AMR786437 AWN786437 BGJ786437 BQF786437 CAB786437 CJX786437 CTT786437 DDP786437 DNL786437 DXH786437 EHD786437 EQZ786437 FAV786437 FKR786437 FUN786437 GEJ786437 GOF786437 GYB786437 HHX786437 HRT786437 IBP786437 ILL786437 IVH786437 JFD786437 JOZ786437 JYV786437 KIR786437 KSN786437 LCJ786437 LMF786437 LWB786437 MFX786437 MPT786437 MZP786437 NJL786437 NTH786437 ODD786437 OMZ786437 OWV786437 PGR786437 PQN786437 QAJ786437 QKF786437 QUB786437 RDX786437 RNT786437 RXP786437 SHL786437 SRH786437 TBD786437 TKZ786437 TUV786437 UER786437 UON786437 UYJ786437 VIF786437 VSB786437 WBX786437 WLT786437 WVP786437 K851967 JD851973 SZ851973 ACV851973 AMR851973 AWN851973 BGJ851973 BQF851973 CAB851973 CJX851973 CTT851973 DDP851973 DNL851973 DXH851973 EHD851973 EQZ851973 FAV851973 FKR851973 FUN851973 GEJ851973 GOF851973 GYB851973 HHX851973 HRT851973 IBP851973 ILL851973 IVH851973 JFD851973 JOZ851973 JYV851973 KIR851973 KSN851973 LCJ851973 LMF851973 LWB851973 MFX851973 MPT851973 MZP851973 NJL851973 NTH851973 ODD851973 OMZ851973 OWV851973 PGR851973 PQN851973 QAJ851973 QKF851973 QUB851973 RDX851973 RNT851973 RXP851973 SHL851973 SRH851973 TBD851973 TKZ851973 TUV851973 UER851973 UON851973 UYJ851973 VIF851973 VSB851973 WBX851973 WLT851973 WVP851973 K917503 JD917509 SZ917509 ACV917509 AMR917509 AWN917509 BGJ917509 BQF917509 CAB917509 CJX917509 CTT917509 DDP917509 DNL917509 DXH917509 EHD917509 EQZ917509 FAV917509 FKR917509 FUN917509 GEJ917509 GOF917509 GYB917509 HHX917509 HRT917509 IBP917509 ILL917509 IVH917509 JFD917509 JOZ917509 JYV917509 KIR917509 KSN917509 LCJ917509 LMF917509 LWB917509 MFX917509 MPT917509 MZP917509 NJL917509 NTH917509 ODD917509 OMZ917509 OWV917509 PGR917509 PQN917509 QAJ917509 QKF917509 QUB917509 RDX917509 RNT917509 RXP917509 SHL917509 SRH917509 TBD917509 TKZ917509 TUV917509 UER917509 UON917509 UYJ917509 VIF917509 VSB917509 WBX917509 WLT917509 WVP917509 K983039 JD983045 SZ983045 ACV983045 AMR983045 AWN983045 BGJ983045 BQF983045 CAB983045 CJX983045 CTT983045 DDP983045 DNL983045 DXH983045 EHD983045 EQZ983045 FAV983045 FKR983045 FUN983045 GEJ983045 GOF983045 GYB983045 HHX983045 HRT983045 IBP983045 ILL983045 IVH983045 JFD983045 JOZ983045 JYV983045 KIR983045 KSN983045 LCJ983045 LMF983045 LWB983045 MFX983045 MPT983045 MZP983045 NJL983045 NTH983045 ODD983045 OMZ983045 OWV983045 PGR983045 PQN983045 QAJ983045 QKF983045 QUB983045 RDX983045 RNT983045 RXP983045 SHL983045 SRH983045 TBD983045 TKZ983045 TUV983045 UER983045 UON983045 UYJ983045 VIF983045 VSB983045 WBX983045" xr:uid="{6422C649-CFFC-4082-88A9-9C1E35439AE1}"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="1.2369791666666701" bottom="0.25" header="0.5" footer="0.5"/>
@@ -9111,9 +9115,9 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776186C6-0CE5-40F0-B17A-483462FEF8FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358CFC0D-4F9D-4BDD-ADF6-C2C094CDCB47}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AK596"/>
+  <dimension ref="A1:AK655"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -74998,6 +75002,6555 @@
       </c>
       <c r="AK596" s="197">
         <v>1645796</v>
+      </c>
+    </row>
+    <row r="597" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A597" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B597" s="192" t="s">
+        <v>1</v>
+      </c>
+      <c r="C597" s="193"/>
+      <c r="D597" s="194" t="s">
+        <v>171</v>
+      </c>
+      <c r="E597" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F597" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G597" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H597" s="196">
+        <v>193439</v>
+      </c>
+      <c r="I597" s="196">
+        <v>4086</v>
+      </c>
+      <c r="J597" s="196">
+        <v>282</v>
+      </c>
+      <c r="K597" s="196">
+        <v>1631377</v>
+      </c>
+      <c r="L597" s="196">
+        <v>15851</v>
+      </c>
+      <c r="M597" s="196">
+        <v>7620</v>
+      </c>
+      <c r="N597" s="196">
+        <v>1824816</v>
+      </c>
+      <c r="O597" s="196">
+        <v>19937</v>
+      </c>
+      <c r="P597" s="196">
+        <v>7902</v>
+      </c>
+      <c r="Q597" s="196">
+        <v>490277</v>
+      </c>
+      <c r="R597" s="196">
+        <v>3098203</v>
+      </c>
+      <c r="S597" s="196">
+        <v>3588480</v>
+      </c>
+      <c r="T597" s="196">
+        <v>9151</v>
+      </c>
+      <c r="U597" s="196">
+        <v>5636</v>
+      </c>
+      <c r="V597" s="196">
+        <v>38682</v>
+      </c>
+      <c r="W597" s="196">
+        <v>19861</v>
+      </c>
+      <c r="X597" s="196">
+        <v>47833</v>
+      </c>
+      <c r="Y597" s="196">
+        <v>25497</v>
+      </c>
+      <c r="Z597" s="196">
+        <v>439</v>
+      </c>
+      <c r="AA597" s="196">
+        <v>9901</v>
+      </c>
+      <c r="AB597" s="196">
+        <v>10340</v>
+      </c>
+      <c r="AC597" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD597" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE597" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF597" s="196">
+        <v>1973354</v>
+      </c>
+      <c r="AG597" s="196">
+        <v>1973354</v>
+      </c>
+      <c r="AH597" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI597" s="196">
+        <v>485268779</v>
+      </c>
+      <c r="AJ597" s="196">
+        <v>3827724</v>
+      </c>
+      <c r="AK597" s="196">
+        <v>489096503</v>
+      </c>
+    </row>
+    <row r="598" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A598" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B598" s="192" t="s">
+        <v>3</v>
+      </c>
+      <c r="C598" s="193"/>
+      <c r="D598" s="194" t="s">
+        <v>172</v>
+      </c>
+      <c r="E598" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F598" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G598" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H598" s="196">
+        <v>3706</v>
+      </c>
+      <c r="I598" s="196">
+        <v>112</v>
+      </c>
+      <c r="J598" s="196">
+        <v>7</v>
+      </c>
+      <c r="K598" s="196">
+        <v>45886</v>
+      </c>
+      <c r="L598" s="196">
+        <v>1031</v>
+      </c>
+      <c r="M598" s="196">
+        <v>464</v>
+      </c>
+      <c r="N598" s="196">
+        <v>49592</v>
+      </c>
+      <c r="O598" s="196">
+        <v>1143</v>
+      </c>
+      <c r="P598" s="196">
+        <v>471</v>
+      </c>
+      <c r="Q598" s="196">
+        <v>8424</v>
+      </c>
+      <c r="R598" s="196">
+        <v>78438</v>
+      </c>
+      <c r="S598" s="196">
+        <v>86862</v>
+      </c>
+      <c r="T598" s="196">
+        <v>275</v>
+      </c>
+      <c r="U598" s="196">
+        <v>159</v>
+      </c>
+      <c r="V598" s="196">
+        <v>2489</v>
+      </c>
+      <c r="W598" s="196">
+        <v>1374</v>
+      </c>
+      <c r="X598" s="196">
+        <v>2764</v>
+      </c>
+      <c r="Y598" s="196">
+        <v>1533</v>
+      </c>
+      <c r="Z598" s="196">
+        <v>14</v>
+      </c>
+      <c r="AA598" s="196">
+        <v>603</v>
+      </c>
+      <c r="AB598" s="196">
+        <v>617</v>
+      </c>
+      <c r="AC598" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD598" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE598" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF598" s="196">
+        <v>51206</v>
+      </c>
+      <c r="AG598" s="196">
+        <v>51206</v>
+      </c>
+      <c r="AH598" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI598" s="196">
+        <v>12499744</v>
+      </c>
+      <c r="AJ598" s="196">
+        <v>218261</v>
+      </c>
+      <c r="AK598" s="197">
+        <v>12718005</v>
+      </c>
+    </row>
+    <row r="599" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A599" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B599" s="192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C599" s="193"/>
+      <c r="D599" s="194" t="s">
+        <v>173</v>
+      </c>
+      <c r="E599" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F599" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G599" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H599" s="196">
+        <v>1</v>
+      </c>
+      <c r="I599" s="196">
+        <v>0</v>
+      </c>
+      <c r="J599" s="196">
+        <v>0</v>
+      </c>
+      <c r="K599" s="196">
+        <v>70</v>
+      </c>
+      <c r="L599" s="196">
+        <v>0</v>
+      </c>
+      <c r="M599" s="196">
+        <v>0</v>
+      </c>
+      <c r="N599" s="196">
+        <v>71</v>
+      </c>
+      <c r="O599" s="196">
+        <v>0</v>
+      </c>
+      <c r="P599" s="196">
+        <v>0</v>
+      </c>
+      <c r="Q599" s="196">
+        <v>1</v>
+      </c>
+      <c r="R599" s="196">
+        <v>118</v>
+      </c>
+      <c r="S599" s="196">
+        <v>119</v>
+      </c>
+      <c r="T599" s="196">
+        <v>0</v>
+      </c>
+      <c r="U599" s="196">
+        <v>0</v>
+      </c>
+      <c r="V599" s="196">
+        <v>0</v>
+      </c>
+      <c r="W599" s="196">
+        <v>0</v>
+      </c>
+      <c r="X599" s="196">
+        <v>0</v>
+      </c>
+      <c r="Y599" s="196">
+        <v>0</v>
+      </c>
+      <c r="Z599" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA599" s="196">
+        <v>0</v>
+      </c>
+      <c r="AB599" s="196">
+        <v>0</v>
+      </c>
+      <c r="AC599" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD599" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE599" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF599" s="196">
+        <v>74</v>
+      </c>
+      <c r="AG599" s="196">
+        <v>74</v>
+      </c>
+      <c r="AH599" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI599" s="196">
+        <v>15284</v>
+      </c>
+      <c r="AJ599" s="196">
+        <v>0</v>
+      </c>
+      <c r="AK599" s="197">
+        <v>15284</v>
+      </c>
+    </row>
+    <row r="600" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A600" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B600" s="192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C600" s="193"/>
+      <c r="D600" s="194" t="s">
+        <v>174</v>
+      </c>
+      <c r="E600" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F600" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G600" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H600" s="196">
+        <v>76</v>
+      </c>
+      <c r="I600" s="196">
+        <v>0</v>
+      </c>
+      <c r="J600" s="196">
+        <v>0</v>
+      </c>
+      <c r="K600" s="196">
+        <v>1305</v>
+      </c>
+      <c r="L600" s="196">
+        <v>1</v>
+      </c>
+      <c r="M600" s="196">
+        <v>1</v>
+      </c>
+      <c r="N600" s="196">
+        <v>1381</v>
+      </c>
+      <c r="O600" s="196">
+        <v>1</v>
+      </c>
+      <c r="P600" s="196">
+        <v>1</v>
+      </c>
+      <c r="Q600" s="196">
+        <v>176</v>
+      </c>
+      <c r="R600" s="196">
+        <v>2280</v>
+      </c>
+      <c r="S600" s="196">
+        <v>2456</v>
+      </c>
+      <c r="T600" s="196">
+        <v>0</v>
+      </c>
+      <c r="U600" s="196">
+        <v>0</v>
+      </c>
+      <c r="V600" s="196">
+        <v>3</v>
+      </c>
+      <c r="W600" s="196">
+        <v>1</v>
+      </c>
+      <c r="X600" s="196">
+        <v>3</v>
+      </c>
+      <c r="Y600" s="196">
+        <v>1</v>
+      </c>
+      <c r="Z600" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA600" s="196">
+        <v>1</v>
+      </c>
+      <c r="AB600" s="196">
+        <v>1</v>
+      </c>
+      <c r="AC600" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD600" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE600" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF600" s="196">
+        <v>1439</v>
+      </c>
+      <c r="AG600" s="196">
+        <v>1439</v>
+      </c>
+      <c r="AH600" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI600" s="196">
+        <v>308373</v>
+      </c>
+      <c r="AJ600" s="196">
+        <v>162</v>
+      </c>
+      <c r="AK600" s="197">
+        <v>308535</v>
+      </c>
+    </row>
+    <row r="601" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A601" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B601" s="192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C601" s="193"/>
+      <c r="D601" s="194" t="s">
+        <v>175</v>
+      </c>
+      <c r="E601" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F601" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G601" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H601" s="196">
+        <v>1224</v>
+      </c>
+      <c r="I601" s="196">
+        <v>8</v>
+      </c>
+      <c r="J601" s="196">
+        <v>0</v>
+      </c>
+      <c r="K601" s="196">
+        <v>14096</v>
+      </c>
+      <c r="L601" s="196">
+        <v>35</v>
+      </c>
+      <c r="M601" s="196">
+        <v>21</v>
+      </c>
+      <c r="N601" s="196">
+        <v>15320</v>
+      </c>
+      <c r="O601" s="196">
+        <v>43</v>
+      </c>
+      <c r="P601" s="196">
+        <v>21</v>
+      </c>
+      <c r="Q601" s="196">
+        <v>3027</v>
+      </c>
+      <c r="R601" s="196">
+        <v>24126</v>
+      </c>
+      <c r="S601" s="196">
+        <v>27153</v>
+      </c>
+      <c r="T601" s="196">
+        <v>25</v>
+      </c>
+      <c r="U601" s="196">
+        <v>9</v>
+      </c>
+      <c r="V601" s="196">
+        <v>91</v>
+      </c>
+      <c r="W601" s="196">
+        <v>39</v>
+      </c>
+      <c r="X601" s="196">
+        <v>116</v>
+      </c>
+      <c r="Y601" s="196">
+        <v>48</v>
+      </c>
+      <c r="Z601" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA601" s="196">
+        <v>27</v>
+      </c>
+      <c r="AB601" s="196">
+        <v>27</v>
+      </c>
+      <c r="AC601" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD601" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE601" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF601" s="196">
+        <v>16162</v>
+      </c>
+      <c r="AG601" s="196">
+        <v>16162</v>
+      </c>
+      <c r="AH601" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI601" s="196">
+        <v>3649514</v>
+      </c>
+      <c r="AJ601" s="196">
+        <v>8040</v>
+      </c>
+      <c r="AK601" s="197">
+        <v>3657554</v>
+      </c>
+    </row>
+    <row r="602" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A602" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B602" s="192" t="s">
+        <v>8</v>
+      </c>
+      <c r="C602" s="193"/>
+      <c r="D602" s="194" t="s">
+        <v>176</v>
+      </c>
+      <c r="E602" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F602" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G602" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H602" s="196">
+        <v>158</v>
+      </c>
+      <c r="I602" s="196">
+        <v>0</v>
+      </c>
+      <c r="J602" s="196">
+        <v>0</v>
+      </c>
+      <c r="K602" s="196">
+        <v>2435</v>
+      </c>
+      <c r="L602" s="196">
+        <v>8</v>
+      </c>
+      <c r="M602" s="196">
+        <v>0</v>
+      </c>
+      <c r="N602" s="196">
+        <v>2593</v>
+      </c>
+      <c r="O602" s="196">
+        <v>8</v>
+      </c>
+      <c r="P602" s="196">
+        <v>0</v>
+      </c>
+      <c r="Q602" s="196">
+        <v>364</v>
+      </c>
+      <c r="R602" s="196">
+        <v>4150</v>
+      </c>
+      <c r="S602" s="196">
+        <v>4514</v>
+      </c>
+      <c r="T602" s="196">
+        <v>0</v>
+      </c>
+      <c r="U602" s="196">
+        <v>0</v>
+      </c>
+      <c r="V602" s="196">
+        <v>17</v>
+      </c>
+      <c r="W602" s="196">
+        <v>11</v>
+      </c>
+      <c r="X602" s="196">
+        <v>17</v>
+      </c>
+      <c r="Y602" s="196">
+        <v>11</v>
+      </c>
+      <c r="Z602" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA602" s="196">
+        <v>0</v>
+      </c>
+      <c r="AB602" s="196">
+        <v>0</v>
+      </c>
+      <c r="AC602" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD602" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE602" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF602" s="196">
+        <v>2646</v>
+      </c>
+      <c r="AG602" s="196">
+        <v>2646</v>
+      </c>
+      <c r="AH602" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI602" s="196">
+        <v>591648</v>
+      </c>
+      <c r="AJ602" s="196">
+        <v>745</v>
+      </c>
+      <c r="AK602" s="197">
+        <v>592393</v>
+      </c>
+    </row>
+    <row r="603" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A603" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B603" s="192" t="s">
+        <v>10</v>
+      </c>
+      <c r="C603" s="193"/>
+      <c r="D603" s="194" t="s">
+        <v>177</v>
+      </c>
+      <c r="E603" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F603" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G603" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H603" s="196">
+        <v>57</v>
+      </c>
+      <c r="I603" s="196">
+        <v>0</v>
+      </c>
+      <c r="J603" s="196">
+        <v>0</v>
+      </c>
+      <c r="K603" s="196">
+        <v>576</v>
+      </c>
+      <c r="L603" s="196">
+        <v>5</v>
+      </c>
+      <c r="M603" s="196">
+        <v>1</v>
+      </c>
+      <c r="N603" s="196">
+        <v>633</v>
+      </c>
+      <c r="O603" s="196">
+        <v>5</v>
+      </c>
+      <c r="P603" s="196">
+        <v>1</v>
+      </c>
+      <c r="Q603" s="196">
+        <v>145</v>
+      </c>
+      <c r="R603" s="196">
+        <v>1188</v>
+      </c>
+      <c r="S603" s="196">
+        <v>1333</v>
+      </c>
+      <c r="T603" s="196">
+        <v>0</v>
+      </c>
+      <c r="U603" s="196">
+        <v>0</v>
+      </c>
+      <c r="V603" s="196">
+        <v>21</v>
+      </c>
+      <c r="W603" s="196">
+        <v>6</v>
+      </c>
+      <c r="X603" s="196">
+        <v>21</v>
+      </c>
+      <c r="Y603" s="196">
+        <v>6</v>
+      </c>
+      <c r="Z603" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA603" s="196">
+        <v>1</v>
+      </c>
+      <c r="AB603" s="196">
+        <v>1</v>
+      </c>
+      <c r="AC603" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD603" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE603" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF603" s="196">
+        <v>694</v>
+      </c>
+      <c r="AG603" s="196">
+        <v>694</v>
+      </c>
+      <c r="AH603" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI603" s="196">
+        <v>168054</v>
+      </c>
+      <c r="AJ603" s="196">
+        <v>710</v>
+      </c>
+      <c r="AK603" s="197">
+        <v>168764</v>
+      </c>
+    </row>
+    <row r="604" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A604" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B604" s="192" t="s">
+        <v>13</v>
+      </c>
+      <c r="C604" s="193"/>
+      <c r="D604" s="194" t="s">
+        <v>178</v>
+      </c>
+      <c r="E604" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F604" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G604" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H604" s="196">
+        <v>2756</v>
+      </c>
+      <c r="I604" s="196">
+        <v>67</v>
+      </c>
+      <c r="J604" s="196">
+        <v>1</v>
+      </c>
+      <c r="K604" s="196">
+        <v>25049</v>
+      </c>
+      <c r="L604" s="196">
+        <v>321</v>
+      </c>
+      <c r="M604" s="196">
+        <v>103</v>
+      </c>
+      <c r="N604" s="196">
+        <v>27805</v>
+      </c>
+      <c r="O604" s="196">
+        <v>388</v>
+      </c>
+      <c r="P604" s="196">
+        <v>104</v>
+      </c>
+      <c r="Q604" s="196">
+        <v>6442</v>
+      </c>
+      <c r="R604" s="196">
+        <v>46861</v>
+      </c>
+      <c r="S604" s="196">
+        <v>53303</v>
+      </c>
+      <c r="T604" s="196">
+        <v>162</v>
+      </c>
+      <c r="U604" s="196">
+        <v>99</v>
+      </c>
+      <c r="V604" s="196">
+        <v>790</v>
+      </c>
+      <c r="W604" s="196">
+        <v>469</v>
+      </c>
+      <c r="X604" s="196">
+        <v>952</v>
+      </c>
+      <c r="Y604" s="196">
+        <v>568</v>
+      </c>
+      <c r="Z604" s="196">
+        <v>2</v>
+      </c>
+      <c r="AA604" s="196">
+        <v>134</v>
+      </c>
+      <c r="AB604" s="196">
+        <v>136</v>
+      </c>
+      <c r="AC604" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD604" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE604" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF604" s="196">
+        <v>32160</v>
+      </c>
+      <c r="AG604" s="196">
+        <v>32160</v>
+      </c>
+      <c r="AH604" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI604" s="196">
+        <v>7422600</v>
+      </c>
+      <c r="AJ604" s="196">
+        <v>64594</v>
+      </c>
+      <c r="AK604" s="197">
+        <v>7487194</v>
+      </c>
+    </row>
+    <row r="605" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A605" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B605" s="192" t="s">
+        <v>16</v>
+      </c>
+      <c r="C605" s="193"/>
+      <c r="D605" s="194" t="s">
+        <v>179</v>
+      </c>
+      <c r="E605" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F605" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G605" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H605" s="196">
+        <v>298</v>
+      </c>
+      <c r="I605" s="196">
+        <v>0</v>
+      </c>
+      <c r="J605" s="196">
+        <v>0</v>
+      </c>
+      <c r="K605" s="196">
+        <v>2164</v>
+      </c>
+      <c r="L605" s="196">
+        <v>1</v>
+      </c>
+      <c r="M605" s="196">
+        <v>1</v>
+      </c>
+      <c r="N605" s="196">
+        <v>2462</v>
+      </c>
+      <c r="O605" s="196">
+        <v>1</v>
+      </c>
+      <c r="P605" s="196">
+        <v>1</v>
+      </c>
+      <c r="Q605" s="196">
+        <v>834</v>
+      </c>
+      <c r="R605" s="196">
+        <v>3835</v>
+      </c>
+      <c r="S605" s="196">
+        <v>4669</v>
+      </c>
+      <c r="T605" s="196">
+        <v>0</v>
+      </c>
+      <c r="U605" s="196">
+        <v>0</v>
+      </c>
+      <c r="V605" s="196">
+        <v>3</v>
+      </c>
+      <c r="W605" s="196">
+        <v>1</v>
+      </c>
+      <c r="X605" s="196">
+        <v>3</v>
+      </c>
+      <c r="Y605" s="196">
+        <v>1</v>
+      </c>
+      <c r="Z605" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA605" s="196">
+        <v>2</v>
+      </c>
+      <c r="AB605" s="196">
+        <v>2</v>
+      </c>
+      <c r="AC605" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD605" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE605" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF605" s="196">
+        <v>2573</v>
+      </c>
+      <c r="AG605" s="196">
+        <v>2573</v>
+      </c>
+      <c r="AH605" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI605" s="196">
+        <v>608359</v>
+      </c>
+      <c r="AJ605" s="196">
+        <v>308</v>
+      </c>
+      <c r="AK605" s="197">
+        <v>608667</v>
+      </c>
+    </row>
+    <row r="606" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A606" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B606" s="192" t="s">
+        <v>20</v>
+      </c>
+      <c r="C606" s="193"/>
+      <c r="D606" s="194" t="s">
+        <v>180</v>
+      </c>
+      <c r="E606" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F606" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G606" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H606" s="196">
+        <v>411</v>
+      </c>
+      <c r="I606" s="196">
+        <v>2</v>
+      </c>
+      <c r="J606" s="196">
+        <v>0</v>
+      </c>
+      <c r="K606" s="196">
+        <v>5707</v>
+      </c>
+      <c r="L606" s="196">
+        <v>17</v>
+      </c>
+      <c r="M606" s="196">
+        <v>3</v>
+      </c>
+      <c r="N606" s="196">
+        <v>6118</v>
+      </c>
+      <c r="O606" s="196">
+        <v>19</v>
+      </c>
+      <c r="P606" s="196">
+        <v>3</v>
+      </c>
+      <c r="Q606" s="196">
+        <v>947</v>
+      </c>
+      <c r="R606" s="196">
+        <v>9411</v>
+      </c>
+      <c r="S606" s="196">
+        <v>10358</v>
+      </c>
+      <c r="T606" s="196">
+        <v>7</v>
+      </c>
+      <c r="U606" s="196">
+        <v>2</v>
+      </c>
+      <c r="V606" s="196">
+        <v>47</v>
+      </c>
+      <c r="W606" s="196">
+        <v>18</v>
+      </c>
+      <c r="X606" s="196">
+        <v>54</v>
+      </c>
+      <c r="Y606" s="196">
+        <v>20</v>
+      </c>
+      <c r="Z606" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA606" s="196">
+        <v>4</v>
+      </c>
+      <c r="AB606" s="196">
+        <v>4</v>
+      </c>
+      <c r="AC606" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD606" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE606" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF606" s="196">
+        <v>6407</v>
+      </c>
+      <c r="AG606" s="196">
+        <v>6407</v>
+      </c>
+      <c r="AH606" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI606" s="196">
+        <v>1372122</v>
+      </c>
+      <c r="AJ606" s="196">
+        <v>1789</v>
+      </c>
+      <c r="AK606" s="197">
+        <v>1373911</v>
+      </c>
+    </row>
+    <row r="607" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A607" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B607" s="192" t="s">
+        <v>23</v>
+      </c>
+      <c r="C607" s="193"/>
+      <c r="D607" s="194" t="s">
+        <v>181</v>
+      </c>
+      <c r="E607" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F607" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G607" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H607" s="196">
+        <v>10255</v>
+      </c>
+      <c r="I607" s="196">
+        <v>153</v>
+      </c>
+      <c r="J607" s="196">
+        <v>5</v>
+      </c>
+      <c r="K607" s="196">
+        <v>75129</v>
+      </c>
+      <c r="L607" s="196">
+        <v>616</v>
+      </c>
+      <c r="M607" s="196">
+        <v>168</v>
+      </c>
+      <c r="N607" s="196">
+        <v>85384</v>
+      </c>
+      <c r="O607" s="196">
+        <v>769</v>
+      </c>
+      <c r="P607" s="196">
+        <v>173</v>
+      </c>
+      <c r="Q607" s="196">
+        <v>28303</v>
+      </c>
+      <c r="R607" s="196">
+        <v>168377</v>
+      </c>
+      <c r="S607" s="196">
+        <v>196680</v>
+      </c>
+      <c r="T607" s="196">
+        <v>417</v>
+      </c>
+      <c r="U607" s="196">
+        <v>192</v>
+      </c>
+      <c r="V607" s="196">
+        <v>1741</v>
+      </c>
+      <c r="W607" s="196">
+        <v>789</v>
+      </c>
+      <c r="X607" s="196">
+        <v>2158</v>
+      </c>
+      <c r="Y607" s="196">
+        <v>981</v>
+      </c>
+      <c r="Z607" s="196">
+        <v>14</v>
+      </c>
+      <c r="AA607" s="196">
+        <v>208</v>
+      </c>
+      <c r="AB607" s="196">
+        <v>222</v>
+      </c>
+      <c r="AC607" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD607" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE607" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF607" s="196">
+        <v>90762</v>
+      </c>
+      <c r="AG607" s="196">
+        <v>90762</v>
+      </c>
+      <c r="AH607" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI607" s="196">
+        <v>25564569</v>
+      </c>
+      <c r="AJ607" s="196">
+        <v>119185</v>
+      </c>
+      <c r="AK607" s="197">
+        <v>25683754</v>
+      </c>
+    </row>
+    <row r="608" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A608" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B608" s="192" t="s">
+        <v>26</v>
+      </c>
+      <c r="C608" s="193"/>
+      <c r="D608" s="194" t="s">
+        <v>182</v>
+      </c>
+      <c r="E608" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F608" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G608" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H608" s="196">
+        <v>179</v>
+      </c>
+      <c r="I608" s="196">
+        <v>0</v>
+      </c>
+      <c r="J608" s="196">
+        <v>0</v>
+      </c>
+      <c r="K608" s="196">
+        <v>1252</v>
+      </c>
+      <c r="L608" s="196">
+        <v>7</v>
+      </c>
+      <c r="M608" s="196">
+        <v>2</v>
+      </c>
+      <c r="N608" s="196">
+        <v>1431</v>
+      </c>
+      <c r="O608" s="196">
+        <v>7</v>
+      </c>
+      <c r="P608" s="196">
+        <v>2</v>
+      </c>
+      <c r="Q608" s="196">
+        <v>501</v>
+      </c>
+      <c r="R608" s="196">
+        <v>2539</v>
+      </c>
+      <c r="S608" s="196">
+        <v>3040</v>
+      </c>
+      <c r="T608" s="196">
+        <v>0</v>
+      </c>
+      <c r="U608" s="196">
+        <v>0</v>
+      </c>
+      <c r="V608" s="196">
+        <v>22</v>
+      </c>
+      <c r="W608" s="196">
+        <v>9</v>
+      </c>
+      <c r="X608" s="196">
+        <v>22</v>
+      </c>
+      <c r="Y608" s="196">
+        <v>9</v>
+      </c>
+      <c r="Z608" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA608" s="196">
+        <v>2</v>
+      </c>
+      <c r="AB608" s="196">
+        <v>2</v>
+      </c>
+      <c r="AC608" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD608" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE608" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF608" s="196">
+        <v>1522</v>
+      </c>
+      <c r="AG608" s="196">
+        <v>1522</v>
+      </c>
+      <c r="AH608" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI608" s="196">
+        <v>373613</v>
+      </c>
+      <c r="AJ608" s="196">
+        <v>1123</v>
+      </c>
+      <c r="AK608" s="197">
+        <v>374736</v>
+      </c>
+    </row>
+    <row r="609" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A609" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B609" s="192" t="s">
+        <v>29</v>
+      </c>
+      <c r="C609" s="193"/>
+      <c r="D609" s="194" t="s">
+        <v>183</v>
+      </c>
+      <c r="E609" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F609" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G609" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H609" s="196">
+        <v>757</v>
+      </c>
+      <c r="I609" s="196">
+        <v>2</v>
+      </c>
+      <c r="J609" s="196">
+        <v>0</v>
+      </c>
+      <c r="K609" s="196">
+        <v>11175</v>
+      </c>
+      <c r="L609" s="196">
+        <v>24</v>
+      </c>
+      <c r="M609" s="196">
+        <v>6</v>
+      </c>
+      <c r="N609" s="196">
+        <v>11932</v>
+      </c>
+      <c r="O609" s="196">
+        <v>26</v>
+      </c>
+      <c r="P609" s="196">
+        <v>6</v>
+      </c>
+      <c r="Q609" s="196">
+        <v>1923</v>
+      </c>
+      <c r="R609" s="196">
+        <v>17054</v>
+      </c>
+      <c r="S609" s="196">
+        <v>18977</v>
+      </c>
+      <c r="T609" s="196">
+        <v>2</v>
+      </c>
+      <c r="U609" s="196">
+        <v>3</v>
+      </c>
+      <c r="V609" s="196">
+        <v>58</v>
+      </c>
+      <c r="W609" s="196">
+        <v>28</v>
+      </c>
+      <c r="X609" s="196">
+        <v>60</v>
+      </c>
+      <c r="Y609" s="196">
+        <v>31</v>
+      </c>
+      <c r="Z609" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA609" s="196">
+        <v>6</v>
+      </c>
+      <c r="AB609" s="196">
+        <v>6</v>
+      </c>
+      <c r="AC609" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD609" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE609" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF609" s="196">
+        <v>12595</v>
+      </c>
+      <c r="AG609" s="196">
+        <v>12595</v>
+      </c>
+      <c r="AH609" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI609" s="196">
+        <v>2664644</v>
+      </c>
+      <c r="AJ609" s="196">
+        <v>3615</v>
+      </c>
+      <c r="AK609" s="197">
+        <v>2668259</v>
+      </c>
+    </row>
+    <row r="610" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A610" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B610" s="192" t="s">
+        <v>32</v>
+      </c>
+      <c r="C610" s="193"/>
+      <c r="D610" s="194" t="s">
+        <v>184</v>
+      </c>
+      <c r="E610" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F610" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G610" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H610" s="196">
+        <v>1887</v>
+      </c>
+      <c r="I610" s="196">
+        <v>21</v>
+      </c>
+      <c r="J610" s="196">
+        <v>2</v>
+      </c>
+      <c r="K610" s="196">
+        <v>13875</v>
+      </c>
+      <c r="L610" s="196">
+        <v>180</v>
+      </c>
+      <c r="M610" s="196">
+        <v>41</v>
+      </c>
+      <c r="N610" s="196">
+        <v>15762</v>
+      </c>
+      <c r="O610" s="196">
+        <v>201</v>
+      </c>
+      <c r="P610" s="196">
+        <v>43</v>
+      </c>
+      <c r="Q610" s="196">
+        <v>5197</v>
+      </c>
+      <c r="R610" s="196">
+        <v>31218</v>
+      </c>
+      <c r="S610" s="196">
+        <v>36415</v>
+      </c>
+      <c r="T610" s="196">
+        <v>42</v>
+      </c>
+      <c r="U610" s="196">
+        <v>21</v>
+      </c>
+      <c r="V610" s="196">
+        <v>515</v>
+      </c>
+      <c r="W610" s="196">
+        <v>191</v>
+      </c>
+      <c r="X610" s="196">
+        <v>557</v>
+      </c>
+      <c r="Y610" s="196">
+        <v>212</v>
+      </c>
+      <c r="Z610" s="196">
+        <v>2</v>
+      </c>
+      <c r="AA610" s="196">
+        <v>47</v>
+      </c>
+      <c r="AB610" s="196">
+        <v>49</v>
+      </c>
+      <c r="AC610" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD610" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE610" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF610" s="196">
+        <v>16839</v>
+      </c>
+      <c r="AG610" s="196">
+        <v>16839</v>
+      </c>
+      <c r="AH610" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI610" s="196">
+        <v>4575618</v>
+      </c>
+      <c r="AJ610" s="196">
+        <v>27434</v>
+      </c>
+      <c r="AK610" s="197">
+        <v>4603052</v>
+      </c>
+    </row>
+    <row r="611" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A611" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B611" s="192" t="s">
+        <v>35</v>
+      </c>
+      <c r="C611" s="193"/>
+      <c r="D611" s="194" t="s">
+        <v>185</v>
+      </c>
+      <c r="E611" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F611" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G611" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H611" s="196">
+        <v>72</v>
+      </c>
+      <c r="I611" s="196">
+        <v>0</v>
+      </c>
+      <c r="J611" s="196">
+        <v>0</v>
+      </c>
+      <c r="K611" s="196">
+        <v>849</v>
+      </c>
+      <c r="L611" s="196">
+        <v>1</v>
+      </c>
+      <c r="M611" s="196">
+        <v>1</v>
+      </c>
+      <c r="N611" s="196">
+        <v>921</v>
+      </c>
+      <c r="O611" s="196">
+        <v>1</v>
+      </c>
+      <c r="P611" s="196">
+        <v>1</v>
+      </c>
+      <c r="Q611" s="196">
+        <v>203</v>
+      </c>
+      <c r="R611" s="196">
+        <v>1497</v>
+      </c>
+      <c r="S611" s="196">
+        <v>1700</v>
+      </c>
+      <c r="T611" s="196">
+        <v>0</v>
+      </c>
+      <c r="U611" s="196">
+        <v>0</v>
+      </c>
+      <c r="V611" s="196">
+        <v>5</v>
+      </c>
+      <c r="W611" s="196">
+        <v>1</v>
+      </c>
+      <c r="X611" s="196">
+        <v>5</v>
+      </c>
+      <c r="Y611" s="196">
+        <v>1</v>
+      </c>
+      <c r="Z611" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA611" s="196">
+        <v>1</v>
+      </c>
+      <c r="AB611" s="196">
+        <v>1</v>
+      </c>
+      <c r="AC611" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD611" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE611" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF611" s="196">
+        <v>945</v>
+      </c>
+      <c r="AG611" s="196">
+        <v>945</v>
+      </c>
+      <c r="AH611" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI611" s="196">
+        <v>222819</v>
+      </c>
+      <c r="AJ611" s="196">
+        <v>164</v>
+      </c>
+      <c r="AK611" s="197">
+        <v>222983</v>
+      </c>
+    </row>
+    <row r="612" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A612" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B612" s="192" t="s">
+        <v>38</v>
+      </c>
+      <c r="C612" s="193"/>
+      <c r="D612" s="194" t="s">
+        <v>186</v>
+      </c>
+      <c r="E612" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F612" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G612" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H612" s="196">
+        <v>8963</v>
+      </c>
+      <c r="I612" s="196">
+        <v>40</v>
+      </c>
+      <c r="J612" s="196">
+        <v>2</v>
+      </c>
+      <c r="K612" s="196">
+        <v>54860</v>
+      </c>
+      <c r="L612" s="196">
+        <v>358</v>
+      </c>
+      <c r="M612" s="196">
+        <v>249</v>
+      </c>
+      <c r="N612" s="196">
+        <v>63823</v>
+      </c>
+      <c r="O612" s="196">
+        <v>398</v>
+      </c>
+      <c r="P612" s="196">
+        <v>251</v>
+      </c>
+      <c r="Q612" s="196">
+        <v>23508</v>
+      </c>
+      <c r="R612" s="196">
+        <v>120535</v>
+      </c>
+      <c r="S612" s="196">
+        <v>144043</v>
+      </c>
+      <c r="T612" s="196">
+        <v>109</v>
+      </c>
+      <c r="U612" s="196">
+        <v>44</v>
+      </c>
+      <c r="V612" s="196">
+        <v>958</v>
+      </c>
+      <c r="W612" s="196">
+        <v>406</v>
+      </c>
+      <c r="X612" s="196">
+        <v>1067</v>
+      </c>
+      <c r="Y612" s="196">
+        <v>450</v>
+      </c>
+      <c r="Z612" s="196">
+        <v>2</v>
+      </c>
+      <c r="AA612" s="196">
+        <v>384</v>
+      </c>
+      <c r="AB612" s="196">
+        <v>386</v>
+      </c>
+      <c r="AC612" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD612" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE612" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF612" s="196">
+        <v>67736</v>
+      </c>
+      <c r="AG612" s="196">
+        <v>67736</v>
+      </c>
+      <c r="AH612" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI612" s="196">
+        <v>18828465</v>
+      </c>
+      <c r="AJ612" s="196">
+        <v>110328</v>
+      </c>
+      <c r="AK612" s="197">
+        <v>18938793</v>
+      </c>
+    </row>
+    <row r="613" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A613" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B613" s="192" t="s">
+        <v>41</v>
+      </c>
+      <c r="C613" s="193"/>
+      <c r="D613" s="194" t="s">
+        <v>187</v>
+      </c>
+      <c r="E613" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F613" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G613" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H613" s="196">
+        <v>1409</v>
+      </c>
+      <c r="I613" s="196">
+        <v>22</v>
+      </c>
+      <c r="J613" s="196">
+        <v>0</v>
+      </c>
+      <c r="K613" s="196">
+        <v>8593</v>
+      </c>
+      <c r="L613" s="196">
+        <v>110</v>
+      </c>
+      <c r="M613" s="196">
+        <v>32</v>
+      </c>
+      <c r="N613" s="196">
+        <v>10002</v>
+      </c>
+      <c r="O613" s="196">
+        <v>132</v>
+      </c>
+      <c r="P613" s="196">
+        <v>32</v>
+      </c>
+      <c r="Q613" s="196">
+        <v>3974</v>
+      </c>
+      <c r="R613" s="196">
+        <v>17911</v>
+      </c>
+      <c r="S613" s="196">
+        <v>21885</v>
+      </c>
+      <c r="T613" s="196">
+        <v>63</v>
+      </c>
+      <c r="U613" s="196">
+        <v>23</v>
+      </c>
+      <c r="V613" s="196">
+        <v>324</v>
+      </c>
+      <c r="W613" s="196">
+        <v>118</v>
+      </c>
+      <c r="X613" s="196">
+        <v>387</v>
+      </c>
+      <c r="Y613" s="196">
+        <v>141</v>
+      </c>
+      <c r="Z613" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA613" s="196">
+        <v>37</v>
+      </c>
+      <c r="AB613" s="196">
+        <v>37</v>
+      </c>
+      <c r="AC613" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD613" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE613" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF613" s="196">
+        <v>10721</v>
+      </c>
+      <c r="AG613" s="196">
+        <v>10721</v>
+      </c>
+      <c r="AH613" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI613" s="196">
+        <v>2777917</v>
+      </c>
+      <c r="AJ613" s="196">
+        <v>17468</v>
+      </c>
+      <c r="AK613" s="197">
+        <v>2795385</v>
+      </c>
+    </row>
+    <row r="614" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A614" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B614" s="192" t="s">
+        <v>44</v>
+      </c>
+      <c r="C614" s="193"/>
+      <c r="D614" s="194" t="s">
+        <v>188</v>
+      </c>
+      <c r="E614" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F614" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G614" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H614" s="196">
+        <v>475</v>
+      </c>
+      <c r="I614" s="196">
+        <v>5</v>
+      </c>
+      <c r="J614" s="196">
+        <v>0</v>
+      </c>
+      <c r="K614" s="196">
+        <v>5647</v>
+      </c>
+      <c r="L614" s="196">
+        <v>14</v>
+      </c>
+      <c r="M614" s="196">
+        <v>4</v>
+      </c>
+      <c r="N614" s="196">
+        <v>6122</v>
+      </c>
+      <c r="O614" s="196">
+        <v>19</v>
+      </c>
+      <c r="P614" s="196">
+        <v>4</v>
+      </c>
+      <c r="Q614" s="196">
+        <v>1171</v>
+      </c>
+      <c r="R614" s="196">
+        <v>9663</v>
+      </c>
+      <c r="S614" s="196">
+        <v>10834</v>
+      </c>
+      <c r="T614" s="196">
+        <v>14</v>
+      </c>
+      <c r="U614" s="196">
+        <v>5</v>
+      </c>
+      <c r="V614" s="196">
+        <v>40</v>
+      </c>
+      <c r="W614" s="196">
+        <v>15</v>
+      </c>
+      <c r="X614" s="196">
+        <v>54</v>
+      </c>
+      <c r="Y614" s="196">
+        <v>20</v>
+      </c>
+      <c r="Z614" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA614" s="196">
+        <v>4</v>
+      </c>
+      <c r="AB614" s="196">
+        <v>4</v>
+      </c>
+      <c r="AC614" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD614" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE614" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF614" s="196">
+        <v>6429</v>
+      </c>
+      <c r="AG614" s="196">
+        <v>6429</v>
+      </c>
+      <c r="AH614" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI614" s="196">
+        <v>1396879</v>
+      </c>
+      <c r="AJ614" s="196">
+        <v>1428</v>
+      </c>
+      <c r="AK614" s="197">
+        <v>1398307</v>
+      </c>
+    </row>
+    <row r="615" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A615" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B615" s="192" t="s">
+        <v>47</v>
+      </c>
+      <c r="C615" s="193"/>
+      <c r="D615" s="194" t="s">
+        <v>189</v>
+      </c>
+      <c r="E615" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F615" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G615" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H615" s="196">
+        <v>175</v>
+      </c>
+      <c r="I615" s="196">
+        <v>0</v>
+      </c>
+      <c r="J615" s="196">
+        <v>0</v>
+      </c>
+      <c r="K615" s="196">
+        <v>1278</v>
+      </c>
+      <c r="L615" s="196">
+        <v>2</v>
+      </c>
+      <c r="M615" s="196">
+        <v>2</v>
+      </c>
+      <c r="N615" s="196">
+        <v>1453</v>
+      </c>
+      <c r="O615" s="196">
+        <v>2</v>
+      </c>
+      <c r="P615" s="196">
+        <v>2</v>
+      </c>
+      <c r="Q615" s="196">
+        <v>465</v>
+      </c>
+      <c r="R615" s="196">
+        <v>2330</v>
+      </c>
+      <c r="S615" s="196">
+        <v>2795</v>
+      </c>
+      <c r="T615" s="196">
+        <v>0</v>
+      </c>
+      <c r="U615" s="196">
+        <v>0</v>
+      </c>
+      <c r="V615" s="196">
+        <v>5</v>
+      </c>
+      <c r="W615" s="196">
+        <v>3</v>
+      </c>
+      <c r="X615" s="196">
+        <v>5</v>
+      </c>
+      <c r="Y615" s="196">
+        <v>3</v>
+      </c>
+      <c r="Z615" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA615" s="196">
+        <v>2</v>
+      </c>
+      <c r="AB615" s="196">
+        <v>2</v>
+      </c>
+      <c r="AC615" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD615" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE615" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF615" s="196">
+        <v>1563</v>
+      </c>
+      <c r="AG615" s="196">
+        <v>1563</v>
+      </c>
+      <c r="AH615" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI615" s="196">
+        <v>380625</v>
+      </c>
+      <c r="AJ615" s="196">
+        <v>594</v>
+      </c>
+      <c r="AK615" s="197">
+        <v>381219</v>
+      </c>
+    </row>
+    <row r="616" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A616" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B616" s="192" t="s">
+        <v>50</v>
+      </c>
+      <c r="C616" s="193"/>
+      <c r="D616" s="194" t="s">
+        <v>190</v>
+      </c>
+      <c r="E616" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F616" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G616" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H616" s="196">
+        <v>64750</v>
+      </c>
+      <c r="I616" s="196">
+        <v>2225</v>
+      </c>
+      <c r="J616" s="196">
+        <v>225</v>
+      </c>
+      <c r="K616" s="196">
+        <v>463672</v>
+      </c>
+      <c r="L616" s="196">
+        <v>4842</v>
+      </c>
+      <c r="M616" s="196">
+        <v>2942</v>
+      </c>
+      <c r="N616" s="196">
+        <v>528422</v>
+      </c>
+      <c r="O616" s="196">
+        <v>7067</v>
+      </c>
+      <c r="P616" s="196">
+        <v>3167</v>
+      </c>
+      <c r="Q616" s="196">
+        <v>155078</v>
+      </c>
+      <c r="R616" s="196">
+        <v>834615</v>
+      </c>
+      <c r="S616" s="196">
+        <v>989693</v>
+      </c>
+      <c r="T616" s="196">
+        <v>4619</v>
+      </c>
+      <c r="U616" s="196">
+        <v>3140</v>
+      </c>
+      <c r="V616" s="196">
+        <v>11067</v>
+      </c>
+      <c r="W616" s="196">
+        <v>6081</v>
+      </c>
+      <c r="X616" s="196">
+        <v>15686</v>
+      </c>
+      <c r="Y616" s="196">
+        <v>9221</v>
+      </c>
+      <c r="Z616" s="196">
+        <v>327</v>
+      </c>
+      <c r="AA616" s="196">
+        <v>3824</v>
+      </c>
+      <c r="AB616" s="196">
+        <v>4151</v>
+      </c>
+      <c r="AC616" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD616" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE616" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF616" s="196">
+        <v>564875</v>
+      </c>
+      <c r="AG616" s="196">
+        <v>564875</v>
+      </c>
+      <c r="AH616" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI616" s="196">
+        <v>138790824</v>
+      </c>
+      <c r="AJ616" s="196">
+        <v>1479556</v>
+      </c>
+      <c r="AK616" s="197">
+        <v>140270380</v>
+      </c>
+    </row>
+    <row r="617" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A617" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B617" s="192" t="s">
+        <v>53</v>
+      </c>
+      <c r="C617" s="193"/>
+      <c r="D617" s="194" t="s">
+        <v>191</v>
+      </c>
+      <c r="E617" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F617" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G617" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H617" s="196">
+        <v>1522</v>
+      </c>
+      <c r="I617" s="196">
+        <v>22</v>
+      </c>
+      <c r="J617" s="196">
+        <v>1</v>
+      </c>
+      <c r="K617" s="196">
+        <v>8972</v>
+      </c>
+      <c r="L617" s="196">
+        <v>78</v>
+      </c>
+      <c r="M617" s="196">
+        <v>8</v>
+      </c>
+      <c r="N617" s="196">
+        <v>10494</v>
+      </c>
+      <c r="O617" s="196">
+        <v>100</v>
+      </c>
+      <c r="P617" s="196">
+        <v>9</v>
+      </c>
+      <c r="Q617" s="196">
+        <v>4228</v>
+      </c>
+      <c r="R617" s="196">
+        <v>20791</v>
+      </c>
+      <c r="S617" s="196">
+        <v>25019</v>
+      </c>
+      <c r="T617" s="196">
+        <v>50</v>
+      </c>
+      <c r="U617" s="196">
+        <v>23</v>
+      </c>
+      <c r="V617" s="196">
+        <v>219</v>
+      </c>
+      <c r="W617" s="196">
+        <v>91</v>
+      </c>
+      <c r="X617" s="196">
+        <v>269</v>
+      </c>
+      <c r="Y617" s="196">
+        <v>114</v>
+      </c>
+      <c r="Z617" s="196">
+        <v>1</v>
+      </c>
+      <c r="AA617" s="196">
+        <v>9</v>
+      </c>
+      <c r="AB617" s="196">
+        <v>10</v>
+      </c>
+      <c r="AC617" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD617" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE617" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF617" s="196">
+        <v>7997</v>
+      </c>
+      <c r="AG617" s="196">
+        <v>7997</v>
+      </c>
+      <c r="AH617" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI617" s="196">
+        <v>3244860</v>
+      </c>
+      <c r="AJ617" s="196">
+        <v>9233</v>
+      </c>
+      <c r="AK617" s="197">
+        <v>3254093</v>
+      </c>
+    </row>
+    <row r="618" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A618" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B618" s="192" t="s">
+        <v>55</v>
+      </c>
+      <c r="C618" s="193"/>
+      <c r="D618" s="194" t="s">
+        <v>192</v>
+      </c>
+      <c r="E618" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F618" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G618" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H618" s="196">
+        <v>404</v>
+      </c>
+      <c r="I618" s="196">
+        <v>22</v>
+      </c>
+      <c r="J618" s="196">
+        <v>2</v>
+      </c>
+      <c r="K618" s="196">
+        <v>5089</v>
+      </c>
+      <c r="L618" s="196">
+        <v>177</v>
+      </c>
+      <c r="M618" s="196">
+        <v>53</v>
+      </c>
+      <c r="N618" s="196">
+        <v>5493</v>
+      </c>
+      <c r="O618" s="196">
+        <v>199</v>
+      </c>
+      <c r="P618" s="196">
+        <v>55</v>
+      </c>
+      <c r="Q618" s="196">
+        <v>873</v>
+      </c>
+      <c r="R618" s="196">
+        <v>7530</v>
+      </c>
+      <c r="S618" s="196">
+        <v>8403</v>
+      </c>
+      <c r="T618" s="196">
+        <v>44</v>
+      </c>
+      <c r="U618" s="196">
+        <v>24</v>
+      </c>
+      <c r="V618" s="196">
+        <v>375</v>
+      </c>
+      <c r="W618" s="196">
+        <v>210</v>
+      </c>
+      <c r="X618" s="196">
+        <v>419</v>
+      </c>
+      <c r="Y618" s="196">
+        <v>234</v>
+      </c>
+      <c r="Z618" s="196">
+        <v>2</v>
+      </c>
+      <c r="AA618" s="196">
+        <v>65</v>
+      </c>
+      <c r="AB618" s="196">
+        <v>67</v>
+      </c>
+      <c r="AC618" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD618" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE618" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF618" s="196">
+        <v>6000</v>
+      </c>
+      <c r="AG618" s="196">
+        <v>6000</v>
+      </c>
+      <c r="AH618" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI618" s="196">
+        <v>1230449</v>
+      </c>
+      <c r="AJ618" s="196">
+        <v>24746</v>
+      </c>
+      <c r="AK618" s="197">
+        <v>1255195</v>
+      </c>
+    </row>
+    <row r="619" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A619" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B619" s="192" t="s">
+        <v>58</v>
+      </c>
+      <c r="C619" s="193"/>
+      <c r="D619" s="194" t="s">
+        <v>193</v>
+      </c>
+      <c r="E619" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F619" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G619" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H619" s="196">
+        <v>77</v>
+      </c>
+      <c r="I619" s="196">
+        <v>1</v>
+      </c>
+      <c r="J619" s="196">
+        <v>0</v>
+      </c>
+      <c r="K619" s="196">
+        <v>964</v>
+      </c>
+      <c r="L619" s="196">
+        <v>0</v>
+      </c>
+      <c r="M619" s="196">
+        <v>2</v>
+      </c>
+      <c r="N619" s="196">
+        <v>1041</v>
+      </c>
+      <c r="O619" s="196">
+        <v>1</v>
+      </c>
+      <c r="P619" s="196">
+        <v>2</v>
+      </c>
+      <c r="Q619" s="196">
+        <v>202</v>
+      </c>
+      <c r="R619" s="196">
+        <v>1689</v>
+      </c>
+      <c r="S619" s="196">
+        <v>1891</v>
+      </c>
+      <c r="T619" s="196">
+        <v>1</v>
+      </c>
+      <c r="U619" s="196">
+        <v>1</v>
+      </c>
+      <c r="V619" s="196">
+        <v>0</v>
+      </c>
+      <c r="W619" s="196">
+        <v>0</v>
+      </c>
+      <c r="X619" s="196">
+        <v>1</v>
+      </c>
+      <c r="Y619" s="196">
+        <v>1</v>
+      </c>
+      <c r="Z619" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA619" s="196">
+        <v>2</v>
+      </c>
+      <c r="AB619" s="196">
+        <v>2</v>
+      </c>
+      <c r="AC619" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD619" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE619" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF619" s="196">
+        <v>1081</v>
+      </c>
+      <c r="AG619" s="196">
+        <v>1081</v>
+      </c>
+      <c r="AH619" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI619" s="196">
+        <v>240023</v>
+      </c>
+      <c r="AJ619" s="196">
+        <v>461</v>
+      </c>
+      <c r="AK619" s="197">
+        <v>240484</v>
+      </c>
+    </row>
+    <row r="620" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A620" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B620" s="192" t="s">
+        <v>61</v>
+      </c>
+      <c r="C620" s="193"/>
+      <c r="D620" s="194" t="s">
+        <v>194</v>
+      </c>
+      <c r="E620" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F620" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G620" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H620" s="196">
+        <v>355</v>
+      </c>
+      <c r="I620" s="196">
+        <v>5</v>
+      </c>
+      <c r="J620" s="196">
+        <v>0</v>
+      </c>
+      <c r="K620" s="196">
+        <v>5433</v>
+      </c>
+      <c r="L620" s="196">
+        <v>36</v>
+      </c>
+      <c r="M620" s="196">
+        <v>9</v>
+      </c>
+      <c r="N620" s="196">
+        <v>5788</v>
+      </c>
+      <c r="O620" s="196">
+        <v>41</v>
+      </c>
+      <c r="P620" s="196">
+        <v>9</v>
+      </c>
+      <c r="Q620" s="196">
+        <v>876</v>
+      </c>
+      <c r="R620" s="196">
+        <v>9621</v>
+      </c>
+      <c r="S620" s="196">
+        <v>10497</v>
+      </c>
+      <c r="T620" s="196">
+        <v>12</v>
+      </c>
+      <c r="U620" s="196">
+        <v>6</v>
+      </c>
+      <c r="V620" s="196">
+        <v>90</v>
+      </c>
+      <c r="W620" s="196">
+        <v>39</v>
+      </c>
+      <c r="X620" s="196">
+        <v>102</v>
+      </c>
+      <c r="Y620" s="196">
+        <v>45</v>
+      </c>
+      <c r="Z620" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA620" s="196">
+        <v>13</v>
+      </c>
+      <c r="AB620" s="196">
+        <v>13</v>
+      </c>
+      <c r="AC620" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD620" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE620" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF620" s="196">
+        <v>6139</v>
+      </c>
+      <c r="AG620" s="196">
+        <v>6139</v>
+      </c>
+      <c r="AH620" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI620" s="196">
+        <v>1456712</v>
+      </c>
+      <c r="AJ620" s="196">
+        <v>7368</v>
+      </c>
+      <c r="AK620" s="197">
+        <v>1464080</v>
+      </c>
+    </row>
+    <row r="621" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A621" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B621" s="192" t="s">
+        <v>64</v>
+      </c>
+      <c r="C621" s="193"/>
+      <c r="D621" s="194" t="s">
+        <v>195</v>
+      </c>
+      <c r="E621" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F621" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G621" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H621" s="196">
+        <v>2850</v>
+      </c>
+      <c r="I621" s="196">
+        <v>14</v>
+      </c>
+      <c r="J621" s="196">
+        <v>0</v>
+      </c>
+      <c r="K621" s="196">
+        <v>19157</v>
+      </c>
+      <c r="L621" s="196">
+        <v>71</v>
+      </c>
+      <c r="M621" s="196">
+        <v>13</v>
+      </c>
+      <c r="N621" s="196">
+        <v>22007</v>
+      </c>
+      <c r="O621" s="196">
+        <v>85</v>
+      </c>
+      <c r="P621" s="196">
+        <v>13</v>
+      </c>
+      <c r="Q621" s="196">
+        <v>7530</v>
+      </c>
+      <c r="R621" s="196">
+        <v>41499</v>
+      </c>
+      <c r="S621" s="196">
+        <v>49029</v>
+      </c>
+      <c r="T621" s="196">
+        <v>28</v>
+      </c>
+      <c r="U621" s="196">
+        <v>16</v>
+      </c>
+      <c r="V621" s="196">
+        <v>191</v>
+      </c>
+      <c r="W621" s="196">
+        <v>78</v>
+      </c>
+      <c r="X621" s="196">
+        <v>219</v>
+      </c>
+      <c r="Y621" s="196">
+        <v>94</v>
+      </c>
+      <c r="Z621" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA621" s="196">
+        <v>16</v>
+      </c>
+      <c r="AB621" s="196">
+        <v>16</v>
+      </c>
+      <c r="AC621" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD621" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE621" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF621" s="196">
+        <v>23163</v>
+      </c>
+      <c r="AG621" s="196">
+        <v>23163</v>
+      </c>
+      <c r="AH621" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI621" s="196">
+        <v>6343440</v>
+      </c>
+      <c r="AJ621" s="196">
+        <v>10145</v>
+      </c>
+      <c r="AK621" s="197">
+        <v>6353585</v>
+      </c>
+    </row>
+    <row r="622" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A622" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B622" s="192" t="s">
+        <v>67</v>
+      </c>
+      <c r="C622" s="193"/>
+      <c r="D622" s="194" t="s">
+        <v>196</v>
+      </c>
+      <c r="E622" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F622" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G622" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H622" s="196">
+        <v>71</v>
+      </c>
+      <c r="I622" s="196">
+        <v>0</v>
+      </c>
+      <c r="J622" s="196">
+        <v>0</v>
+      </c>
+      <c r="K622" s="196">
+        <v>539</v>
+      </c>
+      <c r="L622" s="196">
+        <v>0</v>
+      </c>
+      <c r="M622" s="196">
+        <v>0</v>
+      </c>
+      <c r="N622" s="196">
+        <v>610</v>
+      </c>
+      <c r="O622" s="196">
+        <v>0</v>
+      </c>
+      <c r="P622" s="196">
+        <v>0</v>
+      </c>
+      <c r="Q622" s="196">
+        <v>181</v>
+      </c>
+      <c r="R622" s="196">
+        <v>1033</v>
+      </c>
+      <c r="S622" s="196">
+        <v>1214</v>
+      </c>
+      <c r="T622" s="196">
+        <v>0</v>
+      </c>
+      <c r="U622" s="196">
+        <v>0</v>
+      </c>
+      <c r="V622" s="196">
+        <v>0</v>
+      </c>
+      <c r="W622" s="196">
+        <v>0</v>
+      </c>
+      <c r="X622" s="196">
+        <v>0</v>
+      </c>
+      <c r="Y622" s="196">
+        <v>0</v>
+      </c>
+      <c r="Z622" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA622" s="196">
+        <v>0</v>
+      </c>
+      <c r="AB622" s="196">
+        <v>0</v>
+      </c>
+      <c r="AC622" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD622" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE622" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF622" s="196">
+        <v>630</v>
+      </c>
+      <c r="AG622" s="196">
+        <v>630</v>
+      </c>
+      <c r="AH622" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI622" s="196">
+        <v>152809</v>
+      </c>
+      <c r="AJ622" s="196">
+        <v>0</v>
+      </c>
+      <c r="AK622" s="197">
+        <v>152809</v>
+      </c>
+    </row>
+    <row r="623" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A623" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B623" s="192" t="s">
+        <v>70</v>
+      </c>
+      <c r="C623" s="193"/>
+      <c r="D623" s="194" t="s">
+        <v>197</v>
+      </c>
+      <c r="E623" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F623" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G623" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H623" s="196">
+        <v>10</v>
+      </c>
+      <c r="I623" s="196">
+        <v>0</v>
+      </c>
+      <c r="J623" s="196">
+        <v>0</v>
+      </c>
+      <c r="K623" s="196">
+        <v>319</v>
+      </c>
+      <c r="L623" s="196">
+        <v>1</v>
+      </c>
+      <c r="M623" s="196">
+        <v>0</v>
+      </c>
+      <c r="N623" s="196">
+        <v>329</v>
+      </c>
+      <c r="O623" s="196">
+        <v>1</v>
+      </c>
+      <c r="P623" s="196">
+        <v>0</v>
+      </c>
+      <c r="Q623" s="196">
+        <v>25</v>
+      </c>
+      <c r="R623" s="196">
+        <v>548</v>
+      </c>
+      <c r="S623" s="196">
+        <v>573</v>
+      </c>
+      <c r="T623" s="196">
+        <v>0</v>
+      </c>
+      <c r="U623" s="196">
+        <v>0</v>
+      </c>
+      <c r="V623" s="196">
+        <v>1</v>
+      </c>
+      <c r="W623" s="196">
+        <v>1</v>
+      </c>
+      <c r="X623" s="196">
+        <v>1</v>
+      </c>
+      <c r="Y623" s="196">
+        <v>1</v>
+      </c>
+      <c r="Z623" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA623" s="196">
+        <v>0</v>
+      </c>
+      <c r="AB623" s="196">
+        <v>0</v>
+      </c>
+      <c r="AC623" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD623" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE623" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF623" s="196">
+        <v>352</v>
+      </c>
+      <c r="AG623" s="196">
+        <v>352</v>
+      </c>
+      <c r="AH623" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI623" s="196">
+        <v>75497</v>
+      </c>
+      <c r="AJ623" s="196">
+        <v>118</v>
+      </c>
+      <c r="AK623" s="197">
+        <v>75615</v>
+      </c>
+    </row>
+    <row r="624" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A624" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B624" s="192" t="s">
+        <v>73</v>
+      </c>
+      <c r="C624" s="193"/>
+      <c r="D624" s="194" t="s">
+        <v>198</v>
+      </c>
+      <c r="E624" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F624" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G624" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H624" s="196">
+        <v>1950</v>
+      </c>
+      <c r="I624" s="196">
+        <v>18</v>
+      </c>
+      <c r="J624" s="196">
+        <v>0</v>
+      </c>
+      <c r="K624" s="196">
+        <v>15925</v>
+      </c>
+      <c r="L624" s="196">
+        <v>165</v>
+      </c>
+      <c r="M624" s="196">
+        <v>21</v>
+      </c>
+      <c r="N624" s="196">
+        <v>17875</v>
+      </c>
+      <c r="O624" s="196">
+        <v>183</v>
+      </c>
+      <c r="P624" s="196">
+        <v>21</v>
+      </c>
+      <c r="Q624" s="196">
+        <v>5109</v>
+      </c>
+      <c r="R624" s="196">
+        <v>33485</v>
+      </c>
+      <c r="S624" s="196">
+        <v>38594</v>
+      </c>
+      <c r="T624" s="196">
+        <v>42</v>
+      </c>
+      <c r="U624" s="196">
+        <v>19</v>
+      </c>
+      <c r="V624" s="196">
+        <v>463</v>
+      </c>
+      <c r="W624" s="196">
+        <v>181</v>
+      </c>
+      <c r="X624" s="196">
+        <v>505</v>
+      </c>
+      <c r="Y624" s="196">
+        <v>200</v>
+      </c>
+      <c r="Z624" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA624" s="196">
+        <v>28</v>
+      </c>
+      <c r="AB624" s="196">
+        <v>28</v>
+      </c>
+      <c r="AC624" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD624" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE624" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF624" s="196">
+        <v>19160</v>
+      </c>
+      <c r="AG624" s="196">
+        <v>19160</v>
+      </c>
+      <c r="AH624" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI624" s="196">
+        <v>5056299</v>
+      </c>
+      <c r="AJ624" s="196">
+        <v>16842</v>
+      </c>
+      <c r="AK624" s="197">
+        <v>5073141</v>
+      </c>
+    </row>
+    <row r="625" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A625" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B625" s="192" t="s">
+        <v>76</v>
+      </c>
+      <c r="C625" s="193"/>
+      <c r="D625" s="194" t="s">
+        <v>199</v>
+      </c>
+      <c r="E625" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F625" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G625" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H625" s="196">
+        <v>199</v>
+      </c>
+      <c r="I625" s="196">
+        <v>1</v>
+      </c>
+      <c r="J625" s="196">
+        <v>0</v>
+      </c>
+      <c r="K625" s="196">
+        <v>2454</v>
+      </c>
+      <c r="L625" s="196">
+        <v>39</v>
+      </c>
+      <c r="M625" s="196">
+        <v>2</v>
+      </c>
+      <c r="N625" s="196">
+        <v>2653</v>
+      </c>
+      <c r="O625" s="196">
+        <v>40</v>
+      </c>
+      <c r="P625" s="196">
+        <v>2</v>
+      </c>
+      <c r="Q625" s="196">
+        <v>478</v>
+      </c>
+      <c r="R625" s="196">
+        <v>4557</v>
+      </c>
+      <c r="S625" s="196">
+        <v>5035</v>
+      </c>
+      <c r="T625" s="196">
+        <v>3</v>
+      </c>
+      <c r="U625" s="196">
+        <v>1</v>
+      </c>
+      <c r="V625" s="196">
+        <v>109</v>
+      </c>
+      <c r="W625" s="196">
+        <v>45</v>
+      </c>
+      <c r="X625" s="196">
+        <v>112</v>
+      </c>
+      <c r="Y625" s="196">
+        <v>46</v>
+      </c>
+      <c r="Z625" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA625" s="196">
+        <v>2</v>
+      </c>
+      <c r="AB625" s="196">
+        <v>2</v>
+      </c>
+      <c r="AC625" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD625" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE625" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF625" s="196">
+        <v>2891</v>
+      </c>
+      <c r="AG625" s="196">
+        <v>2891</v>
+      </c>
+      <c r="AH625" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI625" s="196">
+        <v>634365</v>
+      </c>
+      <c r="AJ625" s="196">
+        <v>2404</v>
+      </c>
+      <c r="AK625" s="197">
+        <v>636769</v>
+      </c>
+    </row>
+    <row r="626" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A626" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B626" s="192" t="s">
+        <v>79</v>
+      </c>
+      <c r="C626" s="193"/>
+      <c r="D626" s="194" t="s">
+        <v>200</v>
+      </c>
+      <c r="E626" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F626" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G626" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H626" s="196">
+        <v>222</v>
+      </c>
+      <c r="I626" s="196">
+        <v>0</v>
+      </c>
+      <c r="J626" s="196">
+        <v>0</v>
+      </c>
+      <c r="K626" s="196">
+        <v>4071</v>
+      </c>
+      <c r="L626" s="196">
+        <v>8</v>
+      </c>
+      <c r="M626" s="196">
+        <v>4</v>
+      </c>
+      <c r="N626" s="196">
+        <v>4293</v>
+      </c>
+      <c r="O626" s="196">
+        <v>8</v>
+      </c>
+      <c r="P626" s="196">
+        <v>4</v>
+      </c>
+      <c r="Q626" s="196">
+        <v>555</v>
+      </c>
+      <c r="R626" s="196">
+        <v>6593</v>
+      </c>
+      <c r="S626" s="196">
+        <v>7148</v>
+      </c>
+      <c r="T626" s="196">
+        <v>0</v>
+      </c>
+      <c r="U626" s="196">
+        <v>0</v>
+      </c>
+      <c r="V626" s="196">
+        <v>18</v>
+      </c>
+      <c r="W626" s="196">
+        <v>9</v>
+      </c>
+      <c r="X626" s="196">
+        <v>18</v>
+      </c>
+      <c r="Y626" s="196">
+        <v>9</v>
+      </c>
+      <c r="Z626" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA626" s="196">
+        <v>4</v>
+      </c>
+      <c r="AB626" s="196">
+        <v>4</v>
+      </c>
+      <c r="AC626" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD626" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE626" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF626" s="196">
+        <v>4474</v>
+      </c>
+      <c r="AG626" s="196">
+        <v>4474</v>
+      </c>
+      <c r="AH626" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI626" s="196">
+        <v>933522</v>
+      </c>
+      <c r="AJ626" s="196">
+        <v>1473</v>
+      </c>
+      <c r="AK626" s="197">
+        <v>934995</v>
+      </c>
+    </row>
+    <row r="627" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A627" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B627" s="192" t="s">
+        <v>82</v>
+      </c>
+      <c r="C627" s="193"/>
+      <c r="D627" s="194" t="s">
+        <v>201</v>
+      </c>
+      <c r="E627" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F627" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G627" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H627" s="196">
+        <v>7104</v>
+      </c>
+      <c r="I627" s="196">
+        <v>152</v>
+      </c>
+      <c r="J627" s="196">
+        <v>3</v>
+      </c>
+      <c r="K627" s="196">
+        <v>87627</v>
+      </c>
+      <c r="L627" s="196">
+        <v>1326</v>
+      </c>
+      <c r="M627" s="196">
+        <v>621</v>
+      </c>
+      <c r="N627" s="196">
+        <v>94731</v>
+      </c>
+      <c r="O627" s="196">
+        <v>1478</v>
+      </c>
+      <c r="P627" s="196">
+        <v>624</v>
+      </c>
+      <c r="Q627" s="196">
+        <v>18265</v>
+      </c>
+      <c r="R627" s="196">
+        <v>163342</v>
+      </c>
+      <c r="S627" s="196">
+        <v>181607</v>
+      </c>
+      <c r="T627" s="196">
+        <v>350</v>
+      </c>
+      <c r="U627" s="196">
+        <v>225</v>
+      </c>
+      <c r="V627" s="196">
+        <v>2972</v>
+      </c>
+      <c r="W627" s="196">
+        <v>1700</v>
+      </c>
+      <c r="X627" s="196">
+        <v>3322</v>
+      </c>
+      <c r="Y627" s="196">
+        <v>1925</v>
+      </c>
+      <c r="Z627" s="196">
+        <v>6</v>
+      </c>
+      <c r="AA627" s="196">
+        <v>799</v>
+      </c>
+      <c r="AB627" s="196">
+        <v>805</v>
+      </c>
+      <c r="AC627" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD627" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE627" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF627" s="196">
+        <v>101777</v>
+      </c>
+      <c r="AG627" s="196">
+        <v>101777</v>
+      </c>
+      <c r="AH627" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI627" s="196">
+        <v>24454269</v>
+      </c>
+      <c r="AJ627" s="196">
+        <v>284496</v>
+      </c>
+      <c r="AK627" s="197">
+        <v>24738765</v>
+      </c>
+    </row>
+    <row r="628" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A628" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B628" s="192" t="s">
+        <v>85</v>
+      </c>
+      <c r="C628" s="193"/>
+      <c r="D628" s="194" t="s">
+        <v>202</v>
+      </c>
+      <c r="E628" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F628" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G628" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H628" s="196">
+        <v>501</v>
+      </c>
+      <c r="I628" s="196">
+        <v>6</v>
+      </c>
+      <c r="J628" s="196">
+        <v>0</v>
+      </c>
+      <c r="K628" s="196">
+        <v>6941</v>
+      </c>
+      <c r="L628" s="196">
+        <v>37</v>
+      </c>
+      <c r="M628" s="196">
+        <v>21</v>
+      </c>
+      <c r="N628" s="196">
+        <v>7442</v>
+      </c>
+      <c r="O628" s="196">
+        <v>43</v>
+      </c>
+      <c r="P628" s="196">
+        <v>21</v>
+      </c>
+      <c r="Q628" s="196">
+        <v>1264</v>
+      </c>
+      <c r="R628" s="196">
+        <v>11954</v>
+      </c>
+      <c r="S628" s="196">
+        <v>13218</v>
+      </c>
+      <c r="T628" s="196">
+        <v>20</v>
+      </c>
+      <c r="U628" s="196">
+        <v>10</v>
+      </c>
+      <c r="V628" s="196">
+        <v>82</v>
+      </c>
+      <c r="W628" s="196">
+        <v>55</v>
+      </c>
+      <c r="X628" s="196">
+        <v>102</v>
+      </c>
+      <c r="Y628" s="196">
+        <v>65</v>
+      </c>
+      <c r="Z628" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA628" s="196">
+        <v>29</v>
+      </c>
+      <c r="AB628" s="196">
+        <v>29</v>
+      </c>
+      <c r="AC628" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD628" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE628" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF628" s="196">
+        <v>7821</v>
+      </c>
+      <c r="AG628" s="196">
+        <v>7821</v>
+      </c>
+      <c r="AH628" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI628" s="196">
+        <v>1656354</v>
+      </c>
+      <c r="AJ628" s="196">
+        <v>8973</v>
+      </c>
+      <c r="AK628" s="197">
+        <v>1665327</v>
+      </c>
+    </row>
+    <row r="629" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A629" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B629" s="192" t="s">
+        <v>86</v>
+      </c>
+      <c r="C629" s="193"/>
+      <c r="D629" s="194" t="s">
+        <v>203</v>
+      </c>
+      <c r="E629" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F629" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G629" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H629" s="196">
+        <v>62</v>
+      </c>
+      <c r="I629" s="196">
+        <v>0</v>
+      </c>
+      <c r="J629" s="196">
+        <v>0</v>
+      </c>
+      <c r="K629" s="196">
+        <v>1078</v>
+      </c>
+      <c r="L629" s="196">
+        <v>1</v>
+      </c>
+      <c r="M629" s="196">
+        <v>0</v>
+      </c>
+      <c r="N629" s="196">
+        <v>1140</v>
+      </c>
+      <c r="O629" s="196">
+        <v>1</v>
+      </c>
+      <c r="P629" s="196">
+        <v>0</v>
+      </c>
+      <c r="Q629" s="196">
+        <v>155</v>
+      </c>
+      <c r="R629" s="196">
+        <v>1874</v>
+      </c>
+      <c r="S629" s="196">
+        <v>2029</v>
+      </c>
+      <c r="T629" s="196">
+        <v>0</v>
+      </c>
+      <c r="U629" s="196">
+        <v>0</v>
+      </c>
+      <c r="V629" s="196">
+        <v>1</v>
+      </c>
+      <c r="W629" s="196">
+        <v>1</v>
+      </c>
+      <c r="X629" s="196">
+        <v>1</v>
+      </c>
+      <c r="Y629" s="196">
+        <v>1</v>
+      </c>
+      <c r="Z629" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA629" s="196">
+        <v>0</v>
+      </c>
+      <c r="AB629" s="196">
+        <v>0</v>
+      </c>
+      <c r="AC629" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD629" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE629" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF629" s="196">
+        <v>1202</v>
+      </c>
+      <c r="AG629" s="196">
+        <v>1202</v>
+      </c>
+      <c r="AH629" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI629" s="196">
+        <v>275222</v>
+      </c>
+      <c r="AJ629" s="196">
+        <v>125</v>
+      </c>
+      <c r="AK629" s="197">
+        <v>275347</v>
+      </c>
+    </row>
+    <row r="630" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A630" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B630" s="192" t="s">
+        <v>87</v>
+      </c>
+      <c r="C630" s="193"/>
+      <c r="D630" s="194" t="s">
+        <v>204</v>
+      </c>
+      <c r="E630" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F630" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G630" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H630" s="196">
+        <v>11351</v>
+      </c>
+      <c r="I630" s="196">
+        <v>67</v>
+      </c>
+      <c r="J630" s="196">
+        <v>2</v>
+      </c>
+      <c r="K630" s="196">
+        <v>96252</v>
+      </c>
+      <c r="L630" s="196">
+        <v>451</v>
+      </c>
+      <c r="M630" s="196">
+        <v>126</v>
+      </c>
+      <c r="N630" s="196">
+        <v>107603</v>
+      </c>
+      <c r="O630" s="196">
+        <v>518</v>
+      </c>
+      <c r="P630" s="196">
+        <v>128</v>
+      </c>
+      <c r="Q630" s="196">
+        <v>30621</v>
+      </c>
+      <c r="R630" s="196">
+        <v>196984</v>
+      </c>
+      <c r="S630" s="196">
+        <v>227605</v>
+      </c>
+      <c r="T630" s="196">
+        <v>180</v>
+      </c>
+      <c r="U630" s="196">
+        <v>85</v>
+      </c>
+      <c r="V630" s="196">
+        <v>1232</v>
+      </c>
+      <c r="W630" s="196">
+        <v>499</v>
+      </c>
+      <c r="X630" s="196">
+        <v>1412</v>
+      </c>
+      <c r="Y630" s="196">
+        <v>584</v>
+      </c>
+      <c r="Z630" s="196">
+        <v>5</v>
+      </c>
+      <c r="AA630" s="196">
+        <v>159</v>
+      </c>
+      <c r="AB630" s="196">
+        <v>164</v>
+      </c>
+      <c r="AC630" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD630" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE630" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF630" s="196">
+        <v>113842</v>
+      </c>
+      <c r="AG630" s="196">
+        <v>113842</v>
+      </c>
+      <c r="AH630" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI630" s="196">
+        <v>29979309</v>
+      </c>
+      <c r="AJ630" s="196">
+        <v>70546</v>
+      </c>
+      <c r="AK630" s="197">
+        <v>30049855</v>
+      </c>
+    </row>
+    <row r="631" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A631" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B631" s="192" t="s">
+        <v>88</v>
+      </c>
+      <c r="C631" s="193"/>
+      <c r="D631" s="194" t="s">
+        <v>205</v>
+      </c>
+      <c r="E631" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F631" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G631" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H631" s="196">
+        <v>10203</v>
+      </c>
+      <c r="I631" s="196">
+        <v>327</v>
+      </c>
+      <c r="J631" s="196">
+        <v>4</v>
+      </c>
+      <c r="K631" s="196">
+        <v>78747</v>
+      </c>
+      <c r="L631" s="196">
+        <v>846</v>
+      </c>
+      <c r="M631" s="196">
+        <v>385</v>
+      </c>
+      <c r="N631" s="196">
+        <v>88950</v>
+      </c>
+      <c r="O631" s="196">
+        <v>1173</v>
+      </c>
+      <c r="P631" s="196">
+        <v>389</v>
+      </c>
+      <c r="Q631" s="196">
+        <v>27227</v>
+      </c>
+      <c r="R631" s="196">
+        <v>153671</v>
+      </c>
+      <c r="S631" s="196">
+        <v>180898</v>
+      </c>
+      <c r="T631" s="196">
+        <v>831</v>
+      </c>
+      <c r="U631" s="196">
+        <v>530</v>
+      </c>
+      <c r="V631" s="196">
+        <v>2071</v>
+      </c>
+      <c r="W631" s="196">
+        <v>1270</v>
+      </c>
+      <c r="X631" s="196">
+        <v>2902</v>
+      </c>
+      <c r="Y631" s="196">
+        <v>1800</v>
+      </c>
+      <c r="Z631" s="196">
+        <v>11</v>
+      </c>
+      <c r="AA631" s="196">
+        <v>545</v>
+      </c>
+      <c r="AB631" s="196">
+        <v>556</v>
+      </c>
+      <c r="AC631" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD631" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE631" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF631" s="196">
+        <v>103177</v>
+      </c>
+      <c r="AG631" s="196">
+        <v>103177</v>
+      </c>
+      <c r="AH631" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI631" s="196">
+        <v>25028689</v>
+      </c>
+      <c r="AJ631" s="196">
+        <v>253305</v>
+      </c>
+      <c r="AK631" s="197">
+        <v>25281994</v>
+      </c>
+    </row>
+    <row r="632" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A632" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B632" s="192" t="s">
+        <v>89</v>
+      </c>
+      <c r="C632" s="193"/>
+      <c r="D632" s="194" t="s">
+        <v>206</v>
+      </c>
+      <c r="E632" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F632" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G632" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H632" s="196">
+        <v>220</v>
+      </c>
+      <c r="I632" s="196">
+        <v>2</v>
+      </c>
+      <c r="J632" s="196">
+        <v>0</v>
+      </c>
+      <c r="K632" s="196">
+        <v>1812</v>
+      </c>
+      <c r="L632" s="196">
+        <v>15</v>
+      </c>
+      <c r="M632" s="196">
+        <v>5</v>
+      </c>
+      <c r="N632" s="196">
+        <v>2032</v>
+      </c>
+      <c r="O632" s="196">
+        <v>17</v>
+      </c>
+      <c r="P632" s="196">
+        <v>5</v>
+      </c>
+      <c r="Q632" s="196">
+        <v>581</v>
+      </c>
+      <c r="R632" s="196">
+        <v>3696</v>
+      </c>
+      <c r="S632" s="196">
+        <v>4277</v>
+      </c>
+      <c r="T632" s="196">
+        <v>3</v>
+      </c>
+      <c r="U632" s="196">
+        <v>2</v>
+      </c>
+      <c r="V632" s="196">
+        <v>45</v>
+      </c>
+      <c r="W632" s="196">
+        <v>15</v>
+      </c>
+      <c r="X632" s="196">
+        <v>48</v>
+      </c>
+      <c r="Y632" s="196">
+        <v>17</v>
+      </c>
+      <c r="Z632" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA632" s="196">
+        <v>7</v>
+      </c>
+      <c r="AB632" s="196">
+        <v>7</v>
+      </c>
+      <c r="AC632" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD632" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE632" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF632" s="196">
+        <v>2156</v>
+      </c>
+      <c r="AG632" s="196">
+        <v>2156</v>
+      </c>
+      <c r="AH632" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI632" s="196">
+        <v>553373</v>
+      </c>
+      <c r="AJ632" s="196">
+        <v>2678</v>
+      </c>
+      <c r="AK632" s="197">
+        <v>556051</v>
+      </c>
+    </row>
+    <row r="633" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A633" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B633" s="192" t="s">
+        <v>90</v>
+      </c>
+      <c r="C633" s="193"/>
+      <c r="D633" s="194" t="s">
+        <v>207</v>
+      </c>
+      <c r="E633" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F633" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G633" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H633" s="196">
+        <v>18175</v>
+      </c>
+      <c r="I633" s="196">
+        <v>83</v>
+      </c>
+      <c r="J633" s="196">
+        <v>2</v>
+      </c>
+      <c r="K633" s="196">
+        <v>125693</v>
+      </c>
+      <c r="L633" s="196">
+        <v>657</v>
+      </c>
+      <c r="M633" s="196">
+        <v>188</v>
+      </c>
+      <c r="N633" s="196">
+        <v>143868</v>
+      </c>
+      <c r="O633" s="196">
+        <v>740</v>
+      </c>
+      <c r="P633" s="196">
+        <v>190</v>
+      </c>
+      <c r="Q633" s="196">
+        <v>47244</v>
+      </c>
+      <c r="R633" s="196">
+        <v>259699</v>
+      </c>
+      <c r="S633" s="196">
+        <v>306943</v>
+      </c>
+      <c r="T633" s="196">
+        <v>205</v>
+      </c>
+      <c r="U633" s="196">
+        <v>96</v>
+      </c>
+      <c r="V633" s="196">
+        <v>1745</v>
+      </c>
+      <c r="W633" s="196">
+        <v>780</v>
+      </c>
+      <c r="X633" s="196">
+        <v>1950</v>
+      </c>
+      <c r="Y633" s="196">
+        <v>876</v>
+      </c>
+      <c r="Z633" s="196">
+        <v>3</v>
+      </c>
+      <c r="AA633" s="196">
+        <v>238</v>
+      </c>
+      <c r="AB633" s="196">
+        <v>241</v>
+      </c>
+      <c r="AC633" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD633" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE633" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF633" s="196">
+        <v>151909</v>
+      </c>
+      <c r="AG633" s="196">
+        <v>151909</v>
+      </c>
+      <c r="AH633" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI633" s="196">
+        <v>40952423</v>
+      </c>
+      <c r="AJ633" s="196">
+        <v>110020</v>
+      </c>
+      <c r="AK633" s="197">
+        <v>41062443</v>
+      </c>
+    </row>
+    <row r="634" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A634" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B634" s="192" t="s">
+        <v>91</v>
+      </c>
+      <c r="C634" s="193"/>
+      <c r="D634" s="194" t="s">
+        <v>208</v>
+      </c>
+      <c r="E634" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F634" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G634" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H634" s="196">
+        <v>8345</v>
+      </c>
+      <c r="I634" s="196">
+        <v>266</v>
+      </c>
+      <c r="J634" s="196">
+        <v>8</v>
+      </c>
+      <c r="K634" s="196">
+        <v>118953</v>
+      </c>
+      <c r="L634" s="196">
+        <v>1368</v>
+      </c>
+      <c r="M634" s="196">
+        <v>532</v>
+      </c>
+      <c r="N634" s="196">
+        <v>127298</v>
+      </c>
+      <c r="O634" s="196">
+        <v>1634</v>
+      </c>
+      <c r="P634" s="196">
+        <v>540</v>
+      </c>
+      <c r="Q634" s="196">
+        <v>22298</v>
+      </c>
+      <c r="R634" s="196">
+        <v>217793</v>
+      </c>
+      <c r="S634" s="196">
+        <v>240091</v>
+      </c>
+      <c r="T634" s="196">
+        <v>634</v>
+      </c>
+      <c r="U634" s="196">
+        <v>371</v>
+      </c>
+      <c r="V634" s="196">
+        <v>3320</v>
+      </c>
+      <c r="W634" s="196">
+        <v>1656</v>
+      </c>
+      <c r="X634" s="196">
+        <v>3954</v>
+      </c>
+      <c r="Y634" s="196">
+        <v>2027</v>
+      </c>
+      <c r="Z634" s="196">
+        <v>15</v>
+      </c>
+      <c r="AA634" s="196">
+        <v>654</v>
+      </c>
+      <c r="AB634" s="196">
+        <v>669</v>
+      </c>
+      <c r="AC634" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD634" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE634" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF634" s="196">
+        <v>149718</v>
+      </c>
+      <c r="AG634" s="196">
+        <v>149718</v>
+      </c>
+      <c r="AH634" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI634" s="196">
+        <v>31474392</v>
+      </c>
+      <c r="AJ634" s="196">
+        <v>268104</v>
+      </c>
+      <c r="AK634" s="197">
+        <v>31742496</v>
+      </c>
+    </row>
+    <row r="635" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A635" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B635" s="192" t="s">
+        <v>92</v>
+      </c>
+      <c r="C635" s="193"/>
+      <c r="D635" s="194" t="s">
+        <v>209</v>
+      </c>
+      <c r="E635" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F635" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G635" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H635" s="196">
+        <v>1666</v>
+      </c>
+      <c r="I635" s="196">
+        <v>115</v>
+      </c>
+      <c r="J635" s="196">
+        <v>9</v>
+      </c>
+      <c r="K635" s="196">
+        <v>27237</v>
+      </c>
+      <c r="L635" s="196">
+        <v>465</v>
+      </c>
+      <c r="M635" s="196">
+        <v>572</v>
+      </c>
+      <c r="N635" s="196">
+        <v>28903</v>
+      </c>
+      <c r="O635" s="196">
+        <v>580</v>
+      </c>
+      <c r="P635" s="196">
+        <v>581</v>
+      </c>
+      <c r="Q635" s="196">
+        <v>3652</v>
+      </c>
+      <c r="R635" s="196">
+        <v>38597</v>
+      </c>
+      <c r="S635" s="196">
+        <v>42249</v>
+      </c>
+      <c r="T635" s="196">
+        <v>193</v>
+      </c>
+      <c r="U635" s="196">
+        <v>138</v>
+      </c>
+      <c r="V635" s="196">
+        <v>955</v>
+      </c>
+      <c r="W635" s="196">
+        <v>612</v>
+      </c>
+      <c r="X635" s="196">
+        <v>1148</v>
+      </c>
+      <c r="Y635" s="196">
+        <v>750</v>
+      </c>
+      <c r="Z635" s="196">
+        <v>18</v>
+      </c>
+      <c r="AA635" s="196">
+        <v>731</v>
+      </c>
+      <c r="AB635" s="196">
+        <v>749</v>
+      </c>
+      <c r="AC635" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD635" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE635" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF635" s="196">
+        <v>32682</v>
+      </c>
+      <c r="AG635" s="196">
+        <v>32682</v>
+      </c>
+      <c r="AH635" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI635" s="196">
+        <v>6080651</v>
+      </c>
+      <c r="AJ635" s="196">
+        <v>191133</v>
+      </c>
+      <c r="AK635" s="197">
+        <v>6271784</v>
+      </c>
+    </row>
+    <row r="636" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A636" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B636" s="192" t="s">
+        <v>93</v>
+      </c>
+      <c r="C636" s="193"/>
+      <c r="D636" s="194" t="s">
+        <v>210</v>
+      </c>
+      <c r="E636" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F636" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G636" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H636" s="196">
+        <v>5136</v>
+      </c>
+      <c r="I636" s="196">
+        <v>33</v>
+      </c>
+      <c r="J636" s="196">
+        <v>1</v>
+      </c>
+      <c r="K636" s="196">
+        <v>36632</v>
+      </c>
+      <c r="L636" s="196">
+        <v>342</v>
+      </c>
+      <c r="M636" s="196">
+        <v>103</v>
+      </c>
+      <c r="N636" s="196">
+        <v>41768</v>
+      </c>
+      <c r="O636" s="196">
+        <v>375</v>
+      </c>
+      <c r="P636" s="196">
+        <v>104</v>
+      </c>
+      <c r="Q636" s="196">
+        <v>12379</v>
+      </c>
+      <c r="R636" s="196">
+        <v>76279</v>
+      </c>
+      <c r="S636" s="196">
+        <v>88658</v>
+      </c>
+      <c r="T636" s="196">
+        <v>68</v>
+      </c>
+      <c r="U636" s="196">
+        <v>38</v>
+      </c>
+      <c r="V636" s="196">
+        <v>1045</v>
+      </c>
+      <c r="W636" s="196">
+        <v>436</v>
+      </c>
+      <c r="X636" s="196">
+        <v>1113</v>
+      </c>
+      <c r="Y636" s="196">
+        <v>474</v>
+      </c>
+      <c r="Z636" s="196">
+        <v>2</v>
+      </c>
+      <c r="AA636" s="196">
+        <v>139</v>
+      </c>
+      <c r="AB636" s="196">
+        <v>141</v>
+      </c>
+      <c r="AC636" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD636" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE636" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF636" s="196">
+        <v>44171</v>
+      </c>
+      <c r="AG636" s="196">
+        <v>44171</v>
+      </c>
+      <c r="AH636" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI636" s="196">
+        <v>11569750</v>
+      </c>
+      <c r="AJ636" s="196">
+        <v>64778</v>
+      </c>
+      <c r="AK636" s="197">
+        <v>11634528</v>
+      </c>
+    </row>
+    <row r="637" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A637" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B637" s="192" t="s">
+        <v>94</v>
+      </c>
+      <c r="C637" s="193"/>
+      <c r="D637" s="194" t="s">
+        <v>211</v>
+      </c>
+      <c r="E637" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F637" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G637" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H637" s="196">
+        <v>638</v>
+      </c>
+      <c r="I637" s="196">
+        <v>4</v>
+      </c>
+      <c r="J637" s="196">
+        <v>0</v>
+      </c>
+      <c r="K637" s="196">
+        <v>8153</v>
+      </c>
+      <c r="L637" s="196">
+        <v>32</v>
+      </c>
+      <c r="M637" s="196">
+        <v>10</v>
+      </c>
+      <c r="N637" s="196">
+        <v>8791</v>
+      </c>
+      <c r="O637" s="196">
+        <v>36</v>
+      </c>
+      <c r="P637" s="196">
+        <v>10</v>
+      </c>
+      <c r="Q637" s="196">
+        <v>1576</v>
+      </c>
+      <c r="R637" s="196">
+        <v>13208</v>
+      </c>
+      <c r="S637" s="196">
+        <v>14784</v>
+      </c>
+      <c r="T637" s="196">
+        <v>8</v>
+      </c>
+      <c r="U637" s="196">
+        <v>5</v>
+      </c>
+      <c r="V637" s="196">
+        <v>77</v>
+      </c>
+      <c r="W637" s="196">
+        <v>30</v>
+      </c>
+      <c r="X637" s="196">
+        <v>85</v>
+      </c>
+      <c r="Y637" s="196">
+        <v>35</v>
+      </c>
+      <c r="Z637" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA637" s="196">
+        <v>12</v>
+      </c>
+      <c r="AB637" s="196">
+        <v>12</v>
+      </c>
+      <c r="AC637" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD637" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE637" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF637" s="196">
+        <v>9325</v>
+      </c>
+      <c r="AG637" s="196">
+        <v>9325</v>
+      </c>
+      <c r="AH637" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI637" s="196">
+        <v>1945233</v>
+      </c>
+      <c r="AJ637" s="196">
+        <v>4841</v>
+      </c>
+      <c r="AK637" s="197">
+        <v>1950074</v>
+      </c>
+    </row>
+    <row r="638" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A638" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B638" s="192" t="s">
+        <v>95</v>
+      </c>
+      <c r="C638" s="193"/>
+      <c r="D638" s="194" t="s">
+        <v>213</v>
+      </c>
+      <c r="E638" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F638" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G638" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H638" s="196">
+        <v>466</v>
+      </c>
+      <c r="I638" s="196">
+        <v>17</v>
+      </c>
+      <c r="J638" s="196">
+        <v>1</v>
+      </c>
+      <c r="K638" s="196">
+        <v>10056</v>
+      </c>
+      <c r="L638" s="196">
+        <v>233</v>
+      </c>
+      <c r="M638" s="196">
+        <v>72</v>
+      </c>
+      <c r="N638" s="196">
+        <v>10522</v>
+      </c>
+      <c r="O638" s="196">
+        <v>250</v>
+      </c>
+      <c r="P638" s="196">
+        <v>73</v>
+      </c>
+      <c r="Q638" s="196">
+        <v>1126</v>
+      </c>
+      <c r="R638" s="196">
+        <v>17737</v>
+      </c>
+      <c r="S638" s="196">
+        <v>18863</v>
+      </c>
+      <c r="T638" s="196">
+        <v>39</v>
+      </c>
+      <c r="U638" s="196">
+        <v>23</v>
+      </c>
+      <c r="V638" s="196">
+        <v>596</v>
+      </c>
+      <c r="W638" s="196">
+        <v>285</v>
+      </c>
+      <c r="X638" s="196">
+        <v>635</v>
+      </c>
+      <c r="Y638" s="196">
+        <v>308</v>
+      </c>
+      <c r="Z638" s="196">
+        <v>1</v>
+      </c>
+      <c r="AA638" s="196">
+        <v>89</v>
+      </c>
+      <c r="AB638" s="196">
+        <v>90</v>
+      </c>
+      <c r="AC638" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD638" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE638" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF638" s="196">
+        <v>11329</v>
+      </c>
+      <c r="AG638" s="196">
+        <v>11329</v>
+      </c>
+      <c r="AH638" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI638" s="196">
+        <v>2496833</v>
+      </c>
+      <c r="AJ638" s="196">
+        <v>35824</v>
+      </c>
+      <c r="AK638" s="197">
+        <v>2532657</v>
+      </c>
+    </row>
+    <row r="639" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A639" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B639" s="192" t="s">
+        <v>96</v>
+      </c>
+      <c r="C639" s="193"/>
+      <c r="D639" s="194" t="s">
+        <v>214</v>
+      </c>
+      <c r="E639" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F639" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G639" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H639" s="196">
+        <v>1867</v>
+      </c>
+      <c r="I639" s="196">
+        <v>10</v>
+      </c>
+      <c r="J639" s="196">
+        <v>0</v>
+      </c>
+      <c r="K639" s="196">
+        <v>18592</v>
+      </c>
+      <c r="L639" s="196">
+        <v>116</v>
+      </c>
+      <c r="M639" s="196">
+        <v>54</v>
+      </c>
+      <c r="N639" s="196">
+        <v>20459</v>
+      </c>
+      <c r="O639" s="196">
+        <v>126</v>
+      </c>
+      <c r="P639" s="196">
+        <v>54</v>
+      </c>
+      <c r="Q639" s="196">
+        <v>4824</v>
+      </c>
+      <c r="R639" s="196">
+        <v>32990</v>
+      </c>
+      <c r="S639" s="196">
+        <v>37814</v>
+      </c>
+      <c r="T639" s="196">
+        <v>25</v>
+      </c>
+      <c r="U639" s="196">
+        <v>9</v>
+      </c>
+      <c r="V639" s="196">
+        <v>296</v>
+      </c>
+      <c r="W639" s="196">
+        <v>134</v>
+      </c>
+      <c r="X639" s="196">
+        <v>321</v>
+      </c>
+      <c r="Y639" s="196">
+        <v>143</v>
+      </c>
+      <c r="Z639" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA639" s="196">
+        <v>69</v>
+      </c>
+      <c r="AB639" s="196">
+        <v>69</v>
+      </c>
+      <c r="AC639" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD639" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE639" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF639" s="196">
+        <v>23455</v>
+      </c>
+      <c r="AG639" s="196">
+        <v>23455</v>
+      </c>
+      <c r="AH639" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI639" s="196">
+        <v>5222466</v>
+      </c>
+      <c r="AJ639" s="196">
+        <v>23582</v>
+      </c>
+      <c r="AK639" s="197">
+        <v>5246048</v>
+      </c>
+    </row>
+    <row r="640" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A640" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B640" s="192" t="s">
+        <v>97</v>
+      </c>
+      <c r="C640" s="193"/>
+      <c r="D640" s="194" t="s">
+        <v>215</v>
+      </c>
+      <c r="E640" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F640" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G640" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H640" s="196">
+        <v>2591</v>
+      </c>
+      <c r="I640" s="196">
+        <v>53</v>
+      </c>
+      <c r="J640" s="196">
+        <v>3</v>
+      </c>
+      <c r="K640" s="196">
+        <v>34723</v>
+      </c>
+      <c r="L640" s="196">
+        <v>430</v>
+      </c>
+      <c r="M640" s="196">
+        <v>291</v>
+      </c>
+      <c r="N640" s="196">
+        <v>37314</v>
+      </c>
+      <c r="O640" s="196">
+        <v>483</v>
+      </c>
+      <c r="P640" s="196">
+        <v>294</v>
+      </c>
+      <c r="Q640" s="196">
+        <v>6194</v>
+      </c>
+      <c r="R640" s="196">
+        <v>61821</v>
+      </c>
+      <c r="S640" s="196">
+        <v>68015</v>
+      </c>
+      <c r="T640" s="196">
+        <v>122</v>
+      </c>
+      <c r="U640" s="196">
+        <v>62</v>
+      </c>
+      <c r="V640" s="196">
+        <v>950</v>
+      </c>
+      <c r="W640" s="196">
+        <v>538</v>
+      </c>
+      <c r="X640" s="196">
+        <v>1072</v>
+      </c>
+      <c r="Y640" s="196">
+        <v>600</v>
+      </c>
+      <c r="Z640" s="196">
+        <v>9</v>
+      </c>
+      <c r="AA640" s="196">
+        <v>400</v>
+      </c>
+      <c r="AB640" s="196">
+        <v>409</v>
+      </c>
+      <c r="AC640" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD640" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE640" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF640" s="196">
+        <v>39668</v>
+      </c>
+      <c r="AG640" s="196">
+        <v>39668</v>
+      </c>
+      <c r="AH640" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI640" s="196">
+        <v>9055552</v>
+      </c>
+      <c r="AJ640" s="196">
+        <v>108376</v>
+      </c>
+      <c r="AK640" s="197">
+        <v>9163928</v>
+      </c>
+    </row>
+    <row r="641" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A641" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B641" s="192" t="s">
+        <v>98</v>
+      </c>
+      <c r="C641" s="193"/>
+      <c r="D641" s="194" t="s">
+        <v>216</v>
+      </c>
+      <c r="E641" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F641" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G641" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H641" s="196">
+        <v>869</v>
+      </c>
+      <c r="I641" s="196">
+        <v>5</v>
+      </c>
+      <c r="J641" s="196">
+        <v>0</v>
+      </c>
+      <c r="K641" s="196">
+        <v>13075</v>
+      </c>
+      <c r="L641" s="196">
+        <v>34</v>
+      </c>
+      <c r="M641" s="196">
+        <v>20</v>
+      </c>
+      <c r="N641" s="196">
+        <v>13944</v>
+      </c>
+      <c r="O641" s="196">
+        <v>39</v>
+      </c>
+      <c r="P641" s="196">
+        <v>20</v>
+      </c>
+      <c r="Q641" s="196">
+        <v>2141</v>
+      </c>
+      <c r="R641" s="196">
+        <v>21207</v>
+      </c>
+      <c r="S641" s="196">
+        <v>23348</v>
+      </c>
+      <c r="T641" s="196">
+        <v>9</v>
+      </c>
+      <c r="U641" s="196">
+        <v>5</v>
+      </c>
+      <c r="V641" s="196">
+        <v>76</v>
+      </c>
+      <c r="W641" s="196">
+        <v>39</v>
+      </c>
+      <c r="X641" s="196">
+        <v>85</v>
+      </c>
+      <c r="Y641" s="196">
+        <v>44</v>
+      </c>
+      <c r="Z641" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA641" s="196">
+        <v>20</v>
+      </c>
+      <c r="AB641" s="196">
+        <v>20</v>
+      </c>
+      <c r="AC641" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD641" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE641" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF641" s="196">
+        <v>15579</v>
+      </c>
+      <c r="AG641" s="196">
+        <v>15579</v>
+      </c>
+      <c r="AH641" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI641" s="196">
+        <v>3204876</v>
+      </c>
+      <c r="AJ641" s="196">
+        <v>8539</v>
+      </c>
+      <c r="AK641" s="197">
+        <v>3213415</v>
+      </c>
+    </row>
+    <row r="642" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A642" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B642" s="192" t="s">
+        <v>99</v>
+      </c>
+      <c r="C642" s="193"/>
+      <c r="D642" s="194" t="s">
+        <v>217</v>
+      </c>
+      <c r="E642" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F642" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G642" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H642" s="196">
+        <v>946</v>
+      </c>
+      <c r="I642" s="196">
+        <v>1</v>
+      </c>
+      <c r="J642" s="196">
+        <v>0</v>
+      </c>
+      <c r="K642" s="196">
+        <v>10498</v>
+      </c>
+      <c r="L642" s="196">
+        <v>24</v>
+      </c>
+      <c r="M642" s="196">
+        <v>10</v>
+      </c>
+      <c r="N642" s="196">
+        <v>11444</v>
+      </c>
+      <c r="O642" s="196">
+        <v>25</v>
+      </c>
+      <c r="P642" s="196">
+        <v>10</v>
+      </c>
+      <c r="Q642" s="196">
+        <v>2282</v>
+      </c>
+      <c r="R642" s="196">
+        <v>18776</v>
+      </c>
+      <c r="S642" s="196">
+        <v>21058</v>
+      </c>
+      <c r="T642" s="196">
+        <v>2</v>
+      </c>
+      <c r="U642" s="196">
+        <v>1</v>
+      </c>
+      <c r="V642" s="196">
+        <v>60</v>
+      </c>
+      <c r="W642" s="196">
+        <v>24</v>
+      </c>
+      <c r="X642" s="196">
+        <v>62</v>
+      </c>
+      <c r="Y642" s="196">
+        <v>25</v>
+      </c>
+      <c r="Z642" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA642" s="196">
+        <v>18</v>
+      </c>
+      <c r="AB642" s="196">
+        <v>18</v>
+      </c>
+      <c r="AC642" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD642" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE642" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF642" s="196">
+        <v>12015</v>
+      </c>
+      <c r="AG642" s="196">
+        <v>12015</v>
+      </c>
+      <c r="AH642" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI642" s="196">
+        <v>2683183</v>
+      </c>
+      <c r="AJ642" s="196">
+        <v>4721</v>
+      </c>
+      <c r="AK642" s="197">
+        <v>2687904</v>
+      </c>
+    </row>
+    <row r="643" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A643" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B643" s="192" t="s">
+        <v>100</v>
+      </c>
+      <c r="C643" s="193"/>
+      <c r="D643" s="194" t="s">
+        <v>218</v>
+      </c>
+      <c r="E643" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F643" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G643" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H643" s="196">
+        <v>6</v>
+      </c>
+      <c r="I643" s="196">
+        <v>0</v>
+      </c>
+      <c r="J643" s="196">
+        <v>0</v>
+      </c>
+      <c r="K643" s="196">
+        <v>118</v>
+      </c>
+      <c r="L643" s="196">
+        <v>1</v>
+      </c>
+      <c r="M643" s="196">
+        <v>0</v>
+      </c>
+      <c r="N643" s="196">
+        <v>124</v>
+      </c>
+      <c r="O643" s="196">
+        <v>1</v>
+      </c>
+      <c r="P643" s="196">
+        <v>0</v>
+      </c>
+      <c r="Q643" s="196">
+        <v>17</v>
+      </c>
+      <c r="R643" s="196">
+        <v>197</v>
+      </c>
+      <c r="S643" s="196">
+        <v>214</v>
+      </c>
+      <c r="T643" s="196">
+        <v>0</v>
+      </c>
+      <c r="U643" s="196">
+        <v>0</v>
+      </c>
+      <c r="V643" s="196">
+        <v>1</v>
+      </c>
+      <c r="W643" s="196">
+        <v>0</v>
+      </c>
+      <c r="X643" s="196">
+        <v>1</v>
+      </c>
+      <c r="Y643" s="196">
+        <v>0</v>
+      </c>
+      <c r="Z643" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA643" s="196">
+        <v>0</v>
+      </c>
+      <c r="AB643" s="196">
+        <v>0</v>
+      </c>
+      <c r="AC643" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD643" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE643" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF643" s="196">
+        <v>131</v>
+      </c>
+      <c r="AG643" s="196">
+        <v>131</v>
+      </c>
+      <c r="AH643" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI643" s="196">
+        <v>26053</v>
+      </c>
+      <c r="AJ643" s="196">
+        <v>15</v>
+      </c>
+      <c r="AK643" s="197">
+        <v>26068</v>
+      </c>
+    </row>
+    <row r="644" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A644" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B644" s="192" t="s">
+        <v>101</v>
+      </c>
+      <c r="C644" s="193"/>
+      <c r="D644" s="194" t="s">
+        <v>219</v>
+      </c>
+      <c r="E644" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F644" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G644" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H644" s="196">
+        <v>310</v>
+      </c>
+      <c r="I644" s="196">
+        <v>0</v>
+      </c>
+      <c r="J644" s="196">
+        <v>0</v>
+      </c>
+      <c r="K644" s="196">
+        <v>2827</v>
+      </c>
+      <c r="L644" s="196">
+        <v>6</v>
+      </c>
+      <c r="M644" s="196">
+        <v>4</v>
+      </c>
+      <c r="N644" s="196">
+        <v>3137</v>
+      </c>
+      <c r="O644" s="196">
+        <v>6</v>
+      </c>
+      <c r="P644" s="196">
+        <v>4</v>
+      </c>
+      <c r="Q644" s="196">
+        <v>833</v>
+      </c>
+      <c r="R644" s="196">
+        <v>5428</v>
+      </c>
+      <c r="S644" s="196">
+        <v>6261</v>
+      </c>
+      <c r="T644" s="196">
+        <v>0</v>
+      </c>
+      <c r="U644" s="196">
+        <v>0</v>
+      </c>
+      <c r="V644" s="196">
+        <v>20</v>
+      </c>
+      <c r="W644" s="196">
+        <v>6</v>
+      </c>
+      <c r="X644" s="196">
+        <v>20</v>
+      </c>
+      <c r="Y644" s="196">
+        <v>6</v>
+      </c>
+      <c r="Z644" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA644" s="196">
+        <v>5</v>
+      </c>
+      <c r="AB644" s="196">
+        <v>5</v>
+      </c>
+      <c r="AC644" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD644" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE644" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF644" s="196">
+        <v>3329</v>
+      </c>
+      <c r="AG644" s="196">
+        <v>3329</v>
+      </c>
+      <c r="AH644" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI644" s="196">
+        <v>803455</v>
+      </c>
+      <c r="AJ644" s="196">
+        <v>1137</v>
+      </c>
+      <c r="AK644" s="197">
+        <v>804592</v>
+      </c>
+    </row>
+    <row r="645" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A645" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B645" s="192" t="s">
+        <v>102</v>
+      </c>
+      <c r="C645" s="193"/>
+      <c r="D645" s="194" t="s">
+        <v>220</v>
+      </c>
+      <c r="E645" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F645" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G645" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H645" s="196">
+        <v>1865</v>
+      </c>
+      <c r="I645" s="196">
+        <v>24</v>
+      </c>
+      <c r="J645" s="196">
+        <v>0</v>
+      </c>
+      <c r="K645" s="196">
+        <v>16911</v>
+      </c>
+      <c r="L645" s="196">
+        <v>97</v>
+      </c>
+      <c r="M645" s="196">
+        <v>51</v>
+      </c>
+      <c r="N645" s="196">
+        <v>18776</v>
+      </c>
+      <c r="O645" s="196">
+        <v>121</v>
+      </c>
+      <c r="P645" s="196">
+        <v>51</v>
+      </c>
+      <c r="Q645" s="196">
+        <v>4485</v>
+      </c>
+      <c r="R645" s="196">
+        <v>29439</v>
+      </c>
+      <c r="S645" s="196">
+        <v>33924</v>
+      </c>
+      <c r="T645" s="196">
+        <v>62</v>
+      </c>
+      <c r="U645" s="196">
+        <v>31</v>
+      </c>
+      <c r="V645" s="196">
+        <v>217</v>
+      </c>
+      <c r="W645" s="196">
+        <v>119</v>
+      </c>
+      <c r="X645" s="196">
+        <v>279</v>
+      </c>
+      <c r="Y645" s="196">
+        <v>150</v>
+      </c>
+      <c r="Z645" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA645" s="196">
+        <v>70</v>
+      </c>
+      <c r="AB645" s="196">
+        <v>70</v>
+      </c>
+      <c r="AC645" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD645" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE645" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF645" s="196">
+        <v>19925</v>
+      </c>
+      <c r="AG645" s="196">
+        <v>19925</v>
+      </c>
+      <c r="AH645" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI645" s="196">
+        <v>4692301</v>
+      </c>
+      <c r="AJ645" s="196">
+        <v>25414</v>
+      </c>
+      <c r="AK645" s="197">
+        <v>4717715</v>
+      </c>
+    </row>
+    <row r="646" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A646" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B646" s="192" t="s">
+        <v>103</v>
+      </c>
+      <c r="C646" s="193"/>
+      <c r="D646" s="194" t="s">
+        <v>221</v>
+      </c>
+      <c r="E646" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F646" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G646" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H646" s="196">
+        <v>939</v>
+      </c>
+      <c r="I646" s="196">
+        <v>23</v>
+      </c>
+      <c r="J646" s="196">
+        <v>0</v>
+      </c>
+      <c r="K646" s="196">
+        <v>13783</v>
+      </c>
+      <c r="L646" s="196">
+        <v>138</v>
+      </c>
+      <c r="M646" s="196">
+        <v>40</v>
+      </c>
+      <c r="N646" s="196">
+        <v>14722</v>
+      </c>
+      <c r="O646" s="196">
+        <v>161</v>
+      </c>
+      <c r="P646" s="196">
+        <v>40</v>
+      </c>
+      <c r="Q646" s="196">
+        <v>2277</v>
+      </c>
+      <c r="R646" s="196">
+        <v>22048</v>
+      </c>
+      <c r="S646" s="196">
+        <v>24325</v>
+      </c>
+      <c r="T646" s="196">
+        <v>61</v>
+      </c>
+      <c r="U646" s="196">
+        <v>27</v>
+      </c>
+      <c r="V646" s="196">
+        <v>336</v>
+      </c>
+      <c r="W646" s="196">
+        <v>159</v>
+      </c>
+      <c r="X646" s="196">
+        <v>397</v>
+      </c>
+      <c r="Y646" s="196">
+        <v>186</v>
+      </c>
+      <c r="Z646" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA646" s="196">
+        <v>47</v>
+      </c>
+      <c r="AB646" s="196">
+        <v>47</v>
+      </c>
+      <c r="AC646" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD646" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE646" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF646" s="196">
+        <v>16676</v>
+      </c>
+      <c r="AG646" s="196">
+        <v>16676</v>
+      </c>
+      <c r="AH646" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI646" s="196">
+        <v>3248339</v>
+      </c>
+      <c r="AJ646" s="196">
+        <v>19980</v>
+      </c>
+      <c r="AK646" s="197">
+        <v>3268319</v>
+      </c>
+    </row>
+    <row r="647" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A647" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B647" s="192" t="s">
+        <v>104</v>
+      </c>
+      <c r="C647" s="193"/>
+      <c r="D647" s="194" t="s">
+        <v>222</v>
+      </c>
+      <c r="E647" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F647" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G647" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H647" s="196">
+        <v>3760</v>
+      </c>
+      <c r="I647" s="196">
+        <v>34</v>
+      </c>
+      <c r="J647" s="196">
+        <v>2</v>
+      </c>
+      <c r="K647" s="196">
+        <v>29783</v>
+      </c>
+      <c r="L647" s="196">
+        <v>151</v>
+      </c>
+      <c r="M647" s="196">
+        <v>24</v>
+      </c>
+      <c r="N647" s="196">
+        <v>33543</v>
+      </c>
+      <c r="O647" s="196">
+        <v>185</v>
+      </c>
+      <c r="P647" s="196">
+        <v>26</v>
+      </c>
+      <c r="Q647" s="196">
+        <v>10059</v>
+      </c>
+      <c r="R647" s="196">
+        <v>58647</v>
+      </c>
+      <c r="S647" s="196">
+        <v>68706</v>
+      </c>
+      <c r="T647" s="196">
+        <v>86</v>
+      </c>
+      <c r="U647" s="196">
+        <v>38</v>
+      </c>
+      <c r="V647" s="196">
+        <v>399</v>
+      </c>
+      <c r="W647" s="196">
+        <v>182</v>
+      </c>
+      <c r="X647" s="196">
+        <v>485</v>
+      </c>
+      <c r="Y647" s="196">
+        <v>220</v>
+      </c>
+      <c r="Z647" s="196">
+        <v>2</v>
+      </c>
+      <c r="AA647" s="196">
+        <v>28</v>
+      </c>
+      <c r="AB647" s="196">
+        <v>30</v>
+      </c>
+      <c r="AC647" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD647" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE647" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF647" s="196">
+        <v>35409</v>
+      </c>
+      <c r="AG647" s="196">
+        <v>35409</v>
+      </c>
+      <c r="AH647" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI647" s="196">
+        <v>8975275</v>
+      </c>
+      <c r="AJ647" s="196">
+        <v>21262</v>
+      </c>
+      <c r="AK647" s="197">
+        <v>8996537</v>
+      </c>
+    </row>
+    <row r="648" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A648" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B648" s="192" t="s">
+        <v>105</v>
+      </c>
+      <c r="C648" s="193"/>
+      <c r="D648" s="194" t="s">
+        <v>223</v>
+      </c>
+      <c r="E648" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F648" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G648" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H648" s="196">
+        <v>606</v>
+      </c>
+      <c r="I648" s="196">
+        <v>6</v>
+      </c>
+      <c r="J648" s="196">
+        <v>0</v>
+      </c>
+      <c r="K648" s="196">
+        <v>4172</v>
+      </c>
+      <c r="L648" s="196">
+        <v>38</v>
+      </c>
+      <c r="M648" s="196">
+        <v>12</v>
+      </c>
+      <c r="N648" s="196">
+        <v>4778</v>
+      </c>
+      <c r="O648" s="196">
+        <v>44</v>
+      </c>
+      <c r="P648" s="196">
+        <v>12</v>
+      </c>
+      <c r="Q648" s="196">
+        <v>1706</v>
+      </c>
+      <c r="R648" s="196">
+        <v>9021</v>
+      </c>
+      <c r="S648" s="196">
+        <v>10727</v>
+      </c>
+      <c r="T648" s="196">
+        <v>15</v>
+      </c>
+      <c r="U648" s="196">
+        <v>7</v>
+      </c>
+      <c r="V648" s="196">
+        <v>123</v>
+      </c>
+      <c r="W648" s="196">
+        <v>41</v>
+      </c>
+      <c r="X648" s="196">
+        <v>138</v>
+      </c>
+      <c r="Y648" s="196">
+        <v>48</v>
+      </c>
+      <c r="Z648" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA648" s="196">
+        <v>20</v>
+      </c>
+      <c r="AB648" s="196">
+        <v>20</v>
+      </c>
+      <c r="AC648" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD648" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE648" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF648" s="196">
+        <v>5043</v>
+      </c>
+      <c r="AG648" s="196">
+        <v>5043</v>
+      </c>
+      <c r="AH648" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI648" s="196">
+        <v>1390195</v>
+      </c>
+      <c r="AJ648" s="196">
+        <v>7330</v>
+      </c>
+      <c r="AK648" s="197">
+        <v>1397525</v>
+      </c>
+    </row>
+    <row r="649" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A649" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B649" s="192" t="s">
+        <v>106</v>
+      </c>
+      <c r="C649" s="193"/>
+      <c r="D649" s="194" t="s">
+        <v>224</v>
+      </c>
+      <c r="E649" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F649" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G649" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H649" s="196">
+        <v>392</v>
+      </c>
+      <c r="I649" s="196">
+        <v>0</v>
+      </c>
+      <c r="J649" s="196">
+        <v>0</v>
+      </c>
+      <c r="K649" s="196">
+        <v>3805</v>
+      </c>
+      <c r="L649" s="196">
+        <v>7</v>
+      </c>
+      <c r="M649" s="196">
+        <v>0</v>
+      </c>
+      <c r="N649" s="196">
+        <v>4197</v>
+      </c>
+      <c r="O649" s="196">
+        <v>7</v>
+      </c>
+      <c r="P649" s="196">
+        <v>0</v>
+      </c>
+      <c r="Q649" s="196">
+        <v>1025</v>
+      </c>
+      <c r="R649" s="196">
+        <v>7678</v>
+      </c>
+      <c r="S649" s="196">
+        <v>8703</v>
+      </c>
+      <c r="T649" s="196">
+        <v>0</v>
+      </c>
+      <c r="U649" s="196">
+        <v>0</v>
+      </c>
+      <c r="V649" s="196">
+        <v>18</v>
+      </c>
+      <c r="W649" s="196">
+        <v>7</v>
+      </c>
+      <c r="X649" s="196">
+        <v>18</v>
+      </c>
+      <c r="Y649" s="196">
+        <v>7</v>
+      </c>
+      <c r="Z649" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA649" s="196">
+        <v>0</v>
+      </c>
+      <c r="AB649" s="196">
+        <v>0</v>
+      </c>
+      <c r="AC649" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD649" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE649" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF649" s="196">
+        <v>4445</v>
+      </c>
+      <c r="AG649" s="196">
+        <v>4445</v>
+      </c>
+      <c r="AH649" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI649" s="196">
+        <v>1081998</v>
+      </c>
+      <c r="AJ649" s="196">
+        <v>950</v>
+      </c>
+      <c r="AK649" s="197">
+        <v>1082948</v>
+      </c>
+    </row>
+    <row r="650" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A650" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B650" s="192" t="s">
+        <v>107</v>
+      </c>
+      <c r="C650" s="193"/>
+      <c r="D650" s="194" t="s">
+        <v>225</v>
+      </c>
+      <c r="E650" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F650" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G650" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H650" s="196">
+        <v>57</v>
+      </c>
+      <c r="I650" s="196">
+        <v>0</v>
+      </c>
+      <c r="J650" s="196">
+        <v>0</v>
+      </c>
+      <c r="K650" s="196">
+        <v>846</v>
+      </c>
+      <c r="L650" s="196">
+        <v>0</v>
+      </c>
+      <c r="M650" s="196">
+        <v>0</v>
+      </c>
+      <c r="N650" s="196">
+        <v>903</v>
+      </c>
+      <c r="O650" s="196">
+        <v>0</v>
+      </c>
+      <c r="P650" s="196">
+        <v>0</v>
+      </c>
+      <c r="Q650" s="196">
+        <v>135</v>
+      </c>
+      <c r="R650" s="196">
+        <v>1388</v>
+      </c>
+      <c r="S650" s="196">
+        <v>1523</v>
+      </c>
+      <c r="T650" s="196">
+        <v>0</v>
+      </c>
+      <c r="U650" s="196">
+        <v>0</v>
+      </c>
+      <c r="V650" s="196">
+        <v>0</v>
+      </c>
+      <c r="W650" s="196">
+        <v>0</v>
+      </c>
+      <c r="X650" s="196">
+        <v>0</v>
+      </c>
+      <c r="Y650" s="196">
+        <v>0</v>
+      </c>
+      <c r="Z650" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA650" s="196">
+        <v>0</v>
+      </c>
+      <c r="AB650" s="196">
+        <v>0</v>
+      </c>
+      <c r="AC650" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD650" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE650" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF650" s="196">
+        <v>950</v>
+      </c>
+      <c r="AG650" s="196">
+        <v>950</v>
+      </c>
+      <c r="AH650" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI650" s="196">
+        <v>211355</v>
+      </c>
+      <c r="AJ650" s="196">
+        <v>0</v>
+      </c>
+      <c r="AK650" s="197">
+        <v>211355</v>
+      </c>
+    </row>
+    <row r="651" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A651" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B651" s="192" t="s">
+        <v>108</v>
+      </c>
+      <c r="C651" s="193"/>
+      <c r="D651" s="194" t="s">
+        <v>226</v>
+      </c>
+      <c r="E651" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F651" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G651" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H651" s="196">
+        <v>6482</v>
+      </c>
+      <c r="I651" s="196">
+        <v>61</v>
+      </c>
+      <c r="J651" s="196">
+        <v>1</v>
+      </c>
+      <c r="K651" s="196">
+        <v>40580</v>
+      </c>
+      <c r="L651" s="196">
+        <v>553</v>
+      </c>
+      <c r="M651" s="196">
+        <v>131</v>
+      </c>
+      <c r="N651" s="196">
+        <v>47062</v>
+      </c>
+      <c r="O651" s="196">
+        <v>614</v>
+      </c>
+      <c r="P651" s="196">
+        <v>132</v>
+      </c>
+      <c r="Q651" s="196">
+        <v>17936</v>
+      </c>
+      <c r="R651" s="196">
+        <v>88060</v>
+      </c>
+      <c r="S651" s="196">
+        <v>105996</v>
+      </c>
+      <c r="T651" s="196">
+        <v>166</v>
+      </c>
+      <c r="U651" s="196">
+        <v>65</v>
+      </c>
+      <c r="V651" s="196">
+        <v>1501</v>
+      </c>
+      <c r="W651" s="196">
+        <v>607</v>
+      </c>
+      <c r="X651" s="196">
+        <v>1667</v>
+      </c>
+      <c r="Y651" s="196">
+        <v>672</v>
+      </c>
+      <c r="Z651" s="196">
+        <v>1</v>
+      </c>
+      <c r="AA651" s="196">
+        <v>158</v>
+      </c>
+      <c r="AB651" s="196">
+        <v>159</v>
+      </c>
+      <c r="AC651" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD651" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE651" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF651" s="196">
+        <v>54960</v>
+      </c>
+      <c r="AG651" s="196">
+        <v>54960</v>
+      </c>
+      <c r="AH651" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI651" s="196">
+        <v>14279721</v>
+      </c>
+      <c r="AJ651" s="196">
+        <v>94522</v>
+      </c>
+      <c r="AK651" s="197">
+        <v>14374243</v>
+      </c>
+    </row>
+    <row r="652" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A652" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B652" s="192" t="s">
+        <v>109</v>
+      </c>
+      <c r="C652" s="193"/>
+      <c r="D652" s="194" t="s">
+        <v>227</v>
+      </c>
+      <c r="E652" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F652" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G652" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H652" s="196">
+        <v>184</v>
+      </c>
+      <c r="I652" s="196">
+        <v>0</v>
+      </c>
+      <c r="J652" s="196">
+        <v>0</v>
+      </c>
+      <c r="K652" s="196">
+        <v>2434</v>
+      </c>
+      <c r="L652" s="196">
+        <v>3</v>
+      </c>
+      <c r="M652" s="196">
+        <v>1</v>
+      </c>
+      <c r="N652" s="196">
+        <v>2618</v>
+      </c>
+      <c r="O652" s="196">
+        <v>3</v>
+      </c>
+      <c r="P652" s="196">
+        <v>1</v>
+      </c>
+      <c r="Q652" s="196">
+        <v>452</v>
+      </c>
+      <c r="R652" s="196">
+        <v>3873</v>
+      </c>
+      <c r="S652" s="196">
+        <v>4325</v>
+      </c>
+      <c r="T652" s="196">
+        <v>0</v>
+      </c>
+      <c r="U652" s="196">
+        <v>0</v>
+      </c>
+      <c r="V652" s="196">
+        <v>9</v>
+      </c>
+      <c r="W652" s="196">
+        <v>3</v>
+      </c>
+      <c r="X652" s="196">
+        <v>9</v>
+      </c>
+      <c r="Y652" s="196">
+        <v>3</v>
+      </c>
+      <c r="Z652" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA652" s="196">
+        <v>2</v>
+      </c>
+      <c r="AB652" s="196">
+        <v>2</v>
+      </c>
+      <c r="AC652" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD652" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE652" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF652" s="196">
+        <v>2732</v>
+      </c>
+      <c r="AG652" s="196">
+        <v>2732</v>
+      </c>
+      <c r="AH652" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI652" s="196">
+        <v>552031</v>
+      </c>
+      <c r="AJ652" s="196">
+        <v>514</v>
+      </c>
+      <c r="AK652" s="197">
+        <v>552545</v>
+      </c>
+    </row>
+    <row r="653" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A653" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B653" s="192" t="s">
+        <v>110</v>
+      </c>
+      <c r="C653" s="193"/>
+      <c r="D653" s="194" t="s">
+        <v>228</v>
+      </c>
+      <c r="E653" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F653" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G653" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H653" s="196">
+        <v>2084</v>
+      </c>
+      <c r="I653" s="196">
+        <v>22</v>
+      </c>
+      <c r="J653" s="196">
+        <v>0</v>
+      </c>
+      <c r="K653" s="196">
+        <v>28899</v>
+      </c>
+      <c r="L653" s="196">
+        <v>198</v>
+      </c>
+      <c r="M653" s="196">
+        <v>152</v>
+      </c>
+      <c r="N653" s="196">
+        <v>30983</v>
+      </c>
+      <c r="O653" s="196">
+        <v>220</v>
+      </c>
+      <c r="P653" s="196">
+        <v>152</v>
+      </c>
+      <c r="Q653" s="196">
+        <v>5299</v>
+      </c>
+      <c r="R653" s="196">
+        <v>53638</v>
+      </c>
+      <c r="S653" s="196">
+        <v>58937</v>
+      </c>
+      <c r="T653" s="196">
+        <v>61</v>
+      </c>
+      <c r="U653" s="196">
+        <v>25</v>
+      </c>
+      <c r="V653" s="196">
+        <v>526</v>
+      </c>
+      <c r="W653" s="196">
+        <v>234</v>
+      </c>
+      <c r="X653" s="196">
+        <v>587</v>
+      </c>
+      <c r="Y653" s="196">
+        <v>259</v>
+      </c>
+      <c r="Z653" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA653" s="196">
+        <v>188</v>
+      </c>
+      <c r="AB653" s="196">
+        <v>188</v>
+      </c>
+      <c r="AC653" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD653" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE653" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF653" s="196">
+        <v>32769</v>
+      </c>
+      <c r="AG653" s="196">
+        <v>32769</v>
+      </c>
+      <c r="AH653" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI653" s="196">
+        <v>7802327</v>
+      </c>
+      <c r="AJ653" s="196">
+        <v>54407</v>
+      </c>
+      <c r="AK653" s="197">
+        <v>7856734</v>
+      </c>
+    </row>
+    <row r="654" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A654" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B654" s="192" t="s">
+        <v>111</v>
+      </c>
+      <c r="C654" s="193"/>
+      <c r="D654" s="194" t="s">
+        <v>229</v>
+      </c>
+      <c r="E654" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F654" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G654" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H654" s="196">
+        <v>597</v>
+      </c>
+      <c r="I654" s="196">
+        <v>31</v>
+      </c>
+      <c r="J654" s="196">
+        <v>1</v>
+      </c>
+      <c r="K654" s="196">
+        <v>9358</v>
+      </c>
+      <c r="L654" s="196">
+        <v>111</v>
+      </c>
+      <c r="M654" s="196">
+        <v>40</v>
+      </c>
+      <c r="N654" s="196">
+        <v>9955</v>
+      </c>
+      <c r="O654" s="196">
+        <v>142</v>
+      </c>
+      <c r="P654" s="196">
+        <v>41</v>
+      </c>
+      <c r="Q654" s="196">
+        <v>1491</v>
+      </c>
+      <c r="R654" s="196">
+        <v>15098</v>
+      </c>
+      <c r="S654" s="196">
+        <v>16589</v>
+      </c>
+      <c r="T654" s="196">
+        <v>87</v>
+      </c>
+      <c r="U654" s="196">
+        <v>52</v>
+      </c>
+      <c r="V654" s="196">
+        <v>281</v>
+      </c>
+      <c r="W654" s="196">
+        <v>180</v>
+      </c>
+      <c r="X654" s="196">
+        <v>368</v>
+      </c>
+      <c r="Y654" s="196">
+        <v>232</v>
+      </c>
+      <c r="Z654" s="196">
+        <v>2</v>
+      </c>
+      <c r="AA654" s="196">
+        <v>46</v>
+      </c>
+      <c r="AB654" s="196">
+        <v>48</v>
+      </c>
+      <c r="AC654" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD654" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE654" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF654" s="196">
+        <v>11598</v>
+      </c>
+      <c r="AG654" s="196">
+        <v>11598</v>
+      </c>
+      <c r="AH654" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI654" s="196">
+        <v>2350421</v>
+      </c>
+      <c r="AJ654" s="196">
+        <v>29964</v>
+      </c>
+      <c r="AK654" s="197">
+        <v>2380385</v>
+      </c>
+    </row>
+    <row r="655" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A655" s="254">
+        <v>43586</v>
+      </c>
+      <c r="B655" s="192" t="s">
+        <v>112</v>
+      </c>
+      <c r="C655" s="193"/>
+      <c r="D655" s="194" t="s">
+        <v>230</v>
+      </c>
+      <c r="E655" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="F655" s="192">
+        <v>2019</v>
+      </c>
+      <c r="G655" s="195">
+        <v>43586</v>
+      </c>
+      <c r="H655" s="196">
+        <v>748</v>
+      </c>
+      <c r="I655" s="196">
+        <v>4</v>
+      </c>
+      <c r="J655" s="196">
+        <v>0</v>
+      </c>
+      <c r="K655" s="196">
+        <v>5251</v>
+      </c>
+      <c r="L655" s="196">
+        <v>23</v>
+      </c>
+      <c r="M655" s="196">
+        <v>2</v>
+      </c>
+      <c r="N655" s="196">
+        <v>5999</v>
+      </c>
+      <c r="O655" s="196">
+        <v>27</v>
+      </c>
+      <c r="P655" s="196">
+        <v>2</v>
+      </c>
+      <c r="Q655" s="196">
+        <v>1993</v>
+      </c>
+      <c r="R655" s="196">
+        <v>10568</v>
+      </c>
+      <c r="S655" s="196">
+        <v>12561</v>
+      </c>
+      <c r="T655" s="196">
+        <v>9</v>
+      </c>
+      <c r="U655" s="196">
+        <v>4</v>
+      </c>
+      <c r="V655" s="196">
+        <v>66</v>
+      </c>
+      <c r="W655" s="196">
+        <v>35</v>
+      </c>
+      <c r="X655" s="196">
+        <v>75</v>
+      </c>
+      <c r="Y655" s="196">
+        <v>39</v>
+      </c>
+      <c r="Z655" s="196">
+        <v>0</v>
+      </c>
+      <c r="AA655" s="196">
+        <v>2</v>
+      </c>
+      <c r="AB655" s="196">
+        <v>2</v>
+      </c>
+      <c r="AC655" s="196">
+        <v>0</v>
+      </c>
+      <c r="AD655" s="196">
+        <v>0</v>
+      </c>
+      <c r="AE655" s="196">
+        <v>0</v>
+      </c>
+      <c r="AF655" s="196">
+        <v>6326</v>
+      </c>
+      <c r="AG655" s="196">
+        <v>6326</v>
+      </c>
+      <c r="AH655" s="196">
+        <v>0</v>
+      </c>
+      <c r="AI655" s="196">
+        <v>1643086</v>
+      </c>
+      <c r="AJ655" s="196">
+        <v>3894</v>
+      </c>
+      <c r="AK655" s="197">
+        <v>1646980</v>
       </c>
     </row>
   </sheetData>
@@ -75036,47 +81589,47 @@
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="T3:Y3"/>
   </mergeCells>
-  <conditionalFormatting sqref="H7:AK596">
+  <conditionalFormatting sqref="H7:AK655">
     <cfRule type="containsBlanks" dxfId="41" priority="2">
       <formula>LEN(TRIM(H7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE7:AJ596">
+  <conditionalFormatting sqref="AE7:AJ655">
     <cfRule type="containsBlanks" dxfId="40" priority="1">
       <formula>LEN(TRIM(AE7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="30">
-    <dataValidation allowBlank="1" prompt="Part C.  VALUE OF BENEFIT ISSUANCES DURING THE MONTH_x000a_ Item 20. Total_x000a_" sqref="AK6" xr:uid="{DC78BE7F-602E-47EA-B1AA-DF7F82188FA8}"/>
-    <dataValidation allowBlank="1" prompt="Part C.  VALUE OF BENEFIT ISSUANCES DURING THE MONTH_x000a_ Item 19. Value of State benefit issuances_x000a_" sqref="AJ6" xr:uid="{06D750ED-5DA3-447C-AE3E-ADD768A7FE61}"/>
-    <dataValidation allowBlank="1" prompt="Part C.  VALUE OF BENEFIT ISSUANCES DURING THE MONTH_x000a_ Item 18. Value of Federal benefit issuances_x000a_" sqref="AI6" xr:uid="{B81A5818-E159-4610-9CDD-5CF16D3429EF}"/>
-    <dataValidation allowBlank="1" prompt="Part B.  ISSUANCES DURING THE MONTH_x000a_ Item 17. EBT Converted to Coupons _x000a_" sqref="AH6" xr:uid="{4250C252-CBF3-4804-BECE-53BCB38F1C7D}"/>
-    <dataValidation allowBlank="1" prompt="Part B.  ISSUANCES DURING THE MONTH_x000a_ Item 16. Total _x000a_" sqref="AG6" xr:uid="{0F8A30CC-5E39-454B-B445-E7022D74CE27}"/>
-    <dataValidation allowBlank="1" prompt="Part B.  ISSUANCES DURING THE MONTH_x000a_ Item 15. EBT Issuances _x000a_" sqref="AF6" xr:uid="{0C4BFAA3-9084-4939-A0F4-85AAEF95797B}"/>
-    <dataValidation allowBlank="1" prompt="Part B.  ISSUANCES DURING THE MONTH_x000a_ Item 14. Over the Counter_x000a_" sqref="AE6" xr:uid="{DD942A4B-5922-44D5-AF87-D73BDD41B108}"/>
-    <dataValidation allowBlank="1" prompt="Part B.  ISSUANCES DURING THE MONTH_x000a_ Item 13. Contracted Over the Counter_x000a_" sqref="AD6" xr:uid="{81D063A8-CEA0-4B92-A285-2E2984A99526}"/>
-    <dataValidation allowBlank="1" prompt="Part B.  ISSUANCES DURING THE MONTH_x000a_ Item 12. Mail_x000a_" sqref="AC6" xr:uid="{BB9C3CC3-90EE-4DED-A6D7-5DB0E5EF09A1}"/>
-    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 11. Number of persons in state only households _x000a_" sqref="AB6" xr:uid="{246BB88D-6BAE-4175-8ED1-32B1E4E0E8F6}"/>
-    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 10. Number of federal and state persons in federal/state households (State)_x000a_" sqref="AA6" xr:uid="{76B7839C-CAD2-4FD8-A40F-3F9CC887205D}"/>
-    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 9. Number of federal and state persons in federal/state households (Federal)_x000a_" sqref="Z6" xr:uid="{63EE7717-C37B-406E-8D54-5856C8CF022A}"/>
-    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 8. Number of persons in federal only households _x000a_" sqref="Y6" xr:uid="{892216D5-606F-4AD9-967E-B755C9017BA6}"/>
-    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 7. Number of Households (State)_x000a_" sqref="X6" xr:uid="{4FD774AE-7FD9-4584-A3A1-9FF40614AB02}"/>
-    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 6. Number of Households (Federal/State)_x000a_" sqref="W6" xr:uid="{69510C01-CBBF-4A23-8AED-D5AA594BBCD7}"/>
-    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 5. Number of Households (Federal)_x000a_" sqref="V6" xr:uid="{C126847C-BB28-4C3D-9755-D7829D3E2691}"/>
-    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 4. Number of persons in state only households _x000a_ Column B.  Non-Public Assistance" sqref="U6" xr:uid="{31124D6E-63EF-4806-9020-F3FD3B380064}"/>
-    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 4. Number of persons in state only households _x000a_ Column A.  Public Assistance" sqref="T6" xr:uid="{31B5B721-314C-4A47-A907-FF5896C1D395}"/>
-    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 3. Number of federal and state persons in federal/state households (State)_x000a_ Column B.  Non-Public Assistance" sqref="S6" xr:uid="{75864D04-D68A-48FF-A9E3-863DFCAE1A30}"/>
-    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 3. Number of federal and state persons in federal/state households (Federal)_x000a_ Column B.  Non-Public Assistance" sqref="R6" xr:uid="{E5049984-E79D-4A3B-8FB4-D9C332CCEFAF}"/>
-    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 3. Number of federal and state persons in federal/state households (State)_x000a_ Column A.  Public Assistance" sqref="Q6" xr:uid="{4DCB565A-D3F8-497E-B084-A8FF998C7D8E}"/>
-    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 3. Number of federal and state persons in federal/state households (Federal)_x000a_ Column A.  Public Assistance" sqref="P6" xr:uid="{7AB3001D-B7AD-4775-A3C1-D20A7C94DE7B}"/>
-    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 2. Number of persons in federal only households _x000a_ Column B.  Non-Public Assistance" sqref="O6" xr:uid="{FF9117DA-0BDB-4BD8-8237-E703CE085A47}"/>
-    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 2. Number of persons in federal only households _x000a_ Column A.  Public Assistance" sqref="N6" xr:uid="{34A3C9CD-C9C1-420F-9774-DDD36EDD16A1}"/>
-    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 1. Number of State Households_x000a_ Column B.  Non-Public Assistance" sqref="M6" xr:uid="{C7476025-D9F1-4D53-8C46-2443735DD20C}"/>
-    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 1. Number of Federal/State Households _x000a_ Column B.  Non-Public Assistance" sqref="L6" xr:uid="{F99726C5-B10D-48B6-ABBF-EEA29370856D}"/>
-    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 1. Number of Federal Households_x000a_ Column B.  Non-Public Assistance" sqref="K6" xr:uid="{A59BE301-827D-4E97-83E5-DCCC2EA0849E}"/>
-    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 1. Number of State Households _x000a_ Column A.  Public Assistance" sqref="J6" xr:uid="{5E352C92-3401-4F56-9F64-259BE4754ACD}"/>
-    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 1. Number of Federal/State Households _x000a_ Column A.  Public Assistance" sqref="I6" xr:uid="{2E1FCCD9-8AEF-4FDC-83A8-AAF130F4F92B}"/>
-    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 1. Number of Federal Households _x000a_ Column A.  Public Assistance" sqref="H6" xr:uid="{48B6C6A1-F4BA-4807-A133-F029BD011E48}"/>
+    <dataValidation allowBlank="1" prompt="Part C.  VALUE OF BENEFIT ISSUANCES DURING THE MONTH_x000a_ Item 20. Total_x000a_" sqref="AK6" xr:uid="{B78394B5-4A40-4B46-A438-A894D215ECF1}"/>
+    <dataValidation allowBlank="1" prompt="Part C.  VALUE OF BENEFIT ISSUANCES DURING THE MONTH_x000a_ Item 19. Value of State benefit issuances_x000a_" sqref="AJ6" xr:uid="{3D5FBCFF-DC3C-4C55-A31D-FCAFFEDD9CDF}"/>
+    <dataValidation allowBlank="1" prompt="Part C.  VALUE OF BENEFIT ISSUANCES DURING THE MONTH_x000a_ Item 18. Value of Federal benefit issuances_x000a_" sqref="AI6" xr:uid="{D9F17BDA-1527-4B22-B4A8-C4DCDB2CC751}"/>
+    <dataValidation allowBlank="1" prompt="Part B.  ISSUANCES DURING THE MONTH_x000a_ Item 17. EBT Converted to Coupons _x000a_" sqref="AH6" xr:uid="{85175A6F-44C6-4EE5-B7B4-DA00D1509E7C}"/>
+    <dataValidation allowBlank="1" prompt="Part B.  ISSUANCES DURING THE MONTH_x000a_ Item 16. Total _x000a_" sqref="AG6" xr:uid="{BBD28261-7450-4551-B4CC-BDB58B053564}"/>
+    <dataValidation allowBlank="1" prompt="Part B.  ISSUANCES DURING THE MONTH_x000a_ Item 15. EBT Issuances _x000a_" sqref="AF6" xr:uid="{72277282-7E5B-4B26-9F3A-9DCB938D3CE4}"/>
+    <dataValidation allowBlank="1" prompt="Part B.  ISSUANCES DURING THE MONTH_x000a_ Item 14. Over the Counter_x000a_" sqref="AE6" xr:uid="{6628D0F7-8936-49DB-A9BD-E5D1FFF58768}"/>
+    <dataValidation allowBlank="1" prompt="Part B.  ISSUANCES DURING THE MONTH_x000a_ Item 13. Contracted Over the Counter_x000a_" sqref="AD6" xr:uid="{4DF539F1-6EC5-4DAD-B4A7-F4370B15B342}"/>
+    <dataValidation allowBlank="1" prompt="Part B.  ISSUANCES DURING THE MONTH_x000a_ Item 12. Mail_x000a_" sqref="AC6" xr:uid="{2F466B81-BF10-4ADF-A0C4-6971879ACE64}"/>
+    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 11. Number of persons in state only households _x000a_" sqref="AB6" xr:uid="{B4E43A65-794C-4824-A354-03786ACB10A3}"/>
+    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 10. Number of federal and state persons in federal/state households (State)_x000a_" sqref="AA6" xr:uid="{9BDBD133-97E8-440A-9EBB-38B9FDD8AEC2}"/>
+    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 9. Number of federal and state persons in federal/state households (Federal)_x000a_" sqref="Z6" xr:uid="{929F8D8A-303D-4759-873A-7B6E4102C649}"/>
+    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 8. Number of persons in federal only households _x000a_" sqref="Y6" xr:uid="{51E8BE8D-44C4-469D-B33D-168A725AAD02}"/>
+    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 7. Number of Households (State)_x000a_" sqref="X6" xr:uid="{E107A16B-21CE-40CC-A197-767321075CAB}"/>
+    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 6. Number of Households (Federal/State)_x000a_" sqref="W6" xr:uid="{DFB21579-288D-4854-9D69-F8E54525B65D}"/>
+    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 5. Number of Households (Federal)_x000a_" sqref="V6" xr:uid="{A13EDC0A-56B1-43BF-8998-6F914B226383}"/>
+    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 4. Number of persons in state only households _x000a_ Column B.  Non-Public Assistance" sqref="U6" xr:uid="{3531452F-6D49-44D9-9A0D-ECC3C6ECECE3}"/>
+    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 4. Number of persons in state only households _x000a_ Column A.  Public Assistance" sqref="T6" xr:uid="{8B695B39-318C-48CF-B7C6-11A48987E3D1}"/>
+    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 3. Number of federal and state persons in federal/state households (State)_x000a_ Column B.  Non-Public Assistance" sqref="S6" xr:uid="{27BC2345-F50C-4D2E-8386-DFB5C535205A}"/>
+    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 3. Number of federal and state persons in federal/state households (Federal)_x000a_ Column B.  Non-Public Assistance" sqref="R6" xr:uid="{4775D47F-9892-44A2-9AE6-A42F242D2A5B}"/>
+    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 3. Number of federal and state persons in federal/state households (State)_x000a_ Column A.  Public Assistance" sqref="Q6" xr:uid="{295490B5-D171-467D-B155-18F9DD116322}"/>
+    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 3. Number of federal and state persons in federal/state households (Federal)_x000a_ Column A.  Public Assistance" sqref="P6" xr:uid="{1605D839-DB86-4739-8C98-ABB12462C882}"/>
+    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 2. Number of persons in federal only households _x000a_ Column B.  Non-Public Assistance" sqref="O6" xr:uid="{BAF37F47-CC73-4770-9D0A-7EDB77C9D597}"/>
+    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 2. Number of persons in federal only households _x000a_ Column A.  Public Assistance" sqref="N6" xr:uid="{E7569725-28CF-4FB0-A55B-4A030F0CB951}"/>
+    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 1. Number of State Households_x000a_ Column B.  Non-Public Assistance" sqref="M6" xr:uid="{C89734D0-4409-4DF6-B11F-64D9FBD2A8BF}"/>
+    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 1. Number of Federal/State Households _x000a_ Column B.  Non-Public Assistance" sqref="L6" xr:uid="{2247A31B-06DD-459F-9791-144397B0B11B}"/>
+    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 1. Number of Federal Households_x000a_ Column B.  Non-Public Assistance" sqref="K6" xr:uid="{4B011EA0-CA6F-4632-8D29-9CD6AD84D080}"/>
+    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 1. Number of State Households _x000a_ Column A.  Public Assistance" sqref="J6" xr:uid="{BB573B0C-AB9C-4653-989B-4A325DC64A9D}"/>
+    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 1. Number of Federal/State Households _x000a_ Column A.  Public Assistance" sqref="I6" xr:uid="{2AC8BDCD-CFB0-4C00-B210-6DE1FA67E3E2}"/>
+    <dataValidation allowBlank="1" prompt="Part A.  PARTICIPATION DURING THE MONTH_x000a_ Item 1. Number of Federal Households _x000a_ Column A.  Public Assistance" sqref="H6" xr:uid="{882C9D20-5D48-44B7-9D66-57981E360776}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
